--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Encyclopedia-Exandria\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AEBE8C-F388-7748-8993-3448BE6C617F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="42780" windowHeight="21525" tabRatio="918" activeTab="5"/>
+    <workbookView xWindow="2760" yWindow="1160" windowWidth="31000" windowHeight="21520" tabRatio="918" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="8" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="Rifenmist Peninsula" sheetId="5" r:id="rId8"/>
     <sheet name="Verdant Expanse" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="60">
   <si>
     <t>Human</t>
   </si>
@@ -175,9 +176,6 @@
     <t>Vues'dal</t>
   </si>
   <si>
-    <t>Foramere</t>
-  </si>
-  <si>
     <t>Kymal</t>
   </si>
   <si>
@@ -220,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -892,95 +890,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="34">
-        <f>('Bladeshimmer Shoreline'!B14+'Cliffkeep Mountains'!B14+'Dividing Plains'!B14+'Lucidian Coast'!B14+'Stormcrest Mountains'!B14+'Rifenmist Peninsula'!B14+'Verdant Expanse'!B14)</f>
-        <v>647394.10000000009</v>
+        <f>('Bladeshimmer Shoreline'!B14+'Cliffkeep Mountains'!B14+'Dividing Plains'!B13+'Lucidian Coast'!B14+'Stormcrest Mountains'!B14+'Rifenmist Peninsula'!B14+'Verdant Expanse'!B14)</f>
+        <v>658837.30000000005</v>
       </c>
       <c r="C2" s="34">
-        <f>('Bladeshimmer Shoreline'!B18+'Cliffkeep Mountains'!B18+'Dividing Plains'!B18+'Lucidian Coast'!B18+'Stormcrest Mountains'!B18+'Rifenmist Peninsula'!B18+'Verdant Expanse'!B18)</f>
+        <f>('Bladeshimmer Shoreline'!B18+'Cliffkeep Mountains'!B18+'Dividing Plains'!B17+'Lucidian Coast'!B18+'Stormcrest Mountains'!B18+'Rifenmist Peninsula'!B18+'Verdant Expanse'!B18)</f>
         <v>1621230</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="35"/>
       <c r="C4" s="35"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="35"/>
       <c r="C5" s="35"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="35"/>
       <c r="C6" s="35"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -992,26 +990,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1091,9 +1089,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -1145,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>0</v>
@@ -1197,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>0</v>
@@ -1249,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>0</v>
@@ -1301,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="17">
@@ -1351,7 +1349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="17">
@@ -1401,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="17">
@@ -1451,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="17">
@@ -1501,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="18">
@@ -1551,7 +1549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
@@ -1612,7 +1610,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -1624,7 +1622,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
@@ -1634,8 +1632,8 @@
       </c>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
@@ -1643,7 +1641,7 @@
         <v>12471</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -1651,7 +1649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
@@ -1676,26 +1674,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1775,7 +1773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1883,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -1937,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
@@ -1991,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="17">
@@ -2041,7 +2039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="17">
@@ -2091,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="17">
@@ -2141,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="17">
@@ -2191,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="18">
@@ -2241,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2312,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
@@ -2324,8 +2322,8 @@
       </c>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
@@ -2333,7 +2331,7 @@
         <v>12471</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -2341,7 +2339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
@@ -2366,26 +2364,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -2465,7 +2463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -2519,7 +2517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>22</v>
       </c>
@@ -2573,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>23</v>
       </c>
@@ -2627,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -2681,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
@@ -2735,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -2789,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>0</v>
@@ -2841,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>0</v>
@@ -2893,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>0</v>
@@ -2945,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3004,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -3018,7 +3016,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
@@ -3028,8 +3026,8 @@
       </c>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
@@ -3037,7 +3035,7 @@
         <v>12471</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -3045,7 +3043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
@@ -3070,26 +3068,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -3101,7 +3099,7 @@
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="38"/>
       <c r="G1" s="37" t="s">
@@ -3109,7 +3107,7 @@
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="38"/>
       <c r="K1" s="37" t="s">
@@ -3124,7 +3122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -3169,127 +3167,127 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="5">
-        <v>400</v>
-      </c>
-      <c r="C3" s="16">
-        <v>0.22</v>
-      </c>
-      <c r="D3" s="13">
-        <f>$B3*C3</f>
-        <v>88</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <f>$B3*E3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <f>$B3*G3</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <f>$B3*I3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="13">
-        <f>$B3*K3</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
-        <f>$B3*M3</f>
-        <v>0</v>
+      <c r="B3" s="7">
+        <v>7991</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0.73</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D10" si="0">$B3*C3</f>
+        <v>5833.43</v>
+      </c>
+      <c r="E3" s="17">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:H10" si="1">$B3*E3</f>
+        <v>1118.74</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J10" si="2">$B3*I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14">
+        <f t="shared" ref="L3:N10" si="3">$B3*K3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="N3" s="14">
+        <f t="shared" si="3"/>
+        <v>1038.83</v>
       </c>
       <c r="O3" s="22">
-        <f>SUM(C3,E3,G3,I3,K3,M3)</f>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O3:O10" si="4">SUM(C3,E3,G3,I3,K3,M3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7">
-        <v>7991</v>
+        <v>1390</v>
       </c>
       <c r="C4" s="17">
-        <v>0.73</v>
+        <v>0.4</v>
       </c>
       <c r="D4" s="14">
-        <f t="shared" ref="D4:D11" si="0">$B4*C4</f>
-        <v>5833.43</v>
+        <f t="shared" si="0"/>
+        <v>556</v>
       </c>
       <c r="E4" s="17">
-        <v>0.14000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
-        <f t="shared" ref="F4:H11" si="1">$B4*E4</f>
-        <v>1118.74</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="G4" s="17">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>528.20000000000005</v>
       </c>
       <c r="I4" s="17">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J4" s="14">
-        <f t="shared" ref="J4:J11" si="2">$B4*I4</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>208.5</v>
       </c>
       <c r="K4" s="17">
         <v>0</v>
       </c>
       <c r="L4" s="14">
-        <f t="shared" ref="L4:N11" si="3">$B4*K4</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M4" s="17">
-        <v>0.13</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N4" s="14">
         <f t="shared" si="3"/>
-        <v>1038.83</v>
+        <v>97.300000000000011</v>
       </c>
       <c r="O4" s="22">
-        <f t="shared" ref="O4:O11" si="4">SUM(C4,E4,G4,I4,K4,M4)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7">
-        <v>1390</v>
+        <v>26205</v>
       </c>
       <c r="C5" s="17">
-        <v>0.4</v>
+        <v>0.65</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="0"/>
-        <v>556</v>
+        <v>17033.25</v>
       </c>
       <c r="E5" s="17">
         <v>0</v>
@@ -3299,51 +3297,49 @@
         <v>0</v>
       </c>
       <c r="G5" s="17">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>528.20000000000005</v>
+        <v>0</v>
       </c>
       <c r="I5" s="17">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="2"/>
-        <v>208.5</v>
+        <v>262.05</v>
       </c>
       <c r="K5" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2620.5</v>
       </c>
       <c r="M5" s="17">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="N5" s="14">
         <f t="shared" si="3"/>
-        <v>111.2</v>
+        <v>6289.2</v>
       </c>
       <c r="O5" s="22">
         <f t="shared" si="4"/>
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>52</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
       <c r="B6" s="7">
-        <v>26205</v>
+        <v>0</v>
       </c>
       <c r="C6" s="17">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="0"/>
-        <v>17033.25</v>
+        <v>0</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
@@ -3360,32 +3356,32 @@
         <v>0</v>
       </c>
       <c r="I6" s="17">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>262.05</v>
+        <v>0</v>
       </c>
       <c r="K6" s="17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="3"/>
-        <v>2620.5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="17">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" si="3"/>
-        <v>3144.6</v>
+        <v>0</v>
       </c>
       <c r="O6" s="22">
         <f t="shared" si="4"/>
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>0</v>
@@ -3437,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>0</v>
@@ -3489,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>0</v>
@@ -3541,50 +3537,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="14">
+    <row r="10" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14">
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="17">
-        <v>0</v>
-      </c>
-      <c r="L10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3593,164 +3589,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9">
-        <v>0</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <v>0</v>
-      </c>
-      <c r="L11" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>0</v>
-      </c>
-      <c r="N11" s="15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="25">
-        <f>SUM(B3:B11)</f>
-        <v>35986</v>
-      </c>
-      <c r="C12" s="19">
-        <f>D12/$B12</f>
-        <v>0.65332851664536207</v>
-      </c>
-      <c r="D12" s="3">
-        <f>SUM(D3:D11)</f>
-        <v>23510.68</v>
-      </c>
-      <c r="E12" s="19">
-        <f>F12/$B12</f>
-        <v>3.1088200967042737E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <f>SUM(F3:F11)</f>
+      <c r="B11" s="25">
+        <f>SUM(B3:B10)</f>
+        <v>35586</v>
+      </c>
+      <c r="C11" s="19">
+        <f>D11/$B11</f>
+        <v>0.65819929185634796</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(D3:D10)</f>
+        <v>23422.68</v>
+      </c>
+      <c r="E11" s="19">
+        <f>F11/$B11</f>
+        <v>3.1437644017310182E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f>SUM(F3:F10)</f>
         <v>1118.74</v>
       </c>
-      <c r="G12" s="19">
-        <f>H12/$B12</f>
-        <v>1.4677930306230201E-2</v>
-      </c>
-      <c r="H12" s="3">
-        <f>SUM(H3:H11)</f>
+      <c r="G11" s="19">
+        <f>H11/$B11</f>
+        <v>1.4842915753386164E-2</v>
+      </c>
+      <c r="H11" s="3">
+        <f>SUM(H3:H10)</f>
         <v>528.20000000000005</v>
       </c>
-      <c r="I12" s="19">
-        <f>J12/$B12</f>
-        <v>1.3075918412716056E-2</v>
-      </c>
-      <c r="J12" s="3">
-        <f>SUM(J3:J11)</f>
+      <c r="I11" s="19">
+        <f>J11/$B11</f>
+        <v>1.3222896644747935E-2</v>
+      </c>
+      <c r="J11" s="3">
+        <f>SUM(J3:J10)</f>
         <v>470.55</v>
       </c>
-      <c r="K12" s="19">
-        <f>L12/$B12</f>
-        <v>7.2819985549936087E-2</v>
-      </c>
-      <c r="L12" s="3">
-        <f>SUM(L3:L11)</f>
+      <c r="K11" s="19">
+        <f>L11/$B11</f>
+        <v>7.3638509526218171E-2</v>
+      </c>
+      <c r="L11" s="3">
+        <f>SUM(L3:L10)</f>
         <v>2620.5</v>
       </c>
-      <c r="M12" s="19">
-        <f>N12/$B12</f>
-        <v>0.11934168843439115</v>
-      </c>
-      <c r="N12" s="3">
-        <f>SUM(N3:N11)</f>
-        <v>4294.63</v>
-      </c>
-      <c r="O12" s="23">
-        <f>SUM(C12,E12,G12,I12,K12,M12)</f>
-        <v>0.90433224031567838</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+      <c r="M11" s="19">
+        <f>N11/$B11</f>
+        <v>0.20865874220198954</v>
+      </c>
+      <c r="N11" s="3">
+        <f>SUM(N3:N10)</f>
+        <v>7425.33</v>
+      </c>
+      <c r="O11" s="23">
+        <f>SUM(C11,E11,G11,I11,K11,M11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26">
-        <f>B12*C13</f>
-        <v>1799.3000000000002</v>
-      </c>
-      <c r="C13" s="29">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="B12" s="26">
+        <f>B11*C12</f>
+        <v>8896.5</v>
+      </c>
+      <c r="C12" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30">
-        <f>B12+B13</f>
-        <v>37785.300000000003</v>
-      </c>
-      <c r="C14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="B13" s="30">
+        <f>B11+B12</f>
+        <v>44482.5</v>
+      </c>
+      <c r="C13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B15" s="26">
         <v>12471</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B16" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="17" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="30">
-        <f>B16*B17</f>
+      <c r="B17" s="30">
+        <f>B15*B16</f>
         <v>261891</v>
       </c>
     </row>
@@ -3770,26 +3714,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -3824,7 +3768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -3869,9 +3813,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5">
         <v>2230</v>
@@ -3923,9 +3867,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7">
         <v>9015</v>
@@ -3977,9 +3921,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7">
         <v>410</v>
@@ -4031,9 +3975,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="7">
         <v>210</v>
@@ -4085,7 +4029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>0</v>
@@ -4137,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>0</v>
@@ -4189,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>0</v>
@@ -4241,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>0</v>
@@ -4293,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>0</v>
@@ -4345,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
@@ -4406,30 +4350,30 @@
         <v>0.98230088495575241</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="26">
         <f>B12*C13</f>
-        <v>1186.5</v>
+        <v>5932.5</v>
       </c>
       <c r="C13" s="29">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="30">
         <f>B12+B13</f>
-        <v>13051.5</v>
+        <v>17797.5</v>
       </c>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
@@ -4437,7 +4381,7 @@
         <v>12471</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -4445,7 +4389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
@@ -4470,26 +4414,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -4520,7 +4464,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -4565,7 +4509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -4619,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7">
         <v>0</v>
@@ -4671,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>0</v>
@@ -4723,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7">
         <v>0</v>
@@ -4775,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>0</v>
@@ -4827,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>0</v>
@@ -4879,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>0</v>
@@ -4931,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>0</v>
@@ -4983,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>0</v>
@@ -5035,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
@@ -5096,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -5108,7 +5052,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
@@ -5118,8 +5062,8 @@
       </c>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
@@ -5127,7 +5071,7 @@
         <v>12471</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -5135,7 +5079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
@@ -5160,26 +5104,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -5214,7 +5158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -5259,7 +5203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
@@ -5313,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
@@ -5367,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>37</v>
       </c>
@@ -5421,7 +5365,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
@@ -5475,7 +5419,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -5529,7 +5473,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
@@ -5583,7 +5527,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
@@ -5637,7 +5581,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>0</v>
@@ -5689,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>0</v>
@@ -5741,7 +5685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
@@ -5802,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -5814,7 +5758,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
@@ -5824,8 +5768,8 @@
       </c>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
@@ -5833,7 +5777,7 @@
         <v>12471</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -5841,7 +5785,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>
@@ -5866,26 +5810,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>7</v>
       </c>
@@ -5918,7 +5862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -5963,7 +5907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -6017,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -6071,7 +6015,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7">
         <v>0</v>
@@ -6123,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>46</v>
       </c>
@@ -6177,7 +6121,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7">
         <v>0</v>
@@ -6229,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="7">
         <v>0</v>
@@ -6281,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7">
         <v>0</v>
@@ -6333,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="7">
         <v>0</v>
@@ -6385,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9">
         <v>0</v>
@@ -6437,7 +6381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>12</v>
       </c>
@@ -6498,7 +6442,7 @@
         <v>0.99948033050979568</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>16</v>
       </c>
@@ -6510,7 +6454,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>17</v>
       </c>
@@ -6520,8 +6464,8 @@
       </c>
       <c r="C14" s="31"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
         <v>18</v>
       </c>
@@ -6529,7 +6473,7 @@
         <v>12471</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>19</v>
       </c>
@@ -6537,7 +6481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>20</v>
       </c>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6AEBE8C-F388-7748-8993-3448BE6C617F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5106972-022E-954D-B92A-EB0E3FBC1D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1160" windowWidth="31000" windowHeight="21520" tabRatio="918" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="1520" windowWidth="31000" windowHeight="21520" tabRatio="918" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="8" r:id="rId1"/>
@@ -1677,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3717,7 +3717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5106972-022E-954D-B92A-EB0E3FBC1D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62DB82-F0EF-9047-B869-FB0FC1BC26EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="1520" windowWidth="31000" windowHeight="21520" tabRatio="918" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19420" yWindow="1460" windowWidth="31000" windowHeight="21520" tabRatio="918" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="61">
   <si>
     <t>Human</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Dunghill</t>
+  </si>
+  <si>
+    <t>port udaa</t>
   </si>
 </sst>
 </file>
@@ -921,7 +924,7 @@
       </c>
       <c r="B2" s="34">
         <f>('Bladeshimmer Shoreline'!B14+'Cliffkeep Mountains'!B14+'Dividing Plains'!B13+'Lucidian Coast'!B14+'Stormcrest Mountains'!B14+'Rifenmist Peninsula'!B14+'Verdant Expanse'!B14)</f>
-        <v>658837.30000000005</v>
+        <v>664325.4</v>
       </c>
       <c r="C2" s="34">
         <f>('Bladeshimmer Shoreline'!B18+'Cliffkeep Mountains'!B18+'Dividing Plains'!B17+'Lucidian Coast'!B18+'Stormcrest Mountains'!B18+'Rifenmist Peninsula'!B18+'Verdant Expanse'!B18)</f>
@@ -1677,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5107,8 +5110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5582,23 +5585,25 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="B10" s="7">
-        <v>0</v>
+        <v>2230</v>
       </c>
       <c r="C10" s="17">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1025.8</v>
       </c>
       <c r="E10" s="17">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>468.29999999999995</v>
       </c>
       <c r="G10" s="17">
         <v>0</v>
@@ -5615,22 +5620,22 @@
         <v>0</v>
       </c>
       <c r="K10" s="17">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>133.79999999999998</v>
       </c>
       <c r="M10" s="17">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>602.1</v>
       </c>
       <c r="O10" s="22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5691,27 +5696,27 @@
       </c>
       <c r="B12" s="25">
         <f>SUM(B3:B11)</f>
-        <v>155100</v>
+        <v>157330</v>
       </c>
       <c r="C12" s="19">
         <f>D12/$B12</f>
-        <v>1.0161186331399097E-2</v>
+        <v>1.6537214771499397E-2</v>
       </c>
       <c r="D12" s="3">
         <f>SUM(D3:D11)</f>
-        <v>1576</v>
+        <v>2601.8000000000002</v>
       </c>
       <c r="E12" s="19">
         <f>F12/$B12</f>
-        <v>1.0319148936170213E-2</v>
+        <v>1.3149431132015509E-2</v>
       </c>
       <c r="F12" s="3">
         <f>SUM(F3:F11)</f>
-        <v>1600.5</v>
+        <v>2068.8000000000002</v>
       </c>
       <c r="G12" s="19">
         <f>H12/$B12</f>
-        <v>0.64268214055448103</v>
+        <v>0.6335727451852794</v>
       </c>
       <c r="H12" s="3">
         <f>SUM(H3:H11)</f>
@@ -5719,7 +5724,7 @@
       </c>
       <c r="I12" s="19">
         <f>J12/$B12</f>
-        <v>0.18362346872985172</v>
+        <v>0.18102078433865124</v>
       </c>
       <c r="J12" s="3">
         <f>SUM(J3:J11)</f>
@@ -5727,19 +5732,19 @@
       </c>
       <c r="K12" s="19">
         <f>L12/$B12</f>
-        <v>4.8897485493230176E-2</v>
+        <v>4.9054852857052057E-2</v>
       </c>
       <c r="L12" s="3">
         <f>SUM(L3:L11)</f>
-        <v>7584</v>
+        <v>7717.8</v>
       </c>
       <c r="M12" s="19">
         <f>N12/$B12</f>
-        <v>0.10431656995486782</v>
+        <v>0.10666497171550243</v>
       </c>
       <c r="N12" s="3">
         <f>SUM(N3:N11)</f>
-        <v>16179.5</v>
+        <v>16781.599999999999</v>
       </c>
       <c r="O12" s="23">
         <f>SUM(C12,E12,G12,I12,K12,M12)</f>
@@ -5752,10 +5757,10 @@
       </c>
       <c r="B13" s="26">
         <f>B12*C13</f>
-        <v>7755</v>
+        <v>11013.1</v>
       </c>
       <c r="C13" s="29">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5764,7 +5769,7 @@
       </c>
       <c r="B14" s="30">
         <f>B12+B13</f>
-        <v>162855</v>
+        <v>168343.1</v>
       </c>
       <c r="C14" s="31"/>
     </row>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62DB82-F0EF-9047-B869-FB0FC1BC26EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A57FEDE-3F7D-B444-9CCE-61E82B46FB4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19420" yWindow="1460" windowWidth="31000" windowHeight="21520" tabRatio="918" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19420" yWindow="1460" windowWidth="31000" windowHeight="21520" tabRatio="918" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Continents" sheetId="8" r:id="rId1"/>
@@ -924,7 +924,7 @@
       </c>
       <c r="B2" s="34">
         <f>('Bladeshimmer Shoreline'!B14+'Cliffkeep Mountains'!B14+'Dividing Plains'!B13+'Lucidian Coast'!B14+'Stormcrest Mountains'!B14+'Rifenmist Peninsula'!B14+'Verdant Expanse'!B14)</f>
-        <v>664325.4</v>
+        <v>667396.4</v>
       </c>
       <c r="C2" s="34">
         <f>('Bladeshimmer Shoreline'!B18+'Cliffkeep Mountains'!B18+'Dividing Plains'!B17+'Lucidian Coast'!B18+'Stormcrest Mountains'!B18+'Rifenmist Peninsula'!B18+'Verdant Expanse'!B18)</f>
@@ -4420,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5049,10 +5049,10 @@
       </c>
       <c r="B13" s="26">
         <f>B12*C13</f>
-        <v>37</v>
+        <v>3108</v>
       </c>
       <c r="C13" s="29">
-        <v>0.05</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B14" s="30">
         <f>B12+B13</f>
-        <v>777</v>
+        <v>3848</v>
       </c>
       <c r="C14" s="31"/>
     </row>
@@ -5110,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1044685-adm\Git\Atlas-Exandria\development\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB8F2F0-4580-5449-A170-962863B80D34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="1455" windowWidth="48840" windowHeight="21525" tabRatio="918"/>
+    <workbookView xWindow="1580" yWindow="1460" windowWidth="48840" windowHeight="21520" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="13" r:id="rId1"/>
-    <sheet name="Settlements" sheetId="11" r:id="rId2"/>
+    <sheet name="Settlements" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Settlements!$A$2:$BO$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Settlements!$A$2:$BO$105</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="91">
   <si>
     <t>Human</t>
   </si>
@@ -306,13 +306,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,14 +337,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -644,7 +636,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -697,16 +689,7 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,11 +707,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1010,259 +1000,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83203125" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.83203125" customWidth="1"/>
+    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.83203125" customWidth="1"/>
+    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.83203125" customWidth="1"/>
+    <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.83203125" customWidth="1"/>
+    <col min="30" max="30" width="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" customWidth="1"/>
+    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" customWidth="1"/>
+    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.83203125" customWidth="1"/>
+    <col min="36" max="36" width="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.83203125" customWidth="1"/>
+    <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.83203125" customWidth="1"/>
+    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="8.83203125" customWidth="1"/>
+    <col min="42" max="42" width="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.83203125" customWidth="1"/>
+    <col min="44" max="44" width="7" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.83203125" customWidth="1"/>
+    <col min="46" max="46" width="7" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.83203125" customWidth="1"/>
+    <col min="48" max="48" width="7" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.83203125" customWidth="1"/>
+    <col min="50" max="50" width="7" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.83203125" customWidth="1"/>
+    <col min="52" max="52" width="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.83203125" customWidth="1"/>
+    <col min="54" max="54" width="7" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.83203125" customWidth="1"/>
+    <col min="56" max="56" width="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.83203125" customWidth="1"/>
+    <col min="58" max="58" width="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.83203125" customWidth="1"/>
+    <col min="60" max="60" width="7" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.83203125" customWidth="1"/>
+    <col min="62" max="62" width="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.83203125" customWidth="1"/>
+    <col min="64" max="64" width="7" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.83203125" customWidth="1"/>
+    <col min="66" max="66" width="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO105"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" customWidth="1"/>
-    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.85546875" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.85546875" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" customWidth="1"/>
-    <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.85546875" customWidth="1"/>
-    <col min="30" max="30" width="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" customWidth="1"/>
-    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" customWidth="1"/>
-    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.85546875" customWidth="1"/>
-    <col min="36" max="36" width="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" customWidth="1"/>
-    <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.85546875" customWidth="1"/>
-    <col min="40" max="40" width="7" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="8.85546875" customWidth="1"/>
-    <col min="42" max="42" width="7" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.85546875" customWidth="1"/>
-    <col min="44" max="44" width="7" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.85546875" customWidth="1"/>
-    <col min="46" max="46" width="7" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.85546875" customWidth="1"/>
-    <col min="48" max="48" width="7" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.85546875" customWidth="1"/>
-    <col min="50" max="50" width="7" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.85546875" customWidth="1"/>
-    <col min="52" max="52" width="7" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.85546875" customWidth="1"/>
-    <col min="54" max="54" width="7" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.85546875" customWidth="1"/>
-    <col min="56" max="56" width="7" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.85546875" customWidth="1"/>
-    <col min="58" max="58" width="7" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.85546875" customWidth="1"/>
-    <col min="60" max="60" width="7" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.85546875" customWidth="1"/>
-    <col min="62" max="62" width="7" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.85546875" customWidth="1"/>
-    <col min="64" max="64" width="7" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.85546875" customWidth="1"/>
-    <col min="66" max="66" width="7" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36" t="s">
+      <c r="G1" s="34"/>
+      <c r="H1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="34"/>
+      <c r="J1" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36" t="s">
+      <c r="K1" s="34"/>
+      <c r="L1" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34" t="s">
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34" t="s">
+      <c r="S1" s="40"/>
+      <c r="T1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34" t="s">
+      <c r="U1" s="40"/>
+      <c r="V1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="36" t="s">
+      <c r="W1" s="40"/>
+      <c r="X1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="34" t="s">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34" t="s">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34" t="s">
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="36" t="s">
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="34" t="s">
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34" t="s">
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34" t="s">
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34" t="s">
+      <c r="AO1" s="40"/>
+      <c r="AP1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="36" t="s">
+      <c r="AQ1" s="40"/>
+      <c r="AR1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36" t="s">
+      <c r="AU1" s="34"/>
+      <c r="AV1" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" s="36"/>
-      <c r="AX1" s="36" t="s">
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="36"/>
-      <c r="BB1" s="36" t="s">
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36" t="s">
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="34" t="s">
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="43"/>
-      <c r="BH1" s="36" t="s">
+      <c r="BG1" s="41"/>
+      <c r="BH1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" s="36"/>
-      <c r="BJ1" s="36" t="s">
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36" t="s">
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BM1" s="36"/>
-      <c r="BN1" s="38" t="s">
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="BO1" s="39"/>
+      <c r="BO1" s="36"/>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -1465,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1700,7 +1651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1935,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2170,7 +2121,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2405,7 +2356,7 @@
         <v>54634.5</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -2640,7 +2591,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2875,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -3345,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3580,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3815,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -4050,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -4285,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -4520,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -4755,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -4990,7 +4941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -5225,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -5460,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -5695,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -5930,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -6165,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -6400,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -6635,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
@@ -6870,7 +6821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -7105,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -7340,7 +7291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -7575,7 +7526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -7810,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>25</v>
       </c>
@@ -8045,7 +7996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -8280,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
@@ -8515,7 +8466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
@@ -8750,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -8985,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -9220,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -9455,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -9690,7 +9641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -9925,7 +9876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -10160,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -10395,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -10630,7 +10581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -10865,7 +10816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -11100,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
@@ -11335,7 +11286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>25</v>
       </c>
@@ -11570,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
@@ -11805,7 +11756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -12040,7 +11991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
@@ -12275,7 +12226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
@@ -12510,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -12745,7 +12696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -12980,7 +12931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -13215,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -13444,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -13673,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -13902,7 +13853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -14131,7 +14082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -14360,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -14589,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -14818,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -15047,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -15276,7 +15227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -15505,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -15734,7 +15685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -15963,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -16192,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -16421,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -16650,7 +16601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -16879,7 +16830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -17108,7 +17059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -17337,7 +17288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -17566,7 +17517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -17795,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -18024,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -18253,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -18482,7 +18433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -18711,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -18940,7 +18891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -19169,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -19398,7 +19349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -19627,7 +19578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -19856,7 +19807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -20085,7 +20036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -20314,7 +20265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -20543,7 +20494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -20772,7 +20723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -21001,7 +20952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -21230,7 +21181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -21459,7 +21410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -21688,7 +21639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -21917,7 +21868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -22146,7 +22097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -22375,7 +22326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -22604,7 +22555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -22833,7 +22784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -23062,7 +23013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -23291,7 +23242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -23520,7 +23471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -23749,7 +23700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -23757,228 +23708,228 @@
         <v>0</v>
       </c>
       <c r="E99" s="16">
-        <f t="shared" ref="E99:E130" si="96">SUM(N99,P99,R99,T99,V99,AB99,AD99,AF99,AR99,AJ99,AL99,AN99,AP99,BB99,BF99,BN99,F99,H99,L99,X99,Z99,AT99,AX99,AZ99,BD99,BH99,BJ99,BL99)</f>
+        <f t="shared" ref="E99:E104" si="96">SUM(N99,P99,R99,T99,V99,AB99,AD99,AF99,AR99,AJ99,AL99,AN99,AP99,BB99,BF99,BN99,F99,H99,L99,X99,Z99,AT99,AX99,AZ99,BD99,BH99,BJ99,BL99)</f>
         <v>0</v>
       </c>
       <c r="F99" s="11">
         <v>0</v>
       </c>
       <c r="G99" s="20">
-        <f t="shared" ref="G99:G130" si="97">$D99*F99</f>
+        <f t="shared" ref="G99:G104" si="97">$D99*F99</f>
         <v>0</v>
       </c>
       <c r="H99" s="10">
         <v>0</v>
       </c>
       <c r="I99" s="20">
-        <f t="shared" ref="I99:I130" si="98">$D99*H99</f>
+        <f t="shared" ref="I99:I104" si="98">$D99*H99</f>
         <v>0</v>
       </c>
       <c r="J99" s="10">
         <v>0</v>
       </c>
       <c r="K99" s="20">
-        <f t="shared" ref="K99:K130" si="99">$D99*J99</f>
+        <f t="shared" ref="K99:K104" si="99">$D99*J99</f>
         <v>0</v>
       </c>
       <c r="L99" s="10">
         <v>0</v>
       </c>
       <c r="M99" s="20">
-        <f t="shared" ref="M99:M130" si="100">$D99*L99</f>
+        <f t="shared" ref="M99:M104" si="100">$D99*L99</f>
         <v>0</v>
       </c>
       <c r="N99" s="11">
         <v>0</v>
       </c>
       <c r="O99" s="20">
-        <f t="shared" ref="O99:O130" si="101">$D99*N99</f>
+        <f t="shared" ref="O99:O104" si="101">$D99*N99</f>
         <v>0</v>
       </c>
       <c r="P99" s="10">
         <v>0</v>
       </c>
       <c r="Q99" s="20">
-        <f t="shared" ref="Q99:Q130" si="102">$D99*P99</f>
+        <f t="shared" ref="Q99:Q104" si="102">$D99*P99</f>
         <v>0</v>
       </c>
       <c r="R99" s="10">
         <v>0</v>
       </c>
       <c r="S99" s="20">
-        <f t="shared" ref="S99:S130" si="103">$D99*R99</f>
+        <f t="shared" ref="S99:S104" si="103">$D99*R99</f>
         <v>0</v>
       </c>
       <c r="T99" s="10">
         <v>0</v>
       </c>
       <c r="U99" s="20">
-        <f t="shared" ref="U99:U130" si="104">$D99*T99</f>
+        <f t="shared" ref="U99:U104" si="104">$D99*T99</f>
         <v>0</v>
       </c>
       <c r="V99" s="10">
         <v>0</v>
       </c>
       <c r="W99" s="20">
-        <f t="shared" ref="W99:W130" si="105">$D99*V99</f>
+        <f t="shared" ref="W99:W104" si="105">$D99*V99</f>
         <v>0</v>
       </c>
       <c r="X99" s="10">
         <v>0</v>
       </c>
       <c r="Y99" s="20">
-        <f t="shared" ref="Y99:Y130" si="106">$D99*X99</f>
+        <f t="shared" ref="Y99:Y104" si="106">$D99*X99</f>
         <v>0</v>
       </c>
       <c r="Z99" s="10">
         <v>0</v>
       </c>
       <c r="AA99" s="20">
-        <f t="shared" ref="AA99:AA130" si="107">$D99*Z99</f>
+        <f t="shared" ref="AA99:AA104" si="107">$D99*Z99</f>
         <v>0</v>
       </c>
       <c r="AB99" s="10">
         <v>0</v>
       </c>
       <c r="AC99" s="20">
-        <f t="shared" ref="AC99:AC130" si="108">$D99*AB99</f>
+        <f t="shared" ref="AC99:AC104" si="108">$D99*AB99</f>
         <v>0</v>
       </c>
       <c r="AD99" s="10">
         <v>0</v>
       </c>
       <c r="AE99" s="20">
-        <f t="shared" ref="AE99:AE130" si="109">$D99*AD99</f>
+        <f t="shared" ref="AE99:AE104" si="109">$D99*AD99</f>
         <v>0</v>
       </c>
       <c r="AF99" s="10">
         <v>0</v>
       </c>
       <c r="AG99" s="20">
-        <f t="shared" ref="AG99:AG130" si="110">$D99*AF99</f>
+        <f t="shared" ref="AG99:AG104" si="110">$D99*AF99</f>
         <v>0</v>
       </c>
       <c r="AH99" s="10">
         <v>0</v>
       </c>
       <c r="AI99" s="20">
-        <f t="shared" ref="AI99:AI130" si="111">$D99*AH99</f>
+        <f t="shared" ref="AI99:AI104" si="111">$D99*AH99</f>
         <v>0</v>
       </c>
       <c r="AJ99" s="10">
         <v>0</v>
       </c>
       <c r="AK99" s="20">
-        <f t="shared" ref="AK99:AK130" si="112">$D99*AJ99</f>
+        <f t="shared" ref="AK99:AK104" si="112">$D99*AJ99</f>
         <v>0</v>
       </c>
       <c r="AL99" s="10">
         <v>0</v>
       </c>
       <c r="AM99" s="20">
-        <f t="shared" ref="AM99:AM130" si="113">$D99*AL99</f>
+        <f t="shared" ref="AM99:AM104" si="113">$D99*AL99</f>
         <v>0</v>
       </c>
       <c r="AN99" s="10">
         <v>0</v>
       </c>
       <c r="AO99" s="20">
-        <f t="shared" ref="AO99:AO130" si="114">$D99*AN99</f>
+        <f t="shared" ref="AO99:AO104" si="114">$D99*AN99</f>
         <v>0</v>
       </c>
       <c r="AP99" s="10">
         <v>0</v>
       </c>
       <c r="AQ99" s="20">
-        <f t="shared" ref="AQ99:AQ130" si="115">$D99*AP99</f>
+        <f t="shared" ref="AQ99:AQ104" si="115">$D99*AP99</f>
         <v>0</v>
       </c>
       <c r="AR99" s="10">
         <v>0</v>
       </c>
       <c r="AS99" s="20">
-        <f t="shared" ref="AS99:AS130" si="116">$D99*AR99</f>
+        <f t="shared" ref="AS99:AS104" si="116">$D99*AR99</f>
         <v>0</v>
       </c>
       <c r="AT99" s="10">
         <v>0</v>
       </c>
       <c r="AU99" s="20">
-        <f t="shared" ref="AU99:AU130" si="117">$D99*AT99</f>
+        <f t="shared" ref="AU99:AU104" si="117">$D99*AT99</f>
         <v>0</v>
       </c>
       <c r="AV99" s="10">
         <v>0</v>
       </c>
       <c r="AW99" s="20">
-        <f t="shared" ref="AW99:AW130" si="118">$D99*AV99</f>
+        <f t="shared" ref="AW99:AW104" si="118">$D99*AV99</f>
         <v>0</v>
       </c>
       <c r="AX99" s="10">
         <v>0</v>
       </c>
       <c r="AY99" s="20">
-        <f t="shared" ref="AY99:AY130" si="119">$D99*AX99</f>
+        <f t="shared" ref="AY99:AY104" si="119">$D99*AX99</f>
         <v>0</v>
       </c>
       <c r="AZ99" s="10">
         <v>0</v>
       </c>
       <c r="BA99" s="20">
-        <f t="shared" ref="BA99:BA130" si="120">$D99*AZ99</f>
+        <f t="shared" ref="BA99:BA104" si="120">$D99*AZ99</f>
         <v>0</v>
       </c>
       <c r="BB99" s="10">
         <v>0</v>
       </c>
       <c r="BC99" s="20">
-        <f t="shared" ref="BC99:BC130" si="121">$D99*BB99</f>
+        <f t="shared" ref="BC99:BC104" si="121">$D99*BB99</f>
         <v>0</v>
       </c>
       <c r="BD99" s="10">
         <v>0</v>
       </c>
       <c r="BE99" s="20">
-        <f t="shared" ref="BE99:BE130" si="122">$D99*BD99</f>
+        <f t="shared" ref="BE99:BE104" si="122">$D99*BD99</f>
         <v>0</v>
       </c>
       <c r="BF99" s="10">
         <v>0</v>
       </c>
       <c r="BG99" s="20">
-        <f t="shared" ref="BG99:BG130" si="123">$D99*BF99</f>
+        <f t="shared" ref="BG99:BG104" si="123">$D99*BF99</f>
         <v>0</v>
       </c>
       <c r="BH99" s="10">
         <v>0</v>
       </c>
       <c r="BI99" s="20">
-        <f t="shared" ref="BI99:BI130" si="124">$D99*BH99</f>
+        <f t="shared" ref="BI99:BI104" si="124">$D99*BH99</f>
         <v>0</v>
       </c>
       <c r="BJ99" s="10">
         <v>0</v>
       </c>
       <c r="BK99" s="20">
-        <f t="shared" ref="BK99:BK130" si="125">$D99*BJ99</f>
+        <f t="shared" ref="BK99:BK104" si="125">$D99*BJ99</f>
         <v>0</v>
       </c>
       <c r="BL99" s="10">
         <v>0</v>
       </c>
       <c r="BM99" s="20">
-        <f t="shared" ref="BM99:BM130" si="126">$D99*BL99</f>
+        <f t="shared" ref="BM99:BM104" si="126">$D99*BL99</f>
         <v>0</v>
       </c>
       <c r="BN99" s="5">
         <v>0</v>
       </c>
       <c r="BO99" s="26">
-        <f t="shared" ref="BO99:BO130" si="127">$D99*BN99</f>
+        <f t="shared" ref="BO99:BO104" si="127">$D99*BN99</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -24207,7 +24158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -24436,7 +24387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -24665,7 +24616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -24894,7 +24845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -25123,7 +25074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -25382,12 +25333,28 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:BO105">
+  <autoFilter ref="A2:BO105" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState ref="A3:BO105">
       <sortCondition ref="B2:B105"/>
     </sortState>
   </autoFilter>
   <mergeCells count="32">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="BL1:BM1"/>
     <mergeCell ref="BN1:BO1"/>
     <mergeCell ref="X1:Y1"/>
@@ -25404,22 +25371,6 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB8F2F0-4580-5449-A170-962863B80D34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95594DE3-FBD3-424C-8A4C-C7B55556CA1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1460" windowWidth="48840" windowHeight="21520" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="1460" windowWidth="48840" windowHeight="21520" tabRatio="918" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settlements" sheetId="11" r:id="rId1"/>
+    <sheet name="T-LC" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Settlements!$A$2:$BO$105</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="99">
   <si>
     <t>Human</t>
   </si>
@@ -302,6 +304,30 @@
   <si>
     <t>Tabaxi Clans</t>
   </si>
+  <si>
+    <t>Duegar</t>
+  </si>
+  <si>
+    <t>Gith</t>
+  </si>
+  <si>
+    <t>Hobgonlin</t>
+  </si>
+  <si>
+    <t>Giant</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Settlement A</t>
+  </si>
+  <si>
+    <t>Major Races</t>
+  </si>
+  <si>
+    <t>Minor Races</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +338,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,8 +368,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +425,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +720,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -692,6 +776,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,18 +806,46 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1001,11 +1128,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BO105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="208" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18:C24"/>
+      <selection pane="bottomLeft" sqref="A1:BO33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1079,139 +1207,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="34"/>
-      <c r="N1" s="43" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40" t="s">
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40" t="s">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="40"/>
-      <c r="X1" s="34" t="s">
+      <c r="W1" s="36"/>
+      <c r="X1" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34" t="s">
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="40" t="s">
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40" t="s">
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40" t="s">
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="34" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="40" t="s">
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40" t="s">
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40" t="s">
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40" t="s">
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="34" t="s">
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34" t="s">
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34" t="s">
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="34"/>
-      <c r="AZ1" s="34" t="s">
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="34" t="s">
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="34" t="s">
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="40" t="s">
+      <c r="BE1" s="38"/>
+      <c r="BF1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="41"/>
-      <c r="BH1" s="34" t="s">
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="34" t="s">
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="BK1" s="34"/>
-      <c r="BL1" s="34" t="s">
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="35" t="s">
+      <c r="BM1" s="38"/>
+      <c r="BN1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="BO1" s="36"/>
+      <c r="BO1" s="41"/>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
@@ -1416,7 +1544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -1651,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1886,7 +2014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -2121,7 +2249,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -2356,7 +2484,7 @@
         <v>54634.5</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -2591,7 +2719,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2826,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -3061,7 +3189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -3296,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -3531,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3766,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -4001,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -4236,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -4471,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -4706,7 +4834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -4941,7 +5069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -5176,7 +5304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -5411,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -5646,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -5881,7 +6009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -6116,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -6351,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -6601,7 +6729,7 @@
       </c>
       <c r="E25" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
@@ -6611,11 +6739,11 @@
         <v>0</v>
       </c>
       <c r="H25" s="10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="I25" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="J25" s="10">
         <v>0</v>
@@ -6625,18 +6753,18 @@
         <v>0</v>
       </c>
       <c r="L25" s="10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="M25" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="N25" s="11">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="O25" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="P25" s="10">
         <v>0</v>
@@ -6653,18 +6781,18 @@
         <v>0</v>
       </c>
       <c r="T25" s="10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U25" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="V25" s="10">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="W25" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>89.2</v>
       </c>
       <c r="X25" s="10">
         <v>0</v>
@@ -6681,18 +6809,18 @@
         <v>0</v>
       </c>
       <c r="AB25" s="10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AC25" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AD25" s="10">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AE25" s="20">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>178.4</v>
       </c>
       <c r="AF25" s="10">
         <v>0</v>
@@ -6702,32 +6830,32 @@
         <v>0</v>
       </c>
       <c r="AH25" s="10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AI25" s="20">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AJ25" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AK25" s="20">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="AL25" s="10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM25" s="20">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>22.3</v>
       </c>
       <c r="AN25" s="10">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AO25" s="20">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>178.4</v>
       </c>
       <c r="AP25" s="10">
         <v>0</v>
@@ -6737,11 +6865,11 @@
         <v>0</v>
       </c>
       <c r="AR25" s="10">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AS25" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1627.8999999999999</v>
       </c>
       <c r="AT25" s="10">
         <v>0</v>
@@ -6758,11 +6886,11 @@
         <v>0</v>
       </c>
       <c r="AX25" s="10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="AY25" s="20">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="AZ25" s="10">
         <v>0</v>
@@ -6772,25 +6900,25 @@
         <v>0</v>
       </c>
       <c r="BB25" s="10">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BC25" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="BD25" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BE25" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>11.15</v>
       </c>
       <c r="BF25" s="10">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="BG25" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>24.529999999999998</v>
       </c>
       <c r="BH25" s="10">
         <v>0</v>
@@ -6836,7 +6964,7 @@
       </c>
       <c r="E26" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="11">
         <v>0</v>
@@ -6846,11 +6974,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="J26" s="10">
         <v>0</v>
@@ -6867,11 +6995,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="11">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O26" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45.075000000000003</v>
       </c>
       <c r="P26" s="10">
         <v>0</v>
@@ -6888,18 +7016,18 @@
         <v>0</v>
       </c>
       <c r="T26" s="10">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="U26" s="20">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>108.18</v>
       </c>
       <c r="V26" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W26" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>901.5</v>
       </c>
       <c r="X26" s="10">
         <v>0</v>
@@ -6923,11 +7051,11 @@
         <v>0</v>
       </c>
       <c r="AD26" s="10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE26" s="20">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>90.15</v>
       </c>
       <c r="AF26" s="10">
         <v>0</v>
@@ -6937,32 +7065,32 @@
         <v>0</v>
       </c>
       <c r="AH26" s="10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AI26" s="20">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="AJ26" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AK26" s="20">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>450.75</v>
       </c>
       <c r="AL26" s="10">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM26" s="20">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>45.075000000000003</v>
       </c>
       <c r="AN26" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AO26" s="20">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>901.5</v>
       </c>
       <c r="AP26" s="10">
         <v>0</v>
@@ -6972,11 +7100,11 @@
         <v>0</v>
       </c>
       <c r="AR26" s="10">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AS26" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6310.5</v>
       </c>
       <c r="AT26" s="10">
         <v>0</v>
@@ -6993,11 +7121,11 @@
         <v>0</v>
       </c>
       <c r="AX26" s="10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="AY26" s="20">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="AZ26" s="10">
         <v>0</v>
@@ -7007,32 +7135,32 @@
         <v>0</v>
       </c>
       <c r="BB26" s="10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BC26" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="BD26" s="10">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="BE26" s="20">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="BF26" s="10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BG26" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>90.15</v>
       </c>
       <c r="BH26" s="10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BI26" s="20">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="BJ26" s="10">
         <v>0</v>
@@ -7071,14 +7199,14 @@
       </c>
       <c r="E27" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="11">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G27" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H27" s="10">
         <v>0</v>
@@ -7130,11 +7258,11 @@
         <v>0</v>
       </c>
       <c r="V27" s="10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W27" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="X27" s="10">
         <v>0</v>
@@ -7144,11 +7272,11 @@
         <v>0</v>
       </c>
       <c r="Z27" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AA27" s="20">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AB27" s="10">
         <v>0</v>
@@ -7179,11 +7307,11 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="10">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="AK27" s="20">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>295.2</v>
       </c>
       <c r="AL27" s="10">
         <v>0</v>
@@ -7193,11 +7321,11 @@
         <v>0</v>
       </c>
       <c r="AN27" s="10">
-        <v>0</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="AO27" s="20">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="AP27" s="10">
         <v>0</v>
@@ -7207,11 +7335,11 @@
         <v>0</v>
       </c>
       <c r="AR27" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AS27" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AT27" s="10">
         <v>0</v>
@@ -7256,11 +7384,11 @@
         <v>0</v>
       </c>
       <c r="BF27" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BG27" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="BH27" s="10">
         <v>0</v>
@@ -7306,7 +7434,7 @@
       </c>
       <c r="E28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="11">
         <v>0</v>
@@ -7365,11 +7493,11 @@
         <v>0</v>
       </c>
       <c r="V28" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="W28" s="20">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="X28" s="10">
         <v>0</v>
@@ -7393,11 +7521,11 @@
         <v>0</v>
       </c>
       <c r="AD28" s="10">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AE28" s="20">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="AF28" s="10">
         <v>0</v>
@@ -7414,25 +7542,25 @@
         <v>0</v>
       </c>
       <c r="AJ28" s="10">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AK28" s="20">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="AL28" s="10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM28" s="20">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AN28" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AO28" s="20">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AP28" s="10">
         <v>0</v>
@@ -7442,11 +7570,11 @@
         <v>0</v>
       </c>
       <c r="AR28" s="10">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AS28" s="20">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>94.5</v>
       </c>
       <c r="AT28" s="10">
         <v>0</v>
@@ -7463,11 +7591,11 @@
         <v>0</v>
       </c>
       <c r="AX28" s="10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AY28" s="20">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AZ28" s="10">
         <v>0</v>
@@ -7477,11 +7605,11 @@
         <v>0</v>
       </c>
       <c r="BB28" s="10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="BC28" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BD28" s="10">
         <v>0</v>
@@ -7491,18 +7619,18 @@
         <v>0</v>
       </c>
       <c r="BF28" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BG28" s="20">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BH28" s="10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BI28" s="20">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="BJ28" s="10">
         <v>0</v>
@@ -7536,9 +7664,7 @@
       <c r="C29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="9">
-        <v>0</v>
-      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7772,11 +7898,11 @@
         <v>78</v>
       </c>
       <c r="D30" s="9">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E30" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -7856,11 +7982,11 @@
         <v>0</v>
       </c>
       <c r="AB30" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AD30" s="10">
         <v>0</v>
@@ -8007,11 +8133,11 @@
         <v>80</v>
       </c>
       <c r="D31" s="9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E31" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="11">
         <v>0</v>
@@ -8091,11 +8217,11 @@
         <v>0</v>
       </c>
       <c r="AB31" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AD31" s="10">
         <v>0</v>
@@ -8242,11 +8368,11 @@
         <v>81</v>
       </c>
       <c r="D32" s="9">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
@@ -8361,11 +8487,11 @@
         <v>0</v>
       </c>
       <c r="AL32" s="10">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="AM32" s="20">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>15.39</v>
       </c>
       <c r="AN32" s="10">
         <v>0</v>
@@ -8417,11 +8543,11 @@
         <v>0</v>
       </c>
       <c r="BB32" s="10">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="BC32" s="20">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>65.61</v>
       </c>
       <c r="BD32" s="10">
         <v>0</v>
@@ -8477,11 +8603,11 @@
         <v>82</v>
       </c>
       <c r="D33" s="9">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E33" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="11">
         <v>0</v>
@@ -8561,11 +8687,11 @@
         <v>0</v>
       </c>
       <c r="AB33" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="20">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AD33" s="10">
         <v>0</v>
@@ -8701,7 +8827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>25</v>
       </c>
@@ -8936,7 +9062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>25</v>
       </c>
@@ -9171,7 +9297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>25</v>
       </c>
@@ -9406,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -9641,7 +9767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -9876,7 +10002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -10111,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>25</v>
       </c>
@@ -10346,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>25</v>
       </c>
@@ -10581,7 +10707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -10816,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -11051,7 +11177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>25</v>
       </c>
@@ -11286,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>25</v>
       </c>
@@ -11521,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>25</v>
       </c>
@@ -11756,7 +11882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>25</v>
       </c>
@@ -11991,7 +12117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>25</v>
       </c>
@@ -12226,7 +12352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>25</v>
       </c>
@@ -12461,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
@@ -12696,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>25</v>
       </c>
@@ -12931,7 +13057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>25</v>
       </c>
@@ -13166,7 +13292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -13395,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -13624,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -13853,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -14082,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -14311,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -14540,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -14769,7 +14895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -14998,7 +15124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -15227,7 +15353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -15456,7 +15582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -15685,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -15914,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -16143,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -16372,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -16601,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -16830,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -17059,7 +17185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -17288,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -17517,7 +17643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -17746,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -17975,7 +18101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -18204,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -18433,7 +18559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -18662,7 +18788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -18891,7 +19017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -19120,7 +19246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -19349,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -19578,7 +19704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -19807,7 +19933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -20036,7 +20162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -20265,7 +20391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -20494,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -20723,7 +20849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -20952,7 +21078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -21181,7 +21307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -21410,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -21639,7 +21765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -21868,7 +21994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -22097,7 +22223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -22326,7 +22452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -22555,7 +22681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -22784,7 +22910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -23013,7 +23139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -23242,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -23471,7 +23597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -23700,7 +23826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -23929,7 +24055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -24158,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
@@ -24387,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -24616,7 +24742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -24845,7 +24971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:67" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -25074,30 +25200,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:67" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:67" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
       <c r="D105" s="15">
         <f>SUM(D3:D104)</f>
-        <v>589775</v>
+        <v>590046</v>
       </c>
       <c r="E105" s="17"/>
       <c r="F105" s="21">
         <f>G105/$D105</f>
-        <v>0</v>
+        <v>3.4743053931388396E-6</v>
       </c>
       <c r="G105" s="22">
         <f>SUM(G3:G104)</f>
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H105" s="23">
         <f>I105/$D105</f>
-        <v>0</v>
+        <v>3.8115672337410982E-5</v>
       </c>
       <c r="I105" s="22">
         <f>SUM(I3:I104)</f>
-        <v>0</v>
+        <v>22.490000000000002</v>
       </c>
       <c r="J105" s="23">
         <f>K105/$D105</f>
@@ -25109,19 +25235,19 @@
       </c>
       <c r="L105" s="23">
         <f>M105/$D105</f>
-        <v>0</v>
+        <v>3.779366354487616E-6</v>
       </c>
       <c r="M105" s="22">
         <f>SUM(M3:M104)</f>
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="N105" s="30">
         <f>O105/$D105</f>
-        <v>0</v>
+        <v>8.3951081780064609E-5</v>
       </c>
       <c r="O105" s="31">
         <f>SUM(O3:O104)</f>
-        <v>0</v>
+        <v>49.535000000000004</v>
       </c>
       <c r="P105" s="32">
         <f>Q105/$D105</f>
@@ -25141,19 +25267,19 @@
       </c>
       <c r="T105" s="32">
         <f>U105/$D105</f>
-        <v>3.4361069899537966E-2</v>
+        <v>3.456642363476746E-2</v>
       </c>
       <c r="U105" s="31">
         <f>SUM(U3:U104)</f>
-        <v>20265.300000000003</v>
+        <v>20395.780000000002</v>
       </c>
       <c r="V105" s="32">
         <f>W105/$D105</f>
-        <v>3.1450705777627062E-2</v>
+        <v>3.312934923717812E-2</v>
       </c>
       <c r="W105" s="31">
         <f>SUM(W3:W104)</f>
-        <v>18548.84</v>
+        <v>19547.84</v>
       </c>
       <c r="X105" s="23">
         <f>Y105/$D105</f>
@@ -25165,27 +25291,27 @@
       </c>
       <c r="Z105" s="23">
         <f>AA105/$D105</f>
-        <v>0</v>
+        <v>1.3897221572555358E-5</v>
       </c>
       <c r="AA105" s="22">
         <f>SUM(AA3:AA104)</f>
-        <v>0</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AB105" s="32">
         <f>AC105/$D105</f>
-        <v>0</v>
+        <v>3.2578815888930691E-4</v>
       </c>
       <c r="AC105" s="31">
         <f>SUM(AC3:AC104)</f>
-        <v>0</v>
+        <v>192.23</v>
       </c>
       <c r="AD105" s="32">
         <f>AE105/$D105</f>
-        <v>0</v>
+        <v>4.6581114014839522E-4</v>
       </c>
       <c r="AE105" s="31">
         <f>SUM(AE3:AE104)</f>
-        <v>0</v>
+        <v>274.85000000000002</v>
       </c>
       <c r="AF105" s="32">
         <f>AG105/$D105</f>
@@ -25197,35 +25323,35 @@
       </c>
       <c r="AH105" s="23">
         <f>AI105/$D105</f>
-        <v>0</v>
+        <v>1.9057836168705491E-5</v>
       </c>
       <c r="AI105" s="22">
         <f>SUM(AI3:AI104)</f>
-        <v>0</v>
+        <v>11.245000000000001</v>
       </c>
       <c r="AJ105" s="32">
         <f>AK105/$D105</f>
-        <v>0</v>
+        <v>1.3611650617070532E-3</v>
       </c>
       <c r="AK105" s="31">
         <f>SUM(AK3:AK104)</f>
-        <v>0</v>
+        <v>803.15</v>
       </c>
       <c r="AL105" s="32">
         <f>AM105/$D105</f>
-        <v>0</v>
+        <v>2.1144961579266702E-4</v>
       </c>
       <c r="AM105" s="31">
         <f>SUM(AM3:AM104)</f>
-        <v>0</v>
+        <v>124.765</v>
       </c>
       <c r="AN105" s="32">
         <f>AO105/$D105</f>
-        <v>3.0601500572252128E-4</v>
+        <v>2.2198777722414863E-3</v>
       </c>
       <c r="AO105" s="31">
         <f>SUM(AO3:AO104)</f>
-        <v>180.48</v>
+        <v>1309.8300000000002</v>
       </c>
       <c r="AP105" s="32">
         <f>AQ105/$D105</f>
@@ -25237,11 +25363,11 @@
       </c>
       <c r="AR105" s="32">
         <f>AS105/$D105</f>
-        <v>0.33248164130388708</v>
+        <v>0.34601244648722301</v>
       </c>
       <c r="AS105" s="31">
         <f>SUM(AS3:AS104)</f>
-        <v>196089.36</v>
+        <v>204163.25999999998</v>
       </c>
       <c r="AT105" s="23">
         <f>AU105/$D105</f>
@@ -25261,11 +25387,11 @@
       </c>
       <c r="AX105" s="23">
         <f>AY105/$D105</f>
-        <v>0</v>
+        <v>7.3706117828101539E-5</v>
       </c>
       <c r="AY105" s="22">
         <f>SUM(AY3:AY104)</f>
-        <v>0</v>
+        <v>43.49</v>
       </c>
       <c r="AZ105" s="23">
         <f>BA105/$D105</f>
@@ -25277,35 +25403,35 @@
       </c>
       <c r="BB105" s="23">
         <f>BC105/$D105</f>
-        <v>0</v>
+        <v>1.6694461109811775E-4</v>
       </c>
       <c r="BC105" s="22">
         <f>SUM(BC3:BC104)</f>
-        <v>0</v>
+        <v>98.504999999999995</v>
       </c>
       <c r="BD105" s="23">
         <f>BE105/$D105</f>
-        <v>0</v>
+        <v>4.9453771400873831E-5</v>
       </c>
       <c r="BE105" s="22">
         <f>SUM(BE3:BE104)</f>
-        <v>0</v>
+        <v>29.18</v>
       </c>
       <c r="BF105" s="32">
         <f>BG105/$D105</f>
-        <v>0</v>
+        <v>2.3621887107106902E-4</v>
       </c>
       <c r="BG105" s="33">
         <f>SUM(BG3:BG104)</f>
-        <v>0</v>
+        <v>139.38</v>
       </c>
       <c r="BH105" s="23">
         <f>BI105/$D105</f>
-        <v>0</v>
+        <v>2.2396558912355986E-5</v>
       </c>
       <c r="BI105" s="22">
         <f>SUM(BI3:BI104)</f>
-        <v>0</v>
+        <v>13.215</v>
       </c>
       <c r="BJ105" s="23">
         <f>BK105/$D105</f>
@@ -25325,7 +25451,7 @@
       </c>
       <c r="BN105" s="27">
         <f>BO105/$D105</f>
-        <v>9.2771005892077499E-2</v>
+        <v>9.2728397446978722E-2</v>
       </c>
       <c r="BO105" s="28">
         <f>SUM(BO3:BO104)</f>
@@ -25334,27 +25460,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:BO105" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Lucidian Coast"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A3:BO105">
       <sortCondition ref="B2:B105"/>
     </sortState>
   </autoFilter>
   <mergeCells count="32">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AT1:AU1"/>
-    <mergeCell ref="AX1:AY1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="BL1:BM1"/>
     <mergeCell ref="BN1:BO1"/>
     <mergeCell ref="X1:Y1"/>
@@ -25371,8 +25486,2623 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AL1:AM1"/>
     <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BF7E17-4F7C-CF4A-A23F-83F74CCA8F19}">
+  <dimension ref="A1:BM11"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" zoomScale="234" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:BK1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="65" width="5.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="36"/>
+      <c r="V1" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU1" s="38"/>
+      <c r="AV1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="BC1" s="38"/>
+      <c r="BD1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG1" s="38"/>
+      <c r="BH1" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI1" s="38"/>
+      <c r="BJ1" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK1" s="38"/>
+      <c r="BL1" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM1" s="41"/>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE2" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="BJ2" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK2" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="BL2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM2" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2230</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="G3" s="20">
+        <v>4.46</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="K3" s="20">
+        <v>2.23</v>
+      </c>
+      <c r="L3" s="11">
+        <v>2E-3</v>
+      </c>
+      <c r="M3" s="20">
+        <v>4.46</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <v>0</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="S3" s="20">
+        <v>22.3</v>
+      </c>
+      <c r="T3" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="U3" s="20">
+        <v>89.2</v>
+      </c>
+      <c r="V3" s="10">
+        <v>0</v>
+      </c>
+      <c r="W3" s="20">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>2.23</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>178.4</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AG3" s="20">
+        <v>2.23</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="AI3" s="20">
+        <v>44.6</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AK3" s="20">
+        <v>22.3</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>0.08</v>
+      </c>
+      <c r="AM3" s="20">
+        <v>178.4</v>
+      </c>
+      <c r="AN3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="AQ3" s="20">
+        <v>1627.8999999999999</v>
+      </c>
+      <c r="AR3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="AW3" s="20">
+        <v>4.46</v>
+      </c>
+      <c r="AX3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BA3" s="20">
+        <v>13.38</v>
+      </c>
+      <c r="BB3" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BC3" s="20">
+        <v>11.15</v>
+      </c>
+      <c r="BD3" s="10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="BE3" s="20">
+        <v>24.529999999999998</v>
+      </c>
+      <c r="BF3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="9">
+        <v>9015</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="G4" s="20">
+        <v>18.03</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M4" s="20">
+        <v>45.075000000000003</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20">
+        <v>0</v>
+      </c>
+      <c r="R4" s="10">
+        <v>1.2E-2</v>
+      </c>
+      <c r="S4" s="20">
+        <v>108.18</v>
+      </c>
+      <c r="T4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="20">
+        <v>901.5</v>
+      </c>
+      <c r="V4" s="10">
+        <v>0</v>
+      </c>
+      <c r="W4" s="20">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="AC4" s="20">
+        <v>90.15</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="AG4" s="20">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AI4" s="20">
+        <v>450.75</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AK4" s="20">
+        <v>45.075000000000003</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AM4" s="20">
+        <v>901.5</v>
+      </c>
+      <c r="AN4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="AQ4" s="20">
+        <v>6310.5</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="AW4" s="20">
+        <v>18.03</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="BA4" s="20">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="BB4" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="BC4" s="20">
+        <v>18.03</v>
+      </c>
+      <c r="BD4" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="BE4" s="20">
+        <v>90.15</v>
+      </c>
+      <c r="BF4" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="BG4" s="20">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="BH4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9">
+        <v>410</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="20">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <v>0</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="20">
+        <v>0</v>
+      </c>
+      <c r="R5" s="10">
+        <v>0</v>
+      </c>
+      <c r="S5" s="20">
+        <v>0</v>
+      </c>
+      <c r="T5" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="U5" s="20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0</v>
+      </c>
+      <c r="W5" s="20">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="Y5" s="20">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="AI5" s="20">
+        <v>295.2</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AM5" s="20">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="AN5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AQ5" s="20">
+        <v>41</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="BE5" s="20">
+        <v>20.5</v>
+      </c>
+      <c r="BF5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9">
+        <v>210</v>
+      </c>
+      <c r="C6" s="16">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <v>0</v>
+      </c>
+      <c r="N6" s="10">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>0</v>
+      </c>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="20">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="U6" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="20">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>6.3</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="AI6" s="20">
+        <v>12.6</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="AK6" s="20">
+        <v>42</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="AM6" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="AN6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="AQ6" s="20">
+        <v>94.5</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="AW6" s="20">
+        <v>21</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="BA6" s="20">
+        <v>10.5</v>
+      </c>
+      <c r="BB6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BE6" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="BF6" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BG6" s="20">
+        <v>4.2</v>
+      </c>
+      <c r="BH6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>0</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <v>0</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="9">
+        <v>42</v>
+      </c>
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="20">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="20">
+        <v>42</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="9">
+        <v>36</v>
+      </c>
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <v>0</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="20">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>36</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="9">
+        <v>81</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="20">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>0.19</v>
+      </c>
+      <c r="AK10" s="20">
+        <v>15.39</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="BA10" s="20">
+        <v>65.61</v>
+      </c>
+      <c r="BB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="9">
+        <v>112</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <v>0</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="20">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>112</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BH11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="20">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="5">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="BJ1:BK1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="AX1:AY1"/>
+    <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="BF1:BG1"/>
+    <mergeCell ref="BH1:BI1"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="AT1:AU1"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AJ1:AK1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAB8B2-70BE-D844-8241-0961C8E855CE}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="288" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="55">
+        <f>(SUM(D5:D17))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="50">
+        <f>E$3*D5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51">
+        <v>0</v>
+      </c>
+      <c r="E6" s="50">
+        <f>E$3*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51">
+        <v>0</v>
+      </c>
+      <c r="E7" s="50">
+        <f>E$3*D7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="50">
+        <f>E$3*D8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51">
+        <v>0</v>
+      </c>
+      <c r="E9" s="50">
+        <f>E$3*D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="50">
+        <f>E$3*D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51">
+        <v>0</v>
+      </c>
+      <c r="E11" s="50">
+        <f>E$3*D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="50">
+        <f>E$3*D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51">
+        <v>0</v>
+      </c>
+      <c r="E13" s="50">
+        <f>E$3*D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51">
+        <v>0</v>
+      </c>
+      <c r="E14" s="50">
+        <f>E$3*D14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51">
+        <v>0</v>
+      </c>
+      <c r="E15" s="50">
+        <f>E$3*D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51">
+        <v>0</v>
+      </c>
+      <c r="E16" s="50">
+        <f>E$3*D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="59"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="51">
+        <v>0</v>
+      </c>
+      <c r="E17" s="60">
+        <f>E$3*D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="66"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="66"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="65"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="66"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="66"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="66"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="66"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="65"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="66"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="66"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="66"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="66"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="66"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="66"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="66"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="66"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="66"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="66"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="66"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="66"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB9013E-A4F2-7343-86CC-4B3CCA632209}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7618FF8-71F5-6746-8F26-FB72F0D02F29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="14" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Human</t>
   </si>
@@ -380,6 +380,48 @@
   <si>
     <t>Rural (150%)</t>
   </si>
+  <si>
+    <t>Blumenthal</t>
+  </si>
+  <si>
+    <t>Byaes Tyl</t>
+  </si>
+  <si>
+    <t>Druvenlode</t>
+  </si>
+  <si>
+    <t>Icehaven</t>
+  </si>
+  <si>
+    <t>Nogvurot</t>
+  </si>
+  <si>
+    <t>Odesloe</t>
+  </si>
+  <si>
+    <t>Pride's Call</t>
+  </si>
+  <si>
+    <t>Rastum Den</t>
+  </si>
+  <si>
+    <t>Rexxentrum</t>
+  </si>
+  <si>
+    <t>Rockguard Garrison</t>
+  </si>
+  <si>
+    <t>Velvin Thicket</t>
+  </si>
+  <si>
+    <t>Vergesson Sanatorium</t>
+  </si>
+  <si>
+    <t>Yrrosa</t>
+  </si>
+  <si>
+    <t>Rural  (50% of Rexxentrum)</t>
+  </si>
 </sst>
 </file>
 
@@ -701,16 +743,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -719,10 +752,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,7 +773,13 @@
     <xf numFmtId="1" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,11 +1064,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN144"/>
+  <dimension ref="A1:BN147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL97" sqref="AL97"/>
+      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1102,136 +1144,136 @@
       <c r="A1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="45">
+      <c r="B1" s="55">
         <f>SUM(B51,B2)</f>
-        <v>1603041</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="52">
+        <v>2000257</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="49">
         <f>SUM(D2,D51)</f>
         <v>406067.39999999997</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="51" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51" t="s">
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51" t="s">
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="49" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="49" t="s">
+      <c r="O1" s="47"/>
+      <c r="P1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="47" t="s">
+      <c r="Q1" s="47"/>
+      <c r="R1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="48"/>
-      <c r="T1" s="49" t="s">
+      <c r="S1" s="57"/>
+      <c r="T1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="50"/>
-      <c r="V1" s="49" t="s">
+      <c r="U1" s="47"/>
+      <c r="V1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="50"/>
-      <c r="X1" s="51" t="s">
+      <c r="W1" s="47"/>
+      <c r="X1" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51" t="s">
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51" t="s">
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="49" t="s">
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AE1" s="47"/>
+      <c r="AF1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="47" t="s">
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="49" t="s">
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="49" t="s">
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="49" t="s">
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="57" t="s">
+      <c r="AO1" s="47"/>
+      <c r="AP1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="51" t="s">
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="47"/>
+      <c r="AT1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51" t="s">
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51" t="s">
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51" t="s">
+      <c r="AY1" s="45"/>
+      <c r="AZ1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="51"/>
-      <c r="BB1" s="51" t="s">
+      <c r="BA1" s="45"/>
+      <c r="BB1" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="51"/>
-      <c r="BD1" s="51" t="s">
+      <c r="BC1" s="45"/>
+      <c r="BD1" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" s="51"/>
-      <c r="BF1" s="49" t="s">
+      <c r="BE1" s="45"/>
+      <c r="BF1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="51" t="s">
+      <c r="BG1" s="47"/>
+      <c r="BH1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="BI1" s="51"/>
-      <c r="BJ1" s="51" t="s">
+      <c r="BI1" s="45"/>
+      <c r="BJ1" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="BK1" s="51"/>
-      <c r="BL1" s="51" t="s">
+      <c r="BK1" s="45"/>
+      <c r="BL1" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="BM1" s="51"/>
+      <c r="BM1" s="45"/>
     </row>
     <row r="2" spans="1:65" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1245,11 +1287,11 @@
         <f>IFERROR(SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2,AN2,AP2,AR2,AT2,AV2,AX2,AZ2,BB2,BD2,BF2,BH2,BJ2,BL2),0)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="51">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>406067.39999999997</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="52">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>406067.39999999997</v>
       </c>
@@ -12540,20 +12582,20 @@
       </c>
       <c r="B51" s="10">
         <f>SUM(B132,B120,B106,B88,B76,B64,B52)</f>
-        <v>579388</v>
+        <v>976604</v>
       </c>
       <c r="C51" s="43">
         <f>IFERROR(SUM(F51,H51,J51,L51,N51,P51,R51,T51,V51,X51,Z51,AB51,AD51,AF51,AH51,AJ51,AL51,AN51,AP51,AR51,AT51,AV51,AX51,AZ51,BB51,BD51,BF51,BH51,BJ51,BL51),0)</f>
-        <v>0.97472417878865292</v>
-      </c>
-      <c r="D51" s="55">
+        <v>0.87833174961396843</v>
+      </c>
+      <c r="D51" s="53">
         <f>SUM(D52,D64,D76,D88,D106,D120,D132)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="56"/>
+      <c r="E51" s="54"/>
       <c r="F51" s="34">
         <f>IFERROR(G51/$B51,0)</f>
-        <v>6.4584613419677306E-3</v>
+        <v>3.8315990923649705E-3</v>
       </c>
       <c r="G51" s="31">
         <f>SUM(G132,G120,G106,G88,G76,G64,G52)</f>
@@ -12561,15 +12603,15 @@
       </c>
       <c r="H51" s="34">
         <f>IFERROR(I51/$B51,0)</f>
-        <v>2.4085043183497074E-3</v>
+        <v>1.4466544269734717E-3</v>
       </c>
       <c r="I51" s="31">
         <f>SUM(I132,I120,I106,I88,I76,I64,I52)</f>
-        <v>1395.4585000000002</v>
+        <v>1412.8085000000003</v>
       </c>
       <c r="J51" s="34">
         <f>IFERROR(K51/$B51,0)</f>
-        <v>5.7892897333047984E-3</v>
+        <v>3.434600923199168E-3</v>
       </c>
       <c r="K51" s="31">
         <f>SUM(K132,K120,K106,K88,K76,K64,K52)</f>
@@ -12585,15 +12627,15 @@
       </c>
       <c r="N51" s="37">
         <f>IFERROR(O51/$B51,0)</f>
-        <v>1.4052267219894096E-2</v>
+        <v>9.7837823723843052E-3</v>
       </c>
       <c r="O51" s="33">
         <f>SUM(O132,O120,O106,O88,O76,O64,O52)</f>
-        <v>8141.7150000000001</v>
+        <v>9554.8810000000012</v>
       </c>
       <c r="P51" s="37">
         <f>IFERROR(Q51/$B51,0)</f>
-        <v>7.6451531616119079E-3</v>
+        <v>4.5356254940590044E-3</v>
       </c>
       <c r="Q51" s="33">
         <f>SUM(Q132,Q120,Q106,Q88,Q76,Q64,Q52)</f>
@@ -12601,47 +12643,47 @@
       </c>
       <c r="R51" s="34">
         <f>IFERROR(S51/$B51,0)</f>
-        <v>1.1011619156765416E-3</v>
+        <v>6.6305790269136718E-4</v>
       </c>
       <c r="S51" s="31">
         <f>SUM(S132,S120,S106,S88,S76,S64,S52)</f>
-        <v>638</v>
+        <v>647.54499999999996</v>
       </c>
       <c r="T51" s="38">
         <f>IFERROR(U51/$B51,0)</f>
-        <v>8.4184208164477012E-2</v>
+        <v>8.6341854016571726E-2</v>
       </c>
       <c r="U51" s="33">
         <f>SUM(U132,U120,U106,U88,U76,U64,U52)</f>
-        <v>48775.320000000007</v>
+        <v>84321.800000000017</v>
       </c>
       <c r="V51" s="37">
         <f>IFERROR(W51/$B51,0)</f>
-        <v>5.749428707532777E-2</v>
+        <v>5.7003350385622008E-2</v>
       </c>
       <c r="W51" s="33">
         <f>SUM(W132,W120,W106,W88,W76,W64,W52)</f>
-        <v>33311.500000000007</v>
+        <v>55669.7</v>
       </c>
       <c r="X51" s="34">
         <f>IFERROR(Y51/$B51,0)</f>
-        <v>1.0124993959143096E-3</v>
+        <v>1.1119071803924621E-3</v>
       </c>
       <c r="Y51" s="31">
         <f>SUM(Y132,Y120,Y106,Y88,Y76,Y64,Y52)</f>
-        <v>586.63</v>
+        <v>1085.893</v>
       </c>
       <c r="Z51" s="34">
         <f>IFERROR(AA51/$B51,0)</f>
-        <v>4.3792933232997575E-4</v>
+        <v>1.0741395693648604E-3</v>
       </c>
       <c r="AA51" s="31">
         <f>SUM(AA132,AA120,AA106,AA88,AA76,AA64,AA52)</f>
-        <v>253.73099999999999</v>
+        <v>1049.009</v>
       </c>
       <c r="AB51" s="34">
         <f>IFERROR(AC51/$B51,0)</f>
-        <v>2.5298245735155024E-2</v>
+        <v>1.5008642192741378E-2</v>
       </c>
       <c r="AC51" s="31">
         <f>SUM(AC132,AC120,AC106,AC88,AC76,AC64,AC52)</f>
@@ -12649,95 +12691,95 @@
       </c>
       <c r="AD51" s="37">
         <f>IFERROR(AE51/$B51,0)</f>
-        <v>4.8522651487431567E-2</v>
+        <v>3.1372394542721518E-2</v>
       </c>
       <c r="AE51" s="33">
         <f>SUM(AE132,AE120,AE106,AE88,AE76,AE64,AE52)</f>
-        <v>28113.442000000003</v>
+        <v>30638.406000000003</v>
       </c>
       <c r="AF51" s="34">
         <f>IFERROR(AG51/$B51,0)</f>
-        <v>3.5473406421948676E-2</v>
+        <v>2.3100551502963331E-2</v>
       </c>
       <c r="AG51" s="31">
         <f>SUM(AG132,AG120,AG106,AG88,AG76,AG64,AG52)</f>
-        <v>20552.865999999998</v>
+        <v>22560.091</v>
       </c>
       <c r="AH51" s="34">
         <f>IFERROR(AI51/$B51,0)</f>
-        <v>4.6411765518098412E-3</v>
+        <v>3.0960138397958638E-3</v>
       </c>
       <c r="AI51" s="31">
         <f>SUM(AI132,AI120,AI106,AI88,AI76,AI64,AI52)</f>
-        <v>2689.0420000000004</v>
+        <v>3023.5794999999998</v>
       </c>
       <c r="AJ51" s="37">
         <f>IFERROR(AK51/$B51,0)</f>
-        <v>2.4886708043659857E-2</v>
+        <v>1.4498839857301422E-2</v>
       </c>
       <c r="AK51" s="33">
         <f>SUM(AK132,AK120,AK106,AK88,AK76,AK64,AK52)</f>
-        <v>14419.059999999998</v>
+        <v>14159.624999999998</v>
       </c>
       <c r="AL51" s="37">
         <f>IFERROR(AM51/$B51,0)</f>
-        <v>2.3958047111780019E-2</v>
+        <v>1.4503038078893801E-2</v>
       </c>
       <c r="AM51" s="33">
         <f>SUM(AM132,AM120,AM106,AM88,AM76,AM64,AM52)</f>
-        <v>13881.005000000001</v>
+        <v>14163.725</v>
       </c>
       <c r="AN51" s="37">
         <f>IFERROR(AO51/$B51,0)</f>
-        <v>0.10399374857608373</v>
+        <v>7.2536186622213311E-2</v>
       </c>
       <c r="AO51" s="33">
         <f>SUM(AO132,AO120,AO106,AO88,AO76,AO64,AO52)</f>
-        <v>60252.73</v>
+        <v>70839.13</v>
       </c>
       <c r="AP51" s="37">
         <f>IFERROR(AQ51/$B51,0)</f>
-        <v>2.8800044184553357E-3</v>
+        <v>2.4522887475373848E-3</v>
       </c>
       <c r="AQ51" s="33">
         <f>SUM(AQ132,AQ120,AQ106,AQ88,AQ76,AQ64,AQ52)</f>
-        <v>1668.64</v>
+        <v>2394.915</v>
       </c>
       <c r="AR51" s="37">
         <f>IFERROR(AS51/$B51,0)</f>
-        <v>0.50045346123841017</v>
+        <v>0.4996999193122289</v>
       </c>
       <c r="AS51" s="33">
         <f>SUM(AS132,AS120,AS106,AS88,AS76,AS64,AS52)</f>
-        <v>289956.73</v>
+        <v>488008.94</v>
       </c>
       <c r="AT51" s="34">
         <f>IFERROR(AU51/$B51,0)</f>
-        <v>0</v>
+        <v>1.3714453350590415E-3</v>
       </c>
       <c r="AU51" s="31">
         <f>SUM(AU132,AU120,AU106,AU88,AU76,AU64,AU52)</f>
-        <v>0</v>
+        <v>1339.3590000000002</v>
       </c>
       <c r="AV51" s="34">
         <f>IFERROR(AW51/$B51,0)</f>
-        <v>3.3034857470296245E-3</v>
+        <v>4.5632467202673761E-3</v>
       </c>
       <c r="AW51" s="31">
         <f>SUM(AW132,AW120,AW106,AW88,AW76,AW64,AW52)</f>
-        <v>1914</v>
+        <v>4456.4850000000006</v>
       </c>
       <c r="AX51" s="34">
         <f>IFERROR(AY51/$B51,0)</f>
-        <v>3.9584872313544635E-3</v>
+        <v>3.7203052619075904E-3</v>
       </c>
       <c r="AY51" s="31">
         <f>SUM(AY132,AY120,AY106,AY88,AY76,AY64,AY52)</f>
-        <v>2293.5</v>
+        <v>3633.2650000000003</v>
       </c>
       <c r="AZ51" s="34">
         <f>IFERROR(BA51/$B51,0)</f>
-        <v>1.4171850297210159E-4</v>
+        <v>8.4077067060958174E-5</v>
       </c>
       <c r="BA51" s="31">
         <f>SUM(BA132,BA120,BA106,BA88,BA76,BA64,BA52)</f>
@@ -12745,31 +12787,31 @@
       </c>
       <c r="BB51" s="34">
         <f>IFERROR(BC51/$B51,0)</f>
-        <v>6.3560688174418524E-3</v>
+        <v>9.4786013573567203E-3</v>
       </c>
       <c r="BC51" s="31">
         <f>SUM(BC132,BC120,BC106,BC88,BC76,BC64,BC52)</f>
-        <v>3682.63</v>
+        <v>9256.840000000002</v>
       </c>
       <c r="BD51" s="34">
         <f>IFERROR(BE51/$B51,0)</f>
-        <v>1.3409321559990888E-3</v>
+        <v>2.2192567304659822E-3</v>
       </c>
       <c r="BE51" s="31">
         <f>SUM(BE132,BE120,BE106,BE88,BE76,BE64,BE52)</f>
-        <v>776.92000000000007</v>
+        <v>2167.335</v>
       </c>
       <c r="BF51" s="37">
         <f>IFERROR(BG51/$B51,0)</f>
-        <v>7.4564333400070426E-3</v>
+        <v>1.052480125004608E-2</v>
       </c>
       <c r="BG51" s="33">
         <f>SUM(BG132,BG120,BG106,BG88,BG76,BG64,BG52)</f>
-        <v>4320.1680000000006</v>
+        <v>10278.563000000002</v>
       </c>
       <c r="BH51" s="34">
         <f>IFERROR(BI51/$B51,0)</f>
-        <v>3.7633675533493968E-4</v>
+        <v>2.2326859197791533E-4</v>
       </c>
       <c r="BI51" s="31">
         <f>SUM(BI132,BI120,BI106,BI88,BI76,BI64,BI52)</f>
@@ -12785,7 +12827,7 @@
       </c>
       <c r="BL51" s="34">
         <f>IFERROR(BM51/$B51,0)</f>
-        <v>1.0995049949256801E-3</v>
+        <v>6.5230123980651318E-4</v>
       </c>
       <c r="BM51" s="31">
         <f>SUM(BM132,BM120,BM106,BM88,BM76,BM64,BM52)</f>
@@ -20908,7 +20950,7 @@
       </c>
       <c r="C88" s="44">
         <f>IFERROR(SUM(F88,H88,J88,L88,N88,P88,R88,T88,V88,X88,Z88,AB88,AD88,AF88,AH88,AJ88,AL88,AN88,AP88,AR88,AT88,AV88,AX88,AZ88,BB88,BD88,BF88,BH88,BJ88,BL88),0)</f>
-        <v>0.9540901502896697</v>
+        <v>1</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="11">
@@ -20925,11 +20967,11 @@
       </c>
       <c r="H88" s="34">
         <f>IFERROR(I88/$B88,0)</f>
-        <v>6.7201646477566272E-4</v>
+        <v>7.2640790760665117E-4</v>
       </c>
       <c r="I88" s="31">
         <f>SUM(I89:I105)</f>
-        <v>214.36249999999998</v>
+        <v>231.71250000000001</v>
       </c>
       <c r="J88" s="34">
         <f>IFERROR(K88/$B88,0)</f>
@@ -20949,11 +20991,11 @@
       </c>
       <c r="N88" s="37">
         <f>IFERROR(O88/$B88,0)</f>
-        <v>1.7063786898402426E-2</v>
+        <v>2.1493996564090991E-2</v>
       </c>
       <c r="O88" s="33">
         <f>SUM(O89:O105)</f>
-        <v>5443.0749999999998</v>
+        <v>6856.241</v>
       </c>
       <c r="P88" s="37">
         <f>IFERROR(Q88/$B88,0)</f>
@@ -20965,43 +21007,43 @@
       </c>
       <c r="R88" s="34">
         <f>IFERROR(S88/$B88,0)</f>
-        <v>0</v>
+        <v>2.9923130940736838E-5</v>
       </c>
       <c r="S88" s="31">
         <f>SUM(S89:S105)</f>
-        <v>0</v>
+        <v>9.5449999999999999</v>
       </c>
       <c r="T88" s="38">
         <f>IFERROR(U88/$B88,0)</f>
-        <v>0.11805748877686656</v>
+        <v>0.11354340656584658</v>
       </c>
       <c r="U88" s="33">
         <f>SUM(U89:U105)</f>
-        <v>37658.450000000004</v>
+        <v>36218.530000000006</v>
       </c>
       <c r="V88" s="37">
         <f>IFERROR(W88/$B88,0)</f>
-        <v>8.3900759912722903E-3</v>
+        <v>1.428535600531688E-2</v>
       </c>
       <c r="W88" s="33">
         <f>SUM(W89:W105)</f>
-        <v>2676.3</v>
+        <v>4556.7999999999993</v>
       </c>
       <c r="X88" s="34">
         <f>IFERROR(Y88/$B88,0)</f>
-        <v>8.3900759912722896E-4</v>
+        <v>2.4041738770596644E-3</v>
       </c>
       <c r="Y88" s="31">
         <f>SUM(Y89:Y105)</f>
-        <v>267.63</v>
+        <v>766.89300000000003</v>
       </c>
       <c r="Z88" s="34">
         <f>IFERROR(AA88/$B88,0)</f>
-        <v>1.8626326085320895E-4</v>
+        <v>2.6794227923657614E-3</v>
       </c>
       <c r="AA88" s="31">
         <f>SUM(AA89:AA105)</f>
-        <v>59.415000000000006</v>
+        <v>854.69299999999998</v>
       </c>
       <c r="AB88" s="34">
         <f>IFERROR(AC88/$B88,0)</f>
@@ -21013,91 +21055,91 @@
       </c>
       <c r="AD88" s="37">
         <f>IFERROR(AE88/$B88,0)</f>
-        <v>6.475653951295364E-2</v>
+        <v>7.0060767938203802E-2</v>
       </c>
       <c r="AE88" s="33">
         <f>SUM(AE89:AE105)</f>
-        <v>20656.300000000003</v>
+        <v>22348.264000000003</v>
       </c>
       <c r="AF88" s="34">
         <f>IFERROR(AG88/$B88,0)</f>
-        <v>1.4378307375918541E-2</v>
+        <v>2.0670864369372759E-2</v>
       </c>
       <c r="AG88" s="31">
         <f>SUM(AG89:AG105)</f>
-        <v>4586.45</v>
+        <v>6593.6750000000002</v>
       </c>
       <c r="AH88" s="34">
         <f>IFERROR(AI88/$B88,0)</f>
-        <v>4.7529343164547438E-3</v>
+        <v>5.8016938153637801E-3</v>
       </c>
       <c r="AI88" s="31">
         <f>SUM(AI89:AI105)</f>
-        <v>1516.1100000000001</v>
+        <v>1850.6475</v>
       </c>
       <c r="AJ88" s="37">
         <f>IFERROR(AK88/$B88,0)</f>
-        <v>2.4219208486946052E-2</v>
+        <v>2.3405891831565218E-2</v>
       </c>
       <c r="AK88" s="33">
         <f>SUM(AK89:AK105)</f>
-        <v>7725.54</v>
+        <v>7466.1049999999996</v>
       </c>
       <c r="AL88" s="37">
         <f>IFERROR(AM88/$B88,0)</f>
-        <v>2.5604998996814888E-2</v>
+        <v>2.649131304391443E-2</v>
       </c>
       <c r="AM88" s="33">
         <f>SUM(AM89:AM105)</f>
-        <v>8167.585</v>
+        <v>8450.3050000000003</v>
       </c>
       <c r="AN88" s="37">
         <f>IFERROR(AO88/$B88,0)</f>
-        <v>0.11554670453690469</v>
+        <v>0.10455242269204726</v>
       </c>
       <c r="AO88" s="33">
         <f>SUM(AO89:AO105)</f>
-        <v>36857.550000000003</v>
+        <v>33350.550000000003</v>
       </c>
       <c r="AP88" s="37">
         <f>IFERROR(AQ88/$B88,0)</f>
-        <v>0</v>
+        <v>2.2768383367190834E-3</v>
       </c>
       <c r="AQ88" s="33">
         <f>SUM(AQ89:AQ105)</f>
-        <v>0</v>
+        <v>726.27500000000009</v>
       </c>
       <c r="AR88" s="37">
         <f>IFERROR(AS88/$B88,0)</f>
-        <v>0.48389464675344218</v>
+        <v>0.4589667820329546</v>
       </c>
       <c r="AS88" s="33">
         <f>SUM(AS89:AS105)</f>
-        <v>154354.65</v>
+        <v>146403.06</v>
       </c>
       <c r="AT88" s="34">
         <f>IFERROR(AU88/$B88,0)</f>
-        <v>0</v>
+        <v>4.1988281543901889E-3</v>
       </c>
       <c r="AU88" s="31">
         <f>SUM(AU89:AU105)</f>
-        <v>0</v>
+        <v>1339.3590000000002</v>
       </c>
       <c r="AV88" s="34">
         <f>IFERROR(AW88/$B88,0)</f>
-        <v>0</v>
+        <v>7.9705721917086754E-3</v>
       </c>
       <c r="AW88" s="31">
         <f>SUM(AW89:AW105)</f>
-        <v>0</v>
+        <v>2542.4850000000001</v>
       </c>
       <c r="AX88" s="34">
         <f>IFERROR(AY88/$B88,0)</f>
-        <v>0</v>
+        <v>4.2001009455019693E-3</v>
       </c>
       <c r="AY88" s="31">
         <f>SUM(AY89:AY105)</f>
-        <v>0</v>
+        <v>1339.7650000000001</v>
       </c>
       <c r="AZ88" s="34">
         <f>IFERROR(BA88/$B88,0)</f>
@@ -21109,27 +21151,27 @@
       </c>
       <c r="BB88" s="34">
         <f>IFERROR(BC88/$B88,0)</f>
-        <v>6.5241516815890454E-3</v>
+        <v>2.3999040704235954E-2</v>
       </c>
       <c r="BC88" s="31">
         <f>SUM(BC89:BC105)</f>
-        <v>2081.1</v>
+        <v>7655.3100000000013</v>
       </c>
       <c r="BD88" s="34">
         <f>IFERROR(BE88/$B88,0)</f>
-        <v>0</v>
+        <v>4.3588863391267278E-3</v>
       </c>
       <c r="BE88" s="31">
         <f>SUM(BE89:BE105)</f>
-        <v>0</v>
+        <v>1390.4150000000002</v>
       </c>
       <c r="BF88" s="37">
         <f>IFERROR(BG88/$B88,0)</f>
-        <v>0</v>
+        <v>1.8679291124319715E-2</v>
       </c>
       <c r="BG88" s="33">
         <f>SUM(BG89:BG105)</f>
-        <v>0</v>
+        <v>5958.3950000000004</v>
       </c>
       <c r="BH88" s="34">
         <f>IFERROR(BI88/$B88,0)</f>
@@ -21156,7 +21198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>101</v>
       </c>
@@ -21165,7 +21207,7 @@
       </c>
       <c r="C89" s="44">
         <f>SUM(F89,H89,J89,L89,N89,P89,R89,T89,V89,X89,Z89,AB89,AD89,AF89,AH89,AJ89,AL89,AN89,AP89,AR89,AT89,AV89,AX89,AZ89,BB89,BD89,BF89,BH89,BJ89,BL89)</f>
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="D89" s="21"/>
       <c r="E89" s="22"/>
@@ -21198,11 +21240,11 @@
         <v>0</v>
       </c>
       <c r="N89" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O89" s="33">
         <f t="shared" ref="O89:O105" si="384">$B89*N89</f>
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="P89" s="35">
         <v>0</v>
@@ -21219,25 +21261,25 @@
         <v>0</v>
       </c>
       <c r="T89" s="39">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="U89" s="33">
         <f t="shared" ref="U89:U105" si="387">$B89*T89</f>
-        <v>0</v>
+        <v>6.82</v>
       </c>
       <c r="V89" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="W89" s="33">
         <f t="shared" ref="W89:W105" si="388">$B89*V89</f>
-        <v>0</v>
+        <v>6.82</v>
       </c>
       <c r="X89" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="Y89" s="31">
         <f t="shared" ref="Y89:Y105" si="389">$B89*X89</f>
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="Z89" s="35">
         <v>0</v>
@@ -21275,18 +21317,18 @@
         <v>0</v>
       </c>
       <c r="AJ89" s="35">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AK89" s="33">
         <f t="shared" ref="AK89:AK105" si="393">$B89*AJ89</f>
-        <v>68.2</v>
+        <v>102.3</v>
       </c>
       <c r="AL89" s="35">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AM89" s="33">
         <f t="shared" ref="AM89:AM105" si="394">$B89*AL89</f>
-        <v>30.689999999999998</v>
+        <v>44.33</v>
       </c>
       <c r="AN89" s="35">
         <v>0.22</v>
@@ -21352,11 +21394,11 @@
         <v>0</v>
       </c>
       <c r="BF89" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BG89" s="33">
         <f t="shared" ref="BG89:BG105" si="398">$B89*BF89</f>
-        <v>0</v>
+        <v>34.1</v>
       </c>
       <c r="BH89" s="35">
         <v>0</v>
@@ -21380,7 +21422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>102</v>
       </c>
@@ -21389,7 +21431,7 @@
       </c>
       <c r="C90" s="44">
         <f t="shared" ref="C90:C105" si="399">SUM(F90,H90,J90,L90,N90,P90,R90,T90,V90,X90,Z90,AB90,AD90,AF90,AH90,AJ90,AL90,AN90,AP90,AR90,AT90,AV90,AX90,AZ90,BB90,BD90,BF90,BH90,BJ90,BL90)</f>
-        <v>0.95</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D90" s="23"/>
       <c r="E90" s="24"/>
@@ -21422,11 +21464,11 @@
         <v>0</v>
       </c>
       <c r="N90" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="O90" s="33">
         <f t="shared" si="384"/>
-        <v>0</v>
+        <v>11.44</v>
       </c>
       <c r="P90" s="35">
         <v>0.74</v>
@@ -21443,11 +21485,11 @@
         <v>0</v>
       </c>
       <c r="T90" s="39">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="U90" s="33">
         <f t="shared" si="387"/>
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="V90" s="35">
         <v>0</v>
@@ -21520,18 +21562,18 @@
         <v>0</v>
       </c>
       <c r="AP90" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AQ90" s="33">
         <f t="shared" si="396"/>
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="AR90" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AS90" s="33">
         <f t="shared" si="397"/>
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="AT90" s="35">
         <v>0</v>
@@ -21562,11 +21604,11 @@
         <v>0</v>
       </c>
       <c r="BB90" s="35">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="BC90" s="31">
         <f t="shared" si="405"/>
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="BD90" s="35">
         <v>0</v>
@@ -21576,11 +21618,11 @@
         <v>0</v>
       </c>
       <c r="BF90" s="35">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="BG90" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>68.64</v>
       </c>
       <c r="BH90" s="35">
         <v>0</v>
@@ -21604,7 +21646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>103</v>
       </c>
@@ -21613,7 +21655,7 @@
       </c>
       <c r="C91" s="44">
         <f t="shared" si="399"/>
-        <v>0.95</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D91" s="23"/>
       <c r="E91" s="24"/>
@@ -21646,11 +21688,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="O91" s="33">
         <f t="shared" si="384"/>
-        <v>0</v>
+        <v>1.615</v>
       </c>
       <c r="P91" s="35">
         <v>0</v>
@@ -21667,25 +21709,25 @@
         <v>0</v>
       </c>
       <c r="T91" s="39">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="U91" s="33">
         <f t="shared" si="387"/>
-        <v>0</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="V91" s="35">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="W91" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="X91" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="Y91" s="31">
         <f t="shared" si="389"/>
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="Z91" s="35">
         <v>0</v>
@@ -21723,18 +21765,18 @@
         <v>0</v>
       </c>
       <c r="AJ91" s="35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AK91" s="33">
         <f t="shared" si="393"/>
-        <v>32.299999999999997</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="AL91" s="35">
-        <v>0.02</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AM91" s="33">
         <f t="shared" si="394"/>
-        <v>64.599999999999994</v>
+        <v>93.67</v>
       </c>
       <c r="AN91" s="35">
         <v>0.17</v>
@@ -21772,11 +21814,11 @@
         <v>0</v>
       </c>
       <c r="AX91" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AY91" s="31">
         <f t="shared" si="404"/>
-        <v>0</v>
+        <v>1.615</v>
       </c>
       <c r="AZ91" s="35">
         <v>0</v>
@@ -21786,25 +21828,25 @@
         <v>0</v>
       </c>
       <c r="BB91" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC91" s="31">
         <f t="shared" si="405"/>
-        <v>0</v>
+        <v>1.615</v>
       </c>
       <c r="BD91" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BE91" s="31">
         <f t="shared" ref="BE91" si="410">$B91*BD91</f>
-        <v>0</v>
+        <v>1.615</v>
       </c>
       <c r="BF91" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BG91" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="BH91" s="35">
         <v>0</v>
@@ -21828,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>104</v>
       </c>
@@ -21837,7 +21879,7 @@
       </c>
       <c r="C92" s="44">
         <f t="shared" si="399"/>
-        <v>0.80600000000000005</v>
+        <v>1</v>
       </c>
       <c r="D92" s="23"/>
       <c r="E92" s="24"/>
@@ -21849,11 +21891,11 @@
         <v>0</v>
       </c>
       <c r="H92" s="35">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="I92" s="31">
         <f t="shared" si="381"/>
-        <v>9.91</v>
+        <v>19.82</v>
       </c>
       <c r="J92" s="35">
         <v>0</v>
@@ -21870,11 +21912,11 @@
         <v>0</v>
       </c>
       <c r="N92" s="35">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="O92" s="33">
         <f t="shared" si="384"/>
-        <v>0</v>
+        <v>128.82999999999998</v>
       </c>
       <c r="P92" s="35">
         <v>0</v>
@@ -21891,18 +21933,18 @@
         <v>0</v>
       </c>
       <c r="T92" s="39">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="U92" s="33">
         <f t="shared" si="387"/>
-        <v>0</v>
+        <v>594.6</v>
       </c>
       <c r="V92" s="35">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="W92" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>59.46</v>
       </c>
       <c r="X92" s="35">
         <v>0</v>
@@ -21926,11 +21968,11 @@
         <v>0</v>
       </c>
       <c r="AD92" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AE92" s="33">
         <f t="shared" si="392"/>
-        <v>0</v>
+        <v>495.5</v>
       </c>
       <c r="AF92" s="35">
         <v>0</v>
@@ -21947,11 +21989,11 @@
         <v>49.550000000000004</v>
       </c>
       <c r="AJ92" s="35">
-        <v>0.02</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="AK92" s="33">
         <f t="shared" si="393"/>
-        <v>198.20000000000002</v>
+        <v>336.94</v>
       </c>
       <c r="AL92" s="35">
         <v>0.32</v>
@@ -21961,11 +22003,11 @@
         <v>3171.2000000000003</v>
       </c>
       <c r="AN92" s="35">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AO92" s="33">
         <f t="shared" si="395"/>
-        <v>0</v>
+        <v>396.40000000000003</v>
       </c>
       <c r="AP92" s="35">
         <v>0</v>
@@ -22024,11 +22066,11 @@
         <v>0</v>
       </c>
       <c r="BF92" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BG92" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>99.100000000000009</v>
       </c>
       <c r="BH92" s="35">
         <v>0</v>
@@ -22052,7 +22094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>105</v>
       </c>
@@ -22061,7 +22103,7 @@
       </c>
       <c r="C93" s="44">
         <f t="shared" si="399"/>
-        <v>0.98199999999999998</v>
+        <v>1</v>
       </c>
       <c r="D93" s="23"/>
       <c r="E93" s="24"/>
@@ -22094,11 +22136,11 @@
         <v>0</v>
       </c>
       <c r="N93" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O93" s="33">
         <f t="shared" si="384"/>
-        <v>0</v>
+        <v>50.45</v>
       </c>
       <c r="P93" s="35">
         <v>0</v>
@@ -22122,11 +22164,11 @@
         <v>2623.4</v>
       </c>
       <c r="V93" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="W93" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>20.18</v>
       </c>
       <c r="X93" s="35">
         <v>0</v>
@@ -22150,11 +22192,11 @@
         <v>0</v>
       </c>
       <c r="AD93" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE93" s="33">
         <f t="shared" si="392"/>
-        <v>0</v>
+        <v>50.45</v>
       </c>
       <c r="AF93" s="35">
         <v>0</v>
@@ -22248,11 +22290,11 @@
         <v>0</v>
       </c>
       <c r="BF93" s="35">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BG93" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>60.54</v>
       </c>
       <c r="BH93" s="35">
         <v>0</v>
@@ -22276,7 +22318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>106</v>
       </c>
@@ -22285,7 +22327,7 @@
       </c>
       <c r="C94" s="44">
         <f t="shared" ref="C94" si="413">SUM(F94,H94,J94,L94,N94,P94,R94,T94,V94,X94,Z94,AB94,AD94,AF94,AH94,AJ94,AL94,AN94,AP94,AR94,AT94,AV94,AX94,AZ94,BB94,BD94,BF94,BH94,BJ94,BL94)</f>
-        <v>0.15000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D94" s="23"/>
       <c r="E94" s="24"/>
@@ -22318,11 +22360,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O94" s="33">
         <f t="shared" ref="O94" si="418">$B94*N94</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="P94" s="35">
         <v>0</v>
@@ -22339,11 +22381,11 @@
         <v>0</v>
       </c>
       <c r="T94" s="39">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="U94" s="33">
         <f t="shared" ref="U94" si="421">$B94*T94</f>
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="V94" s="35">
         <v>0</v>
@@ -22423,11 +22465,11 @@
         <v>0</v>
       </c>
       <c r="AR94" s="35">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AS94" s="33">
         <f t="shared" ref="AS94" si="433">$B94*AR94</f>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="AT94" s="35">
         <v>0</v>
@@ -22500,7 +22542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>107</v>
       </c>
@@ -22509,7 +22551,7 @@
       </c>
       <c r="C95" s="44">
         <f t="shared" si="399"/>
-        <v>0.8909999999999999</v>
+        <v>1</v>
       </c>
       <c r="D95" s="23"/>
       <c r="E95" s="24"/>
@@ -22563,25 +22605,25 @@
         <v>0</v>
       </c>
       <c r="T95" s="39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U95" s="33">
         <f t="shared" si="387"/>
-        <v>0</v>
+        <v>163.6</v>
       </c>
       <c r="V95" s="35">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="W95" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>73.61999999999999</v>
       </c>
       <c r="X95" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="Y95" s="31">
         <f t="shared" si="389"/>
-        <v>0</v>
+        <v>16.36</v>
       </c>
       <c r="Z95" s="35">
         <v>0</v>
@@ -22598,11 +22640,11 @@
         <v>0</v>
       </c>
       <c r="AD95" s="35">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE95" s="33">
         <f t="shared" si="392"/>
-        <v>0</v>
+        <v>310.83999999999997</v>
       </c>
       <c r="AF95" s="35">
         <v>0</v>
@@ -22619,11 +22661,11 @@
         <v>0</v>
       </c>
       <c r="AJ95" s="35">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AK95" s="33">
         <f t="shared" si="393"/>
-        <v>163.6</v>
+        <v>327.2</v>
       </c>
       <c r="AL95" s="35">
         <v>0.02</v>
@@ -22696,11 +22738,11 @@
         <v>0</v>
       </c>
       <c r="BF95" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BG95" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>163.6</v>
       </c>
       <c r="BH95" s="35">
         <v>0</v>
@@ -22724,7 +22766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>109</v>
       </c>
@@ -22733,7 +22775,7 @@
       </c>
       <c r="C96" s="44">
         <f t="shared" si="399"/>
-        <v>0.8909999999999999</v>
+        <v>1</v>
       </c>
       <c r="D96" s="23"/>
       <c r="E96" s="24"/>
@@ -22787,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="T96" s="39">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="U96" s="33">
         <f t="shared" si="387"/>
-        <v>0</v>
+        <v>40.9</v>
       </c>
       <c r="V96" s="35">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="W96" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>18.404999999999998</v>
       </c>
       <c r="X96" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="Y96" s="31">
         <f t="shared" si="389"/>
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="Z96" s="35">
         <v>0</v>
@@ -22822,11 +22864,11 @@
         <v>0</v>
       </c>
       <c r="AD96" s="35">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AE96" s="33">
         <f t="shared" si="392"/>
-        <v>0</v>
+        <v>77.709999999999994</v>
       </c>
       <c r="AF96" s="35">
         <v>0</v>
@@ -22843,11 +22885,11 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="35">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AK96" s="33">
         <f t="shared" si="393"/>
-        <v>40.9</v>
+        <v>81.8</v>
       </c>
       <c r="AL96" s="35">
         <v>0.02</v>
@@ -22920,11 +22962,11 @@
         <v>0</v>
       </c>
       <c r="BF96" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BG96" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>40.9</v>
       </c>
       <c r="BH96" s="35">
         <v>0</v>
@@ -22948,7 +22990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>108</v>
       </c>
@@ -22957,7 +22999,7 @@
       </c>
       <c r="C97" s="44">
         <f t="shared" si="399"/>
-        <v>0.95099999999999996</v>
+        <v>1</v>
       </c>
       <c r="D97" s="23"/>
       <c r="E97" s="24"/>
@@ -22990,11 +23032,11 @@
         <v>0</v>
       </c>
       <c r="N97" s="35">
-        <v>0</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="O97" s="33">
         <f t="shared" si="384"/>
-        <v>0</v>
+        <v>104.99499999999999</v>
       </c>
       <c r="P97" s="35">
         <v>0</v>
@@ -23004,11 +23046,11 @@
         <v>0</v>
       </c>
       <c r="R97" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="S97" s="31">
         <f t="shared" si="386"/>
-        <v>0</v>
+        <v>9.5449999999999999</v>
       </c>
       <c r="T97" s="39">
         <v>0.81</v>
@@ -23018,11 +23060,11 @@
         <v>15462.900000000001</v>
       </c>
       <c r="V97" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="W97" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>19.09</v>
       </c>
       <c r="X97" s="35">
         <v>0</v>
@@ -23032,11 +23074,11 @@
         <v>0</v>
       </c>
       <c r="Z97" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA97" s="31">
         <f t="shared" si="390"/>
-        <v>0</v>
+        <v>95.45</v>
       </c>
       <c r="AB97" s="35">
         <v>0</v>
@@ -23046,11 +23088,11 @@
         <v>0</v>
       </c>
       <c r="AD97" s="35">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AE97" s="33">
         <f t="shared" si="392"/>
-        <v>0</v>
+        <v>668.15000000000009</v>
       </c>
       <c r="AF97" s="35">
         <v>0</v>
@@ -23074,11 +23116,11 @@
         <v>19.09</v>
       </c>
       <c r="AL97" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AM97" s="33">
         <f t="shared" si="394"/>
-        <v>0</v>
+        <v>19.09</v>
       </c>
       <c r="AN97" s="35">
         <v>0.06</v>
@@ -23144,11 +23186,11 @@
         <v>0</v>
       </c>
       <c r="BF97" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BG97" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>19.09</v>
       </c>
       <c r="BH97" s="35">
         <v>0</v>
@@ -23172,7 +23214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>110</v>
       </c>
@@ -23181,7 +23223,7 @@
       </c>
       <c r="C98" s="44">
         <f t="shared" si="399"/>
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D98" s="23"/>
       <c r="E98" s="24"/>
@@ -23214,11 +23256,11 @@
         <v>0</v>
       </c>
       <c r="N98" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O98" s="33">
         <f t="shared" si="384"/>
-        <v>0</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="P98" s="35">
         <v>0</v>
@@ -23235,18 +23277,18 @@
         <v>0</v>
       </c>
       <c r="T98" s="39">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="U98" s="33">
         <f t="shared" si="387"/>
-        <v>0</v>
+        <v>39.199999999999996</v>
       </c>
       <c r="V98" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="W98" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="X98" s="35">
         <v>0</v>
@@ -23270,11 +23312,11 @@
         <v>0</v>
       </c>
       <c r="AD98" s="35">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AE98" s="33">
         <f t="shared" si="392"/>
-        <v>0</v>
+        <v>13.44</v>
       </c>
       <c r="AF98" s="35">
         <v>0</v>
@@ -23298,18 +23340,18 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="AL98" s="35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AM98" s="33">
         <f t="shared" si="394"/>
-        <v>0</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="AN98" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AO98" s="33">
         <f t="shared" si="395"/>
-        <v>0</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="AP98" s="35">
         <v>0</v>
@@ -23319,11 +23361,11 @@
         <v>0</v>
       </c>
       <c r="AR98" s="35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AS98" s="33">
         <f t="shared" si="397"/>
-        <v>0</v>
+        <v>36.96</v>
       </c>
       <c r="AT98" s="35">
         <v>0</v>
@@ -23396,7 +23438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>111</v>
       </c>
@@ -23405,7 +23447,7 @@
       </c>
       <c r="C99" s="44">
         <f t="shared" si="399"/>
-        <v>0.96</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D99" s="23"/>
       <c r="E99" s="24"/>
@@ -23438,11 +23480,11 @@
         <v>0</v>
       </c>
       <c r="N99" s="35">
-        <v>0</v>
+        <v>1.4E-3</v>
       </c>
       <c r="O99" s="33">
         <f t="shared" si="384"/>
-        <v>0</v>
+        <v>16.925999999999998</v>
       </c>
       <c r="P99" s="35">
         <v>0</v>
@@ -23466,25 +23508,25 @@
         <v>1209</v>
       </c>
       <c r="V99" s="35">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="W99" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>48.36</v>
       </c>
       <c r="X99" s="35">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="Y99" s="31">
         <f t="shared" si="389"/>
-        <v>0</v>
+        <v>3.6269999999999998</v>
       </c>
       <c r="Z99" s="35">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AA99" s="31">
         <f t="shared" si="390"/>
-        <v>6.0449999999999999</v>
+        <v>2.4180000000000001</v>
       </c>
       <c r="AB99" s="35">
         <v>0</v>
@@ -23522,18 +23564,18 @@
         <v>211.57500000000002</v>
       </c>
       <c r="AL99" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM99" s="33">
         <f t="shared" si="394"/>
-        <v>0</v>
+        <v>60.45</v>
       </c>
       <c r="AN99" s="35">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AO99" s="33">
         <f t="shared" si="395"/>
-        <v>0</v>
+        <v>108.80999999999999</v>
       </c>
       <c r="AP99" s="35">
         <v>0</v>
@@ -23550,11 +23592,11 @@
         <v>967.2</v>
       </c>
       <c r="AT99" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="AU99" s="31">
         <f t="shared" si="402"/>
-        <v>0</v>
+        <v>1.2090000000000001</v>
       </c>
       <c r="AV99" s="35">
         <v>0</v>
@@ -23585,18 +23627,18 @@
         <v>0</v>
       </c>
       <c r="BD99" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BE99" s="31">
         <f t="shared" si="445"/>
-        <v>0</v>
+        <v>6.0449999999999999</v>
       </c>
       <c r="BF99" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BG99" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>241.8</v>
       </c>
       <c r="BH99" s="35">
         <v>0</v>
@@ -23620,7 +23662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>112</v>
       </c>
@@ -23629,7 +23671,7 @@
       </c>
       <c r="C100" s="44">
         <f t="shared" ref="C100" si="446">SUM(F100,H100,J100,L100,N100,P100,R100,T100,V100,X100,Z100,AB100,AD100,AF100,AH100,AJ100,AL100,AN100,AP100,AR100,AT100,AV100,AX100,AZ100,BB100,BD100,BF100,BH100,BJ100,BL100)</f>
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="D100" s="23"/>
       <c r="E100" s="24"/>
@@ -23641,11 +23683,11 @@
         <v>0</v>
       </c>
       <c r="H100" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I100" s="31">
         <f t="shared" ref="I100" si="448">$B100*H100</f>
-        <v>0</v>
+        <v>7.44</v>
       </c>
       <c r="J100" s="35">
         <v>0</v>
@@ -23662,11 +23704,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="35">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O100" s="33">
         <f t="shared" ref="O100" si="451">$B100*N100</f>
-        <v>0</v>
+        <v>22.32</v>
       </c>
       <c r="P100" s="35">
         <v>0</v>
@@ -23690,25 +23732,25 @@
         <v>967.2</v>
       </c>
       <c r="V100" s="35">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="W100" s="33">
         <f t="shared" ref="W100" si="455">$B100*V100</f>
-        <v>0</v>
+        <v>52.08</v>
       </c>
       <c r="X100" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="Y100" s="31">
         <f t="shared" ref="Y100" si="456">$B100*X100</f>
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="Z100" s="35">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AA100" s="31">
         <f t="shared" ref="AA100" si="457">$B100*Z100</f>
-        <v>3.72</v>
+        <v>29.76</v>
       </c>
       <c r="AB100" s="35">
         <v>0</v>
@@ -23718,11 +23760,11 @@
         <v>0</v>
       </c>
       <c r="AD100" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE100" s="33">
         <f t="shared" ref="AE100" si="459">$B100*AD100</f>
-        <v>0</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AF100" s="35">
         <v>0</v>
@@ -23746,11 +23788,11 @@
         <v>141.35999999999999</v>
       </c>
       <c r="AL100" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM100" s="33">
         <f t="shared" ref="AM100" si="463">$B100*AL100</f>
-        <v>0</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AN100" s="35">
         <v>0.23</v>
@@ -23816,11 +23858,11 @@
         <v>0</v>
       </c>
       <c r="BF100" s="35">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="BG100" s="33">
         <f t="shared" ref="BG100" si="472">$B100*BF100</f>
-        <v>0</v>
+        <v>111.6</v>
       </c>
       <c r="BH100" s="35">
         <v>0</v>
@@ -23844,7 +23886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>113</v>
       </c>
@@ -23853,7 +23895,7 @@
       </c>
       <c r="C101" s="44">
         <f t="shared" ref="C101" si="476">SUM(F101,H101,J101,L101,N101,P101,R101,T101,V101,X101,Z101,AB101,AD101,AF101,AH101,AJ101,AL101,AN101,AP101,AR101,AT101,AV101,AX101,AZ101,BB101,BD101,BF101,BH101,BJ101,BL101)</f>
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="24"/>
@@ -23907,18 +23949,18 @@
         <v>0</v>
       </c>
       <c r="T101" s="39">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="U101" s="33">
         <f t="shared" ref="U101" si="484">$B101*T101</f>
-        <v>0</v>
+        <v>7.24</v>
       </c>
       <c r="V101" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="W101" s="33">
         <f t="shared" ref="W101" si="485">$B101*V101</f>
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="X101" s="35">
         <v>0</v>
@@ -23942,11 +23984,11 @@
         <v>0</v>
       </c>
       <c r="AD101" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="AE101" s="33">
         <f t="shared" ref="AE101" si="489">$B101*AD101</f>
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AF101" s="35">
         <v>0</v>
@@ -23970,11 +24012,11 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="AL101" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="AM101" s="33">
         <f t="shared" ref="AM101" si="493">$B101*AL101</f>
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="AN101" s="35">
         <v>0.04</v>
@@ -24026,11 +24068,11 @@
         <v>0</v>
       </c>
       <c r="BB101" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BC101" s="31">
         <f t="shared" ref="BC101" si="501">$B101*BB101</f>
-        <v>0</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="BD101" s="35">
         <v>0</v>
@@ -24040,11 +24082,11 @@
         <v>0</v>
       </c>
       <c r="BF101" s="35">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BG101" s="33">
         <f t="shared" ref="BG101" si="502">$B101*BF101</f>
-        <v>0</v>
+        <v>14.48</v>
       </c>
       <c r="BH101" s="35">
         <v>0</v>
@@ -24068,7 +24110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>114</v>
       </c>
@@ -24077,7 +24119,7 @@
       </c>
       <c r="C102" s="44">
         <f t="shared" ref="C102" si="506">SUM(F102,H102,J102,L102,N102,P102,R102,T102,V102,X102,Z102,AB102,AD102,AF102,AH102,AJ102,AL102,AN102,AP102,AR102,AT102,AV102,AX102,AZ102,BB102,BD102,BF102,BH102,BJ102,BL102)</f>
-        <v>0.87200000000000011</v>
+        <v>1</v>
       </c>
       <c r="D102" s="23"/>
       <c r="E102" s="24"/>
@@ -24110,11 +24152,11 @@
         <v>0</v>
       </c>
       <c r="N102" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O102" s="33">
         <f t="shared" ref="O102" si="511">$B102*N102</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="P102" s="35">
         <v>0</v>
@@ -24131,18 +24173,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="39">
-        <v>0</v>
+        <v>3.6499999999999998E-2</v>
       </c>
       <c r="U102" s="33">
         <f t="shared" ref="U102" si="514">$B102*T102</f>
-        <v>0</v>
+        <v>324.84999999999997</v>
       </c>
       <c r="V102" s="35">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="W102" s="33">
         <f t="shared" ref="W102" si="515">$B102*V102</f>
-        <v>0</v>
+        <v>97.899999999999991</v>
       </c>
       <c r="X102" s="35">
         <v>0</v>
@@ -24152,11 +24194,11 @@
         <v>0</v>
       </c>
       <c r="Z102" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AA102" s="31">
         <f t="shared" ref="AA102" si="517">$B102*Z102</f>
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AB102" s="35">
         <v>0</v>
@@ -24166,11 +24208,11 @@
         <v>0</v>
       </c>
       <c r="AD102" s="35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AE102" s="33">
         <f t="shared" ref="AE102" si="519">$B102*AD102</f>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="AF102" s="35">
         <v>0</v>
@@ -24194,11 +24236,11 @@
         <v>712</v>
       </c>
       <c r="AL102" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM102" s="33">
         <f t="shared" ref="AM102" si="523">$B102*AL102</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AN102" s="35">
         <v>0.13</v>
@@ -24264,11 +24306,11 @@
         <v>0</v>
       </c>
       <c r="BF102" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BG102" s="33">
         <f t="shared" ref="BG102" si="533">$B102*BF102</f>
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="BH102" s="35">
         <v>0</v>
@@ -24292,7 +24334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>115</v>
       </c>
@@ -24301,7 +24343,7 @@
       </c>
       <c r="C103" s="44">
         <f t="shared" ref="C103" si="537">SUM(F103,H103,J103,L103,N103,P103,R103,T103,V103,X103,Z103,AB103,AD103,AF103,AH103,AJ103,AL103,AN103,AP103,AR103,AT103,AV103,AX103,AZ103,BB103,BD103,BF103,BH103,BJ103,BL103)</f>
-        <v>0.96299999999999997</v>
+        <v>1</v>
       </c>
       <c r="D103" s="23"/>
       <c r="E103" s="24"/>
@@ -24355,11 +24397,11 @@
         <v>0</v>
       </c>
       <c r="T103" s="39">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="U103" s="33">
         <f t="shared" ref="U103" si="545">$B103*T103</f>
-        <v>0</v>
+        <v>38.9</v>
       </c>
       <c r="V103" s="35">
         <v>0</v>
@@ -24369,18 +24411,18 @@
         <v>0</v>
       </c>
       <c r="X103" s="35">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="Y103" s="31">
         <f t="shared" ref="Y103" si="547">$B103*X103</f>
-        <v>0</v>
+        <v>54.46</v>
       </c>
       <c r="Z103" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AA103" s="31">
         <f t="shared" ref="AA103" si="548">$B103*Z103</f>
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="AB103" s="35">
         <v>0</v>
@@ -24418,11 +24460,11 @@
         <v>3.89</v>
       </c>
       <c r="AL103" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM103" s="33">
         <f t="shared" ref="AM103" si="554">$B103*AL103</f>
-        <v>0</v>
+        <v>19.45</v>
       </c>
       <c r="AN103" s="35">
         <v>0</v>
@@ -24439,11 +24481,11 @@
         <v>0</v>
       </c>
       <c r="AR103" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AS103" s="33">
         <f t="shared" ref="AS103" si="557">$B103*AR103</f>
-        <v>0</v>
+        <v>3.89</v>
       </c>
       <c r="AT103" s="35">
         <v>0</v>
@@ -24474,11 +24516,11 @@
         <v>0</v>
       </c>
       <c r="BB103" s="35">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BC103" s="31">
         <f t="shared" ref="BC103" si="562">$B103*BB103</f>
-        <v>0</v>
+        <v>23.34</v>
       </c>
       <c r="BD103" s="35">
         <v>0</v>
@@ -24516,7 +24558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>116</v>
       </c>
@@ -24525,7 +24567,7 @@
       </c>
       <c r="C104" s="44">
         <f t="shared" si="399"/>
-        <v>0.93249999999999988</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D104" s="23"/>
       <c r="E104" s="24"/>
@@ -24558,11 +24600,11 @@
         <v>0</v>
       </c>
       <c r="N104" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O104" s="33">
         <f t="shared" si="384"/>
-        <v>0</v>
+        <v>892.1</v>
       </c>
       <c r="P104" s="35">
         <v>0</v>
@@ -24586,18 +24628,18 @@
         <v>8028.9</v>
       </c>
       <c r="V104" s="35">
-        <v>0</v>
+        <v>1.95E-2</v>
       </c>
       <c r="W104" s="33">
         <f t="shared" si="388"/>
-        <v>0</v>
+        <v>1739.595</v>
       </c>
       <c r="X104" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="Y104" s="31">
         <f t="shared" si="389"/>
-        <v>0</v>
+        <v>8.9210000000000012</v>
       </c>
       <c r="Z104" s="35">
         <v>5.0000000000000001E-4</v>
@@ -24614,11 +24656,11 @@
         <v>0</v>
       </c>
       <c r="AD104" s="35">
-        <v>0</v>
+        <v>1.9900000000000001E-2</v>
       </c>
       <c r="AE104" s="33">
         <f t="shared" si="392"/>
-        <v>0</v>
+        <v>1775.279</v>
       </c>
       <c r="AF104" s="35">
         <v>0</v>
@@ -24642,11 +24684,11 @@
         <v>2676.2999999999997</v>
       </c>
       <c r="AL104" s="35">
-        <v>0</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="AM104" s="33">
         <f t="shared" si="394"/>
-        <v>0</v>
+        <v>669.07499999999993</v>
       </c>
       <c r="AN104" s="35">
         <v>0.11</v>
@@ -24698,25 +24740,25 @@
         <v>0</v>
       </c>
       <c r="BB104" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC104" s="31">
         <f t="shared" si="405"/>
-        <v>0</v>
+        <v>44.605000000000004</v>
       </c>
       <c r="BD104" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BE104" s="31">
         <f t="shared" ref="BE104" si="567">$B104*BD104</f>
-        <v>0</v>
+        <v>44.605000000000004</v>
       </c>
       <c r="BF104" s="35">
-        <v>0</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="BG104" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>847.495</v>
       </c>
       <c r="BH104" s="35">
         <v>0</v>
@@ -24740,7 +24782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>117</v>
       </c>
@@ -24749,7 +24791,7 @@
       </c>
       <c r="C105" s="44">
         <f t="shared" si="399"/>
-        <v>0.98750000000000004</v>
+        <v>1</v>
       </c>
       <c r="D105" s="25"/>
       <c r="E105" s="26"/>
@@ -24803,32 +24845,32 @@
         <v>0</v>
       </c>
       <c r="T105" s="39">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="U105" s="33">
         <f t="shared" si="387"/>
-        <v>9367.0500000000011</v>
+        <v>6690.75</v>
       </c>
       <c r="V105" s="35">
-        <v>0.02</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="W105" s="33">
         <f t="shared" si="388"/>
-        <v>2676.3</v>
+        <v>2408.6699999999996</v>
       </c>
       <c r="X105" s="35">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y105" s="31">
         <f t="shared" si="389"/>
-        <v>267.63</v>
+        <v>669.07500000000005</v>
       </c>
       <c r="Z105" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA105" s="31">
         <f t="shared" si="390"/>
-        <v>0</v>
+        <v>669.07500000000005</v>
       </c>
       <c r="AB105" s="35">
         <v>0.1</v>
@@ -24838,81 +24880,81 @@
         <v>13381.5</v>
       </c>
       <c r="AD105" s="35">
-        <v>0.08</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AE105" s="33">
         <f t="shared" si="392"/>
-        <v>10705.2</v>
+        <v>8697.9750000000004</v>
       </c>
       <c r="AF105" s="35">
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AG105" s="31">
         <f t="shared" si="400"/>
-        <v>4014.45</v>
+        <v>6021.6750000000002</v>
       </c>
       <c r="AH105" s="35">
-        <v>0.01</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="AI105" s="31">
         <f t="shared" si="401"/>
-        <v>1338.15</v>
+        <v>1672.6875</v>
       </c>
       <c r="AJ105" s="35">
-        <v>2.5000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AK105" s="33">
         <f t="shared" si="393"/>
-        <v>3345.375</v>
+        <v>2676.3</v>
       </c>
       <c r="AL105" s="35">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AM105" s="33">
         <f t="shared" si="394"/>
-        <v>4014.45</v>
+        <v>3345.375</v>
       </c>
       <c r="AN105" s="35">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="AO105" s="33">
         <f t="shared" si="395"/>
-        <v>14719.65</v>
+        <v>10705.2</v>
       </c>
       <c r="AP105" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AQ105" s="33">
         <f t="shared" si="396"/>
-        <v>0</v>
+        <v>669.07500000000005</v>
       </c>
       <c r="AR105" s="35">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="AS105" s="33">
         <f t="shared" si="397"/>
-        <v>64231.199999999997</v>
+        <v>56202.299999999996</v>
       </c>
       <c r="AT105" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AU105" s="31">
         <f t="shared" si="402"/>
-        <v>0</v>
+        <v>1338.15</v>
       </c>
       <c r="AV105" s="35">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AW105" s="31">
         <f t="shared" si="403"/>
-        <v>0</v>
+        <v>2542.4850000000001</v>
       </c>
       <c r="AX105" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AY105" s="31">
         <f t="shared" si="404"/>
-        <v>0</v>
+        <v>1338.15</v>
       </c>
       <c r="AZ105" s="35">
         <v>0</v>
@@ -24922,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="BB105" s="35">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="BC105" s="31">
         <f t="shared" si="405"/>
-        <v>0</v>
+        <v>5352.6</v>
       </c>
       <c r="BD105" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="BE105" s="31">
         <f t="shared" ref="BE105" si="568">$B105*BD105</f>
-        <v>0</v>
+        <v>1338.15</v>
       </c>
       <c r="BF105" s="35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="BG105" s="33">
         <f t="shared" si="398"/>
-        <v>0</v>
+        <v>4014.45</v>
       </c>
       <c r="BH105" s="35">
         <v>0</v>
@@ -24964,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:65" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>66</v>
       </c>
@@ -30843,12 +30885,12 @@
         <v>68</v>
       </c>
       <c r="B132" s="3">
-        <f>SUM(B133:B143)</f>
-        <v>0</v>
+        <f>SUM(B133:B147)</f>
+        <v>397216</v>
       </c>
       <c r="C132" s="44">
         <f>IFERROR(SUM(F132,H132,J132,L132,N132,P132,R132,T132,V132,X132,Z132,AB132,AD132,AF132,AH132,AJ132,AL132,AN132,AP132,AR132,AT132,AV132,AX132,AZ132,BB132,BD132,BF132,BH132,BJ132,BL132),0)</f>
-        <v>0</v>
+        <v>0.70086376178200271</v>
       </c>
       <c r="D132" s="30">
         <v>0</v>
@@ -30862,7 +30904,7 @@
         <v>0</v>
       </c>
       <c r="G132" s="31">
-        <f>SUM(G133:G143)</f>
+        <f>SUM(G133:G147)</f>
         <v>0</v>
       </c>
       <c r="H132" s="34">
@@ -30870,7 +30912,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="31">
-        <f>SUM(I133:I143)</f>
+        <f>SUM(I133:I147)</f>
         <v>0</v>
       </c>
       <c r="J132" s="34">
@@ -30878,7 +30920,7 @@
         <v>0</v>
       </c>
       <c r="K132" s="31">
-        <f>SUM(K133:K143)</f>
+        <f>SUM(K133:K147)</f>
         <v>0</v>
       </c>
       <c r="L132" s="34">
@@ -30886,7 +30928,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="31">
-        <f>SUM(M133:M143)</f>
+        <f>SUM(M133:M147)</f>
         <v>0</v>
       </c>
       <c r="N132" s="37">
@@ -30894,7 +30936,7 @@
         <v>0</v>
       </c>
       <c r="O132" s="33">
-        <f>SUM(O133:O143)</f>
+        <f>SUM(O133:O147)</f>
         <v>0</v>
       </c>
       <c r="P132" s="37">
@@ -30902,7 +30944,7 @@
         <v>0</v>
       </c>
       <c r="Q132" s="33">
-        <f>SUM(Q133:Q143)</f>
+        <f>SUM(Q133:Q147)</f>
         <v>0</v>
       </c>
       <c r="R132" s="34">
@@ -30910,31 +30952,31 @@
         <v>0</v>
       </c>
       <c r="S132" s="31">
-        <f>SUM(S133:S143)</f>
+        <f>SUM(S133:S147)</f>
         <v>0</v>
       </c>
       <c r="T132" s="38">
         <f>IFERROR(U132/$B132,0)</f>
-        <v>0</v>
+        <v>9.3114073954724888E-2</v>
       </c>
       <c r="U132" s="33">
-        <f>SUM(U133:U143)</f>
-        <v>0</v>
+        <f>SUM(U133:U147)</f>
+        <v>36986.400000000001</v>
       </c>
       <c r="V132" s="37">
         <f>IFERROR(W132/$B132,0)</f>
-        <v>0</v>
+        <v>5.1553059292677027E-2</v>
       </c>
       <c r="W132" s="33">
-        <f>SUM(W133:W143)</f>
-        <v>0</v>
+        <f>SUM(W133:W147)</f>
+        <v>20477.699999999997</v>
       </c>
       <c r="X132" s="34">
         <f>IFERROR(Y132/$B132,0)</f>
         <v>0</v>
       </c>
       <c r="Y132" s="31">
-        <f>SUM(Y133:Y143)</f>
+        <f>SUM(Y133:Y147)</f>
         <v>0</v>
       </c>
       <c r="Z132" s="34">
@@ -30942,7 +30984,7 @@
         <v>0</v>
       </c>
       <c r="AA132" s="31">
-        <f>SUM(AA133:AA143)</f>
+        <f>SUM(AA133:AA147)</f>
         <v>0</v>
       </c>
       <c r="AB132" s="34">
@@ -30950,23 +30992,23 @@
         <v>0</v>
       </c>
       <c r="AC132" s="31">
-        <f>SUM(AC133:AC143)</f>
+        <f>SUM(AC133:AC147)</f>
         <v>0</v>
       </c>
       <c r="AD132" s="37">
         <f>IFERROR(AE132/$B132,0)</f>
-        <v>0</v>
+        <v>2.0970957866752599E-3</v>
       </c>
       <c r="AE132" s="33">
-        <f>SUM(AE133:AE143)</f>
-        <v>0</v>
+        <f>SUM(AE133:AE147)</f>
+        <v>833</v>
       </c>
       <c r="AF132" s="34">
         <f>IFERROR(AG132/$B132,0)</f>
         <v>0</v>
       </c>
       <c r="AG132" s="31">
-        <f>SUM(AG133:AG143)</f>
+        <f>SUM(AG133:AG147)</f>
         <v>0</v>
       </c>
       <c r="AH132" s="34">
@@ -30974,7 +31016,7 @@
         <v>0</v>
       </c>
       <c r="AI132" s="31">
-        <f>SUM(AI133:AI143)</f>
+        <f>SUM(AI133:AI147)</f>
         <v>0</v>
       </c>
       <c r="AJ132" s="37">
@@ -30982,7 +31024,7 @@
         <v>0</v>
       </c>
       <c r="AK132" s="33">
-        <f>SUM(AK133:AK143)</f>
+        <f>SUM(AK133:AK147)</f>
         <v>0</v>
       </c>
       <c r="AL132" s="37">
@@ -30990,39 +31032,39 @@
         <v>0</v>
       </c>
       <c r="AM132" s="33">
-        <f>SUM(AM133:AM143)</f>
+        <f>SUM(AM133:AM147)</f>
         <v>0</v>
       </c>
       <c r="AN132" s="37">
         <f>IFERROR(AO132/$B132,0)</f>
-        <v>0</v>
+        <v>3.5480443889470713E-2</v>
       </c>
       <c r="AO132" s="33">
-        <f>SUM(AO133:AO143)</f>
-        <v>0</v>
+        <f>SUM(AO133:AO147)</f>
+        <v>14093.4</v>
       </c>
       <c r="AP132" s="37">
         <f>IFERROR(AQ132/$B132,0)</f>
         <v>0</v>
       </c>
       <c r="AQ132" s="33">
-        <f>SUM(AQ133:AQ143)</f>
+        <f>SUM(AQ133:AQ147)</f>
         <v>0</v>
       </c>
       <c r="AR132" s="37">
         <f>IFERROR(AS132/$B132,0)</f>
-        <v>0</v>
+        <v>0.51861908885845487</v>
       </c>
       <c r="AS132" s="33">
-        <f>SUM(AS133:AS143)</f>
-        <v>0</v>
+        <f>SUM(AS133:AS147)</f>
+        <v>206003.8</v>
       </c>
       <c r="AT132" s="34">
         <f>IFERROR(AU132/$B132,0)</f>
         <v>0</v>
       </c>
       <c r="AU132" s="31">
-        <f>SUM(AU133:AU143)</f>
+        <f>SUM(AU133:AU147)</f>
         <v>0</v>
       </c>
       <c r="AV132" s="34">
@@ -31030,7 +31072,7 @@
         <v>0</v>
       </c>
       <c r="AW132" s="31">
-        <f>SUM(AW133:AW143)</f>
+        <f>SUM(AW133:AW147)</f>
         <v>0</v>
       </c>
       <c r="AX132" s="34">
@@ -31038,7 +31080,7 @@
         <v>0</v>
       </c>
       <c r="AY132" s="31">
-        <f>SUM(AY133:AY143)</f>
+        <f>SUM(AY133:AY147)</f>
         <v>0</v>
       </c>
       <c r="AZ132" s="34">
@@ -31046,7 +31088,7 @@
         <v>0</v>
       </c>
       <c r="BA132" s="31">
-        <f>SUM(BA133:BA143)</f>
+        <f>SUM(BA133:BA147)</f>
         <v>0</v>
       </c>
       <c r="BB132" s="34">
@@ -31054,7 +31096,7 @@
         <v>0</v>
       </c>
       <c r="BC132" s="31">
-        <f>SUM(BC133:BC143)</f>
+        <f>SUM(BC133:BC147)</f>
         <v>0</v>
       </c>
       <c r="BD132" s="34">
@@ -31062,7 +31104,7 @@
         <v>0</v>
       </c>
       <c r="BE132" s="31">
-        <f>SUM(BE133:BE143)</f>
+        <f>SUM(BE133:BE147)</f>
         <v>0</v>
       </c>
       <c r="BF132" s="37">
@@ -31070,7 +31112,7 @@
         <v>0</v>
       </c>
       <c r="BG132" s="33">
-        <f>SUM(BG133:BG143)</f>
+        <f>SUM(BG133:BG147)</f>
         <v>0</v>
       </c>
       <c r="BH132" s="34">
@@ -31078,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="BI132" s="31">
-        <f>SUM(BI133:BI143)</f>
+        <f>SUM(BI133:BI147)</f>
         <v>0</v>
       </c>
       <c r="BJ132" s="34">
@@ -31086,7 +31128,7 @@
         <v>0</v>
       </c>
       <c r="BK132" s="31">
-        <f>SUM(BK133:BK143)</f>
+        <f>SUM(BK133:BK147)</f>
         <v>0</v>
       </c>
       <c r="BL132" s="34">
@@ -31094,18 +31136,20 @@
         <v>0</v>
       </c>
       <c r="BM132" s="31">
-        <f>SUM(BM133:BM143)</f>
+        <f>SUM(BM133:BM147)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="2"/>
+    <row r="133" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B133" s="1">
-        <v>0</v>
+        <v>3850</v>
       </c>
       <c r="C133" s="44">
         <f>SUM(F133,H133,J133,L133,N133,P133,R133,T133,V133,X133,Z133,AB133,AD133,AF133,AH133,AJ133,AL133,AN133,AP133,AR133,AT133,AV133,AX133,AZ133,BB133,BD133,BF133,BH133,BJ133,BL133)</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="22"/>
@@ -31113,91 +31157,91 @@
         <v>0</v>
       </c>
       <c r="G133" s="31">
-        <f t="shared" ref="G133:G143" si="736">$B133*F133</f>
+        <f t="shared" ref="G133:G147" si="736">$B133*F133</f>
         <v>0</v>
       </c>
       <c r="H133" s="35">
         <v>0</v>
       </c>
       <c r="I133" s="31">
-        <f t="shared" ref="I133:I143" si="737">$B133*H133</f>
+        <f t="shared" ref="I133:I147" si="737">$B133*H133</f>
         <v>0</v>
       </c>
       <c r="J133" s="35">
         <v>0</v>
       </c>
       <c r="K133" s="31">
-        <f t="shared" ref="K133:K143" si="738">$B133*J133</f>
+        <f t="shared" ref="K133:K147" si="738">$B133*J133</f>
         <v>0</v>
       </c>
       <c r="L133" s="35">
         <v>0</v>
       </c>
       <c r="M133" s="31">
-        <f t="shared" ref="M133:M143" si="739">$B133*L133</f>
+        <f t="shared" ref="M133:M147" si="739">$B133*L133</f>
         <v>0</v>
       </c>
       <c r="N133" s="35">
         <v>0</v>
       </c>
       <c r="O133" s="33">
-        <f t="shared" ref="O133:O143" si="740">$B133*N133</f>
+        <f t="shared" ref="O133:O147" si="740">$B133*N133</f>
         <v>0</v>
       </c>
       <c r="P133" s="35">
         <v>0</v>
       </c>
       <c r="Q133" s="33">
-        <f t="shared" ref="Q133:Q143" si="741">$B133*P133</f>
+        <f t="shared" ref="Q133:Q147" si="741">$B133*P133</f>
         <v>0</v>
       </c>
       <c r="R133" s="35">
         <v>0</v>
       </c>
       <c r="S133" s="31">
-        <f t="shared" ref="S133:S143" si="742">$B133*R133</f>
+        <f t="shared" ref="S133:S147" si="742">$B133*R133</f>
         <v>0</v>
       </c>
       <c r="T133" s="39">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="U133" s="33">
-        <f t="shared" ref="U133:U143" si="743">$B133*T133</f>
-        <v>0</v>
+        <f t="shared" ref="U133:U147" si="743">$B133*T133</f>
+        <v>462</v>
       </c>
       <c r="V133" s="35">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="W133" s="33">
-        <f t="shared" ref="W133:W143" si="744">$B133*V133</f>
-        <v>0</v>
+        <f t="shared" ref="W133:W147" si="744">$B133*V133</f>
+        <v>423.5</v>
       </c>
       <c r="X133" s="35">
         <v>0</v>
       </c>
       <c r="Y133" s="31">
-        <f t="shared" ref="Y133:Y143" si="745">$B133*X133</f>
+        <f t="shared" ref="Y133:Y147" si="745">$B133*X133</f>
         <v>0</v>
       </c>
       <c r="Z133" s="35">
         <v>0</v>
       </c>
       <c r="AA133" s="31">
-        <f t="shared" ref="AA133:AA143" si="746">$B133*Z133</f>
+        <f t="shared" ref="AA133:AA147" si="746">$B133*Z133</f>
         <v>0</v>
       </c>
       <c r="AB133" s="35">
         <v>0</v>
       </c>
       <c r="AC133" s="31">
-        <f t="shared" ref="AC133:AC143" si="747">$B133*AB133</f>
+        <f t="shared" ref="AC133:AC147" si="747">$B133*AB133</f>
         <v>0</v>
       </c>
       <c r="AD133" s="35">
         <v>0</v>
       </c>
       <c r="AE133" s="33">
-        <f t="shared" ref="AE133:AE143" si="748">$B133*AD133</f>
+        <f t="shared" ref="AE133:AE147" si="748">$B133*AD133</f>
         <v>0</v>
       </c>
       <c r="AF133" s="35">
@@ -31218,36 +31262,36 @@
         <v>0</v>
       </c>
       <c r="AK133" s="33">
-        <f t="shared" ref="AK133:AK143" si="749">$B133*AJ133</f>
+        <f t="shared" ref="AK133:AK147" si="749">$B133*AJ133</f>
         <v>0</v>
       </c>
       <c r="AL133" s="35">
         <v>0</v>
       </c>
       <c r="AM133" s="33">
-        <f t="shared" ref="AM133:AM143" si="750">$B133*AL133</f>
+        <f t="shared" ref="AM133:AM147" si="750">$B133*AL133</f>
         <v>0</v>
       </c>
       <c r="AN133" s="35">
         <v>0</v>
       </c>
       <c r="AO133" s="33">
-        <f t="shared" ref="AO133:AO143" si="751">$B133*AN133</f>
+        <f t="shared" ref="AO133:AO147" si="751">$B133*AN133</f>
         <v>0</v>
       </c>
       <c r="AP133" s="35">
         <v>0</v>
       </c>
       <c r="AQ133" s="33">
-        <f t="shared" ref="AQ133:AQ143" si="752">$B133*AP133</f>
+        <f t="shared" ref="AQ133:AQ147" si="752">$B133*AP133</f>
         <v>0</v>
       </c>
       <c r="AR133" s="35">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AS133" s="33">
-        <f t="shared" ref="AS133:AS143" si="753">$B133*AR133</f>
-        <v>0</v>
+        <f t="shared" ref="AS133:AS147" si="753">$B133*AR133</f>
+        <v>2733.5</v>
       </c>
       <c r="AT133" s="35">
         <v>0</v>
@@ -31295,7 +31339,7 @@
         <v>0</v>
       </c>
       <c r="BG133" s="33">
-        <f t="shared" ref="BG133:BG143" si="754">$B133*BF133</f>
+        <f t="shared" ref="BG133:BG147" si="754">$B133*BF133</f>
         <v>0</v>
       </c>
       <c r="BH133" s="35">
@@ -31320,14 +31364,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="2"/>
+    <row r="134" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="B134" s="1">
-        <v>0</v>
+        <v>19090</v>
       </c>
       <c r="C134" s="44">
-        <f t="shared" ref="C134:C143" si="755">SUM(F134,H134,J134,L134,N134,P134,R134,T134,V134,X134,Z134,AB134,AD134,AF134,AH134,AJ134,AL134,AN134,AP134,AR134,AT134,AV134,AX134,AZ134,BB134,BD134,BF134,BH134,BJ134,BL134)</f>
-        <v>0</v>
+        <f t="shared" ref="C134:C147" si="755">SUM(F134,H134,J134,L134,N134,P134,R134,T134,V134,X134,Z134,AB134,AD134,AF134,AH134,AJ134,AL134,AN134,AP134,AR134,AT134,AV134,AX134,AZ134,BB134,BD134,BF134,BH134,BJ134,BL134)</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="D134" s="23"/>
       <c r="E134" s="24"/>
@@ -31388,11 +31434,11 @@
         <v>0</v>
       </c>
       <c r="V134" s="35">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="W134" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>15844.699999999999</v>
       </c>
       <c r="X134" s="35">
         <v>0</v>
@@ -31426,14 +31472,14 @@
         <v>0</v>
       </c>
       <c r="AG134" s="31">
-        <f t="shared" ref="AG134:AG143" si="756">$B134*AF134</f>
+        <f t="shared" ref="AG134:AG147" si="756">$B134*AF134</f>
         <v>0</v>
       </c>
       <c r="AH134" s="35">
         <v>0</v>
       </c>
       <c r="AI134" s="31">
-        <f t="shared" ref="AI134:AI143" si="757">$B134*AH134</f>
+        <f t="shared" ref="AI134:AI147" si="757">$B134*AH134</f>
         <v>0</v>
       </c>
       <c r="AJ134" s="35">
@@ -31465,38 +31511,38 @@
         <v>0</v>
       </c>
       <c r="AR134" s="35">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AS134" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>1336.3000000000002</v>
       </c>
       <c r="AT134" s="35">
         <v>0</v>
       </c>
       <c r="AU134" s="31">
-        <f t="shared" ref="AU134:AU143" si="758">$B134*AT134</f>
+        <f t="shared" ref="AU134:AU147" si="758">$B134*AT134</f>
         <v>0</v>
       </c>
       <c r="AV134" s="35">
         <v>0</v>
       </c>
       <c r="AW134" s="31">
-        <f t="shared" ref="AW134:AW143" si="759">$B134*AV134</f>
+        <f t="shared" ref="AW134:AW147" si="759">$B134*AV134</f>
         <v>0</v>
       </c>
       <c r="AX134" s="35">
         <v>0</v>
       </c>
       <c r="AY134" s="31">
-        <f t="shared" ref="AY134:AY143" si="760">$B134*AX134</f>
+        <f t="shared" ref="AY134:AY147" si="760">$B134*AX134</f>
         <v>0</v>
       </c>
       <c r="AZ134" s="35">
         <v>0</v>
       </c>
       <c r="BA134" s="31">
-        <f t="shared" ref="BA134:BC143" si="761">$B134*AZ134</f>
+        <f t="shared" ref="BA134:BC147" si="761">$B134*AZ134</f>
         <v>0</v>
       </c>
       <c r="BB134" s="35">
@@ -31524,32 +31570,34 @@
         <v>0</v>
       </c>
       <c r="BI134" s="31">
-        <f t="shared" ref="BI134:BI143" si="763">$B134*BH134</f>
+        <f t="shared" ref="BI134:BI147" si="763">$B134*BH134</f>
         <v>0</v>
       </c>
       <c r="BJ134" s="35">
         <v>0</v>
       </c>
       <c r="BK134" s="31">
-        <f t="shared" ref="BK134:BK143" si="764">$B134*BJ134</f>
+        <f t="shared" ref="BK134:BK147" si="764">$B134*BJ134</f>
         <v>0</v>
       </c>
       <c r="BL134" s="35">
         <v>0</v>
       </c>
       <c r="BM134" s="31">
-        <f t="shared" ref="BM134:BM143" si="765">$B134*BL134</f>
+        <f t="shared" ref="BM134:BM147" si="765">$B134*BL134</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
+    <row r="135" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="B135" s="1">
-        <v>0</v>
+        <v>12110</v>
       </c>
       <c r="C135" s="44">
         <f t="shared" si="755"/>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D135" s="23"/>
       <c r="E135" s="24"/>
@@ -31603,18 +31651,18 @@
         <v>0</v>
       </c>
       <c r="T135" s="39">
-        <v>0</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U135" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>1695.4</v>
       </c>
       <c r="V135" s="35">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="W135" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>1089.8999999999999</v>
       </c>
       <c r="X135" s="35">
         <v>0</v>
@@ -31687,11 +31735,11 @@
         <v>0</v>
       </c>
       <c r="AR135" s="35">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AS135" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>8477</v>
       </c>
       <c r="AT135" s="35">
         <v>0</v>
@@ -31764,14 +31812,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="2"/>
+    <row r="136" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="B136" s="1">
-        <v>0</v>
+        <v>5090</v>
       </c>
       <c r="C136" s="44">
         <f t="shared" si="755"/>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="24"/>
@@ -31825,18 +31875,18 @@
         <v>0</v>
       </c>
       <c r="T136" s="39">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="U136" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="V136" s="35">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="W136" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>610.79999999999995</v>
       </c>
       <c r="X136" s="35">
         <v>0</v>
@@ -31909,11 +31959,11 @@
         <v>0</v>
       </c>
       <c r="AR136" s="35">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AS136" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>3613.8999999999996</v>
       </c>
       <c r="AT136" s="35">
         <v>0</v>
@@ -31986,14 +32036,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="2"/>
+    <row r="137" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="B137" s="1">
-        <v>0</v>
+        <v>15270</v>
       </c>
       <c r="C137" s="44">
         <f t="shared" si="755"/>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D137" s="23"/>
       <c r="E137" s="24"/>
@@ -32047,18 +32099,18 @@
         <v>0</v>
       </c>
       <c r="T137" s="39">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="U137" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>2595.9</v>
       </c>
       <c r="V137" s="35">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="W137" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>1221.6000000000001</v>
       </c>
       <c r="X137" s="35">
         <v>0</v>
@@ -32131,11 +32183,11 @@
         <v>0</v>
       </c>
       <c r="AR137" s="35">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="AS137" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>10689</v>
       </c>
       <c r="AT137" s="35">
         <v>0</v>
@@ -32208,14 +32260,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
+    <row r="138" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="B138" s="1">
-        <v>0</v>
+        <v>6970</v>
       </c>
       <c r="C138" s="44">
         <f t="shared" si="755"/>
-        <v>0</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D138" s="23"/>
       <c r="E138" s="24"/>
@@ -32269,18 +32323,18 @@
         <v>0</v>
       </c>
       <c r="T138" s="39">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="U138" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>557.6</v>
       </c>
       <c r="V138" s="35">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="W138" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>836.4</v>
       </c>
       <c r="X138" s="35">
         <v>0</v>
@@ -32353,11 +32407,11 @@
         <v>0</v>
       </c>
       <c r="AR138" s="35">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="AS138" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>5088.0999999999995</v>
       </c>
       <c r="AT138" s="35">
         <v>0</v>
@@ -32430,14 +32484,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="2"/>
+    <row r="139" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B139" s="1">
-        <v>0</v>
+        <v>16090</v>
       </c>
       <c r="C139" s="44">
         <f t="shared" si="755"/>
-        <v>0</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="D139" s="23"/>
       <c r="E139" s="24"/>
@@ -32491,11 +32547,11 @@
         <v>0</v>
       </c>
       <c r="T139" s="39">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="U139" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>13032.900000000001</v>
       </c>
       <c r="V139" s="35">
         <v>0</v>
@@ -32561,11 +32617,11 @@
         <v>0</v>
       </c>
       <c r="AN139" s="35">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AO139" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>965.4</v>
       </c>
       <c r="AP139" s="35">
         <v>0</v>
@@ -32575,11 +32631,11 @@
         <v>0</v>
       </c>
       <c r="AR139" s="35">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AS139" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>1287.2</v>
       </c>
       <c r="AT139" s="35">
         <v>0</v>
@@ -32652,10 +32708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="2"/>
+    <row r="140" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="B140" s="1">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C140" s="44">
         <f t="shared" si="755"/>
@@ -32842,7 +32900,7 @@
         <v>0</v>
       </c>
       <c r="BE140" s="31">
-        <f t="shared" ref="BE140" si="771">$B140*BD140</f>
+        <f t="shared" ref="BE140:BE144" si="771">$B140*BD140</f>
         <v>0</v>
       </c>
       <c r="BF140" s="35">
@@ -32874,14 +32932,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="2"/>
+    <row r="141" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="B141" s="1">
-        <v>0</v>
+        <v>205200</v>
       </c>
       <c r="C141" s="44">
         <f t="shared" si="755"/>
-        <v>0</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" s="24"/>
@@ -32935,11 +32995,11 @@
         <v>0</v>
       </c>
       <c r="T141" s="39">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="U141" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>16416</v>
       </c>
       <c r="V141" s="35">
         <v>0</v>
@@ -33005,11 +33065,11 @@
         <v>0</v>
       </c>
       <c r="AN141" s="35">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AO141" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>12312</v>
       </c>
       <c r="AP141" s="35">
         <v>0</v>
@@ -33019,11 +33079,11 @@
         <v>0</v>
       </c>
       <c r="AR141" s="35">
-        <v>0</v>
+        <v>0.81</v>
       </c>
       <c r="AS141" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>166212</v>
       </c>
       <c r="AT141" s="35">
         <v>0</v>
@@ -33064,7 +33124,7 @@
         <v>0</v>
       </c>
       <c r="BE141" s="31">
-        <f t="shared" ref="BE141" si="772">$B141*BD141</f>
+        <f t="shared" ref="BE141:BE143" si="772">$B141*BD141</f>
         <v>0</v>
       </c>
       <c r="BF141" s="35">
@@ -33096,14 +33156,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="2"/>
+    <row r="142" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="B142" s="1">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="C142" s="44">
-        <f t="shared" si="755"/>
-        <v>0</v>
+        <f t="shared" ref="C142:C143" si="773">SUM(F142,H142,J142,L142,N142,P142,R142,T142,V142,X142,Z142,AB142,AD142,AF142,AH142,AJ142,AL142,AN142,AP142,AR142,AT142,AV142,AX142,AZ142,BB142,BD142,BF142,BH142,BJ142,BL142)</f>
+        <v>0.95</v>
       </c>
       <c r="D142" s="23"/>
       <c r="E142" s="24"/>
@@ -33111,441 +33173,1354 @@
         <v>0</v>
       </c>
       <c r="G142" s="31">
+        <f t="shared" ref="G142:G143" si="774">$B142*F142</f>
+        <v>0</v>
+      </c>
+      <c r="H142" s="35">
+        <v>0</v>
+      </c>
+      <c r="I142" s="31">
+        <f t="shared" ref="I142:I143" si="775">$B142*H142</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="35">
+        <v>0</v>
+      </c>
+      <c r="K142" s="31">
+        <f t="shared" ref="K142:K143" si="776">$B142*J142</f>
+        <v>0</v>
+      </c>
+      <c r="L142" s="35">
+        <v>0</v>
+      </c>
+      <c r="M142" s="31">
+        <f t="shared" ref="M142:M143" si="777">$B142*L142</f>
+        <v>0</v>
+      </c>
+      <c r="N142" s="35">
+        <v>0</v>
+      </c>
+      <c r="O142" s="33">
+        <f t="shared" ref="O142:O143" si="778">$B142*N142</f>
+        <v>0</v>
+      </c>
+      <c r="P142" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q142" s="33">
+        <f t="shared" ref="Q142:Q143" si="779">$B142*P142</f>
+        <v>0</v>
+      </c>
+      <c r="R142" s="35">
+        <v>0</v>
+      </c>
+      <c r="S142" s="31">
+        <f t="shared" ref="S142:S143" si="780">$B142*R142</f>
+        <v>0</v>
+      </c>
+      <c r="T142" s="39">
+        <v>0.12</v>
+      </c>
+      <c r="U142" s="33">
+        <f t="shared" ref="U142:U143" si="781">$B142*T142</f>
+        <v>816</v>
+      </c>
+      <c r="V142" s="35">
+        <v>0</v>
+      </c>
+      <c r="W142" s="33">
+        <f t="shared" ref="W142:W143" si="782">$B142*V142</f>
+        <v>0</v>
+      </c>
+      <c r="X142" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="31">
+        <f t="shared" ref="Y142:Y143" si="783">$B142*X142</f>
+        <v>0</v>
+      </c>
+      <c r="Z142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA142" s="31">
+        <f t="shared" ref="AA142:AA143" si="784">$B142*Z142</f>
+        <v>0</v>
+      </c>
+      <c r="AB142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="31">
+        <f t="shared" ref="AC142:AC143" si="785">$B142*AB142</f>
+        <v>0</v>
+      </c>
+      <c r="AD142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="33">
+        <f t="shared" ref="AE142:AE143" si="786">$B142*AD142</f>
+        <v>0</v>
+      </c>
+      <c r="AF142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG142" s="31">
+        <f t="shared" ref="AG142:AG143" si="787">$B142*AF142</f>
+        <v>0</v>
+      </c>
+      <c r="AH142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI142" s="31">
+        <f t="shared" ref="AI142:AI143" si="788">$B142*AH142</f>
+        <v>0</v>
+      </c>
+      <c r="AJ142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK142" s="33">
+        <f t="shared" ref="AK142:AK143" si="789">$B142*AJ142</f>
+        <v>0</v>
+      </c>
+      <c r="AL142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM142" s="33">
+        <f t="shared" ref="AM142:AM143" si="790">$B142*AL142</f>
+        <v>0</v>
+      </c>
+      <c r="AN142" s="35">
+        <v>0.12</v>
+      </c>
+      <c r="AO142" s="33">
+        <f t="shared" ref="AO142:AO143" si="791">$B142*AN142</f>
+        <v>816</v>
+      </c>
+      <c r="AP142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AQ142" s="33">
+        <f t="shared" ref="AQ142:AQ143" si="792">$B142*AP142</f>
+        <v>0</v>
+      </c>
+      <c r="AR142" s="35">
+        <v>0.71</v>
+      </c>
+      <c r="AS142" s="33">
+        <f t="shared" ref="AS142:AS143" si="793">$B142*AR142</f>
+        <v>4828</v>
+      </c>
+      <c r="AT142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AU142" s="31">
+        <f t="shared" ref="AU142:AU143" si="794">$B142*AT142</f>
+        <v>0</v>
+      </c>
+      <c r="AV142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AW142" s="31">
+        <f t="shared" ref="AW142:AW143" si="795">$B142*AV142</f>
+        <v>0</v>
+      </c>
+      <c r="AX142" s="35">
+        <v>0</v>
+      </c>
+      <c r="AY142" s="31">
+        <f t="shared" ref="AY142:AY143" si="796">$B142*AX142</f>
+        <v>0</v>
+      </c>
+      <c r="AZ142" s="35">
+        <v>0</v>
+      </c>
+      <c r="BA142" s="31">
+        <f t="shared" ref="BA142:BA143" si="797">$B142*AZ142</f>
+        <v>0</v>
+      </c>
+      <c r="BB142" s="35">
+        <v>0</v>
+      </c>
+      <c r="BC142" s="31">
+        <f t="shared" ref="BC142:BC143" si="798">$B142*BB142</f>
+        <v>0</v>
+      </c>
+      <c r="BD142" s="35">
+        <v>0</v>
+      </c>
+      <c r="BE142" s="31">
+        <f t="shared" si="772"/>
+        <v>0</v>
+      </c>
+      <c r="BF142" s="35">
+        <v>0</v>
+      </c>
+      <c r="BG142" s="33">
+        <f t="shared" ref="BG142:BG143" si="799">$B142*BF142</f>
+        <v>0</v>
+      </c>
+      <c r="BH142" s="35">
+        <v>0</v>
+      </c>
+      <c r="BI142" s="31">
+        <f t="shared" ref="BI142:BI143" si="800">$B142*BH142</f>
+        <v>0</v>
+      </c>
+      <c r="BJ142" s="35">
+        <v>0</v>
+      </c>
+      <c r="BK142" s="31">
+        <f t="shared" ref="BK142:BK143" si="801">$B142*BJ142</f>
+        <v>0</v>
+      </c>
+      <c r="BL142" s="35">
+        <v>0</v>
+      </c>
+      <c r="BM142" s="31">
+        <f t="shared" ref="BM142:BM143" si="802">$B142*BL142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B143" s="1">
+        <v>850</v>
+      </c>
+      <c r="C143" s="44">
+        <f t="shared" si="773"/>
+        <v>0.98</v>
+      </c>
+      <c r="D143" s="23"/>
+      <c r="E143" s="24"/>
+      <c r="F143" s="35">
+        <v>0</v>
+      </c>
+      <c r="G143" s="31">
+        <f t="shared" si="774"/>
+        <v>0</v>
+      </c>
+      <c r="H143" s="35">
+        <v>0</v>
+      </c>
+      <c r="I143" s="31">
+        <f t="shared" si="775"/>
+        <v>0</v>
+      </c>
+      <c r="J143" s="35">
+        <v>0</v>
+      </c>
+      <c r="K143" s="31">
+        <f t="shared" si="776"/>
+        <v>0</v>
+      </c>
+      <c r="L143" s="35">
+        <v>0</v>
+      </c>
+      <c r="M143" s="31">
+        <f t="shared" si="777"/>
+        <v>0</v>
+      </c>
+      <c r="N143" s="35">
+        <v>0</v>
+      </c>
+      <c r="O143" s="33">
+        <f t="shared" si="778"/>
+        <v>0</v>
+      </c>
+      <c r="P143" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q143" s="33">
+        <f t="shared" si="779"/>
+        <v>0</v>
+      </c>
+      <c r="R143" s="35">
+        <v>0</v>
+      </c>
+      <c r="S143" s="31">
+        <f t="shared" si="780"/>
+        <v>0</v>
+      </c>
+      <c r="T143" s="39">
+        <v>0</v>
+      </c>
+      <c r="U143" s="33">
+        <f t="shared" si="781"/>
+        <v>0</v>
+      </c>
+      <c r="V143" s="35">
+        <v>0</v>
+      </c>
+      <c r="W143" s="33">
+        <f t="shared" si="782"/>
+        <v>0</v>
+      </c>
+      <c r="X143" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="31">
+        <f t="shared" si="783"/>
+        <v>0</v>
+      </c>
+      <c r="Z143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="31">
+        <f t="shared" si="784"/>
+        <v>0</v>
+      </c>
+      <c r="AB143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="31">
+        <f t="shared" si="785"/>
+        <v>0</v>
+      </c>
+      <c r="AD143" s="35">
+        <v>0.98</v>
+      </c>
+      <c r="AE143" s="33">
+        <f t="shared" si="786"/>
+        <v>833</v>
+      </c>
+      <c r="AF143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG143" s="31">
+        <f t="shared" si="787"/>
+        <v>0</v>
+      </c>
+      <c r="AH143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI143" s="31">
+        <f t="shared" si="788"/>
+        <v>0</v>
+      </c>
+      <c r="AJ143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK143" s="33">
+        <f t="shared" si="789"/>
+        <v>0</v>
+      </c>
+      <c r="AL143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM143" s="33">
+        <f t="shared" si="790"/>
+        <v>0</v>
+      </c>
+      <c r="AN143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO143" s="33">
+        <f t="shared" si="791"/>
+        <v>0</v>
+      </c>
+      <c r="AP143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AQ143" s="33">
+        <f t="shared" si="792"/>
+        <v>0</v>
+      </c>
+      <c r="AR143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS143" s="33">
+        <f t="shared" si="793"/>
+        <v>0</v>
+      </c>
+      <c r="AT143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AU143" s="31">
+        <f t="shared" si="794"/>
+        <v>0</v>
+      </c>
+      <c r="AV143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AW143" s="31">
+        <f t="shared" si="795"/>
+        <v>0</v>
+      </c>
+      <c r="AX143" s="35">
+        <v>0</v>
+      </c>
+      <c r="AY143" s="31">
+        <f t="shared" si="796"/>
+        <v>0</v>
+      </c>
+      <c r="AZ143" s="35">
+        <v>0</v>
+      </c>
+      <c r="BA143" s="31">
+        <f t="shared" si="797"/>
+        <v>0</v>
+      </c>
+      <c r="BB143" s="35">
+        <v>0</v>
+      </c>
+      <c r="BC143" s="31">
+        <f t="shared" si="798"/>
+        <v>0</v>
+      </c>
+      <c r="BD143" s="35">
+        <v>0</v>
+      </c>
+      <c r="BE143" s="31">
+        <f t="shared" si="772"/>
+        <v>0</v>
+      </c>
+      <c r="BF143" s="35">
+        <v>0</v>
+      </c>
+      <c r="BG143" s="33">
+        <f t="shared" si="799"/>
+        <v>0</v>
+      </c>
+      <c r="BH143" s="35">
+        <v>0</v>
+      </c>
+      <c r="BI143" s="31">
+        <f t="shared" si="800"/>
+        <v>0</v>
+      </c>
+      <c r="BJ143" s="35">
+        <v>0</v>
+      </c>
+      <c r="BK143" s="31">
+        <f t="shared" si="801"/>
+        <v>0</v>
+      </c>
+      <c r="BL143" s="35">
+        <v>0</v>
+      </c>
+      <c r="BM143" s="31">
+        <f t="shared" si="802"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" s="1">
+        <v>41</v>
+      </c>
+      <c r="C144" s="44">
+        <f t="shared" ref="C144" si="803">SUM(F144,H144,J144,L144,N144,P144,R144,T144,V144,X144,Z144,AB144,AD144,AF144,AH144,AJ144,AL144,AN144,AP144,AR144,AT144,AV144,AX144,AZ144,BB144,BD144,BF144,BH144,BJ144,BL144)</f>
+        <v>0</v>
+      </c>
+      <c r="D144" s="23"/>
+      <c r="E144" s="24"/>
+      <c r="F144" s="35">
+        <v>0</v>
+      </c>
+      <c r="G144" s="31">
+        <f t="shared" ref="G144" si="804">$B144*F144</f>
+        <v>0</v>
+      </c>
+      <c r="H144" s="35">
+        <v>0</v>
+      </c>
+      <c r="I144" s="31">
+        <f t="shared" ref="I144" si="805">$B144*H144</f>
+        <v>0</v>
+      </c>
+      <c r="J144" s="35">
+        <v>0</v>
+      </c>
+      <c r="K144" s="31">
+        <f t="shared" ref="K144" si="806">$B144*J144</f>
+        <v>0</v>
+      </c>
+      <c r="L144" s="35">
+        <v>0</v>
+      </c>
+      <c r="M144" s="31">
+        <f t="shared" ref="M144" si="807">$B144*L144</f>
+        <v>0</v>
+      </c>
+      <c r="N144" s="35">
+        <v>0</v>
+      </c>
+      <c r="O144" s="33">
+        <f t="shared" ref="O144" si="808">$B144*N144</f>
+        <v>0</v>
+      </c>
+      <c r="P144" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q144" s="33">
+        <f t="shared" ref="Q144" si="809">$B144*P144</f>
+        <v>0</v>
+      </c>
+      <c r="R144" s="35">
+        <v>0</v>
+      </c>
+      <c r="S144" s="31">
+        <f t="shared" ref="S144" si="810">$B144*R144</f>
+        <v>0</v>
+      </c>
+      <c r="T144" s="39">
+        <v>0</v>
+      </c>
+      <c r="U144" s="33">
+        <f t="shared" ref="U144" si="811">$B144*T144</f>
+        <v>0</v>
+      </c>
+      <c r="V144" s="35">
+        <v>0</v>
+      </c>
+      <c r="W144" s="33">
+        <f t="shared" ref="W144" si="812">$B144*V144</f>
+        <v>0</v>
+      </c>
+      <c r="X144" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="31">
+        <f t="shared" ref="Y144" si="813">$B144*X144</f>
+        <v>0</v>
+      </c>
+      <c r="Z144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="31">
+        <f t="shared" ref="AA144" si="814">$B144*Z144</f>
+        <v>0</v>
+      </c>
+      <c r="AB144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="31">
+        <f t="shared" ref="AC144" si="815">$B144*AB144</f>
+        <v>0</v>
+      </c>
+      <c r="AD144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE144" s="33">
+        <f t="shared" ref="AE144" si="816">$B144*AD144</f>
+        <v>0</v>
+      </c>
+      <c r="AF144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG144" s="31">
+        <f t="shared" ref="AG144" si="817">$B144*AF144</f>
+        <v>0</v>
+      </c>
+      <c r="AH144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI144" s="31">
+        <f t="shared" ref="AI144" si="818">$B144*AH144</f>
+        <v>0</v>
+      </c>
+      <c r="AJ144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK144" s="33">
+        <f t="shared" ref="AK144" si="819">$B144*AJ144</f>
+        <v>0</v>
+      </c>
+      <c r="AL144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM144" s="33">
+        <f t="shared" ref="AM144" si="820">$B144*AL144</f>
+        <v>0</v>
+      </c>
+      <c r="AN144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO144" s="33">
+        <f t="shared" ref="AO144" si="821">$B144*AN144</f>
+        <v>0</v>
+      </c>
+      <c r="AP144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AQ144" s="33">
+        <f t="shared" ref="AQ144" si="822">$B144*AP144</f>
+        <v>0</v>
+      </c>
+      <c r="AR144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS144" s="33">
+        <f t="shared" ref="AS144" si="823">$B144*AR144</f>
+        <v>0</v>
+      </c>
+      <c r="AT144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AU144" s="31">
+        <f t="shared" ref="AU144" si="824">$B144*AT144</f>
+        <v>0</v>
+      </c>
+      <c r="AV144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AW144" s="31">
+        <f t="shared" ref="AW144" si="825">$B144*AV144</f>
+        <v>0</v>
+      </c>
+      <c r="AX144" s="35">
+        <v>0</v>
+      </c>
+      <c r="AY144" s="31">
+        <f t="shared" ref="AY144" si="826">$B144*AX144</f>
+        <v>0</v>
+      </c>
+      <c r="AZ144" s="35">
+        <v>0</v>
+      </c>
+      <c r="BA144" s="31">
+        <f t="shared" ref="BA144" si="827">$B144*AZ144</f>
+        <v>0</v>
+      </c>
+      <c r="BB144" s="35">
+        <v>0</v>
+      </c>
+      <c r="BC144" s="31">
+        <f t="shared" ref="BC144" si="828">$B144*BB144</f>
+        <v>0</v>
+      </c>
+      <c r="BD144" s="35">
+        <v>0</v>
+      </c>
+      <c r="BE144" s="31">
+        <f t="shared" si="771"/>
+        <v>0</v>
+      </c>
+      <c r="BF144" s="35">
+        <v>0</v>
+      </c>
+      <c r="BG144" s="33">
+        <f t="shared" ref="BG144" si="829">$B144*BF144</f>
+        <v>0</v>
+      </c>
+      <c r="BH144" s="35">
+        <v>0</v>
+      </c>
+      <c r="BI144" s="31">
+        <f t="shared" ref="BI144" si="830">$B144*BH144</f>
+        <v>0</v>
+      </c>
+      <c r="BJ144" s="35">
+        <v>0</v>
+      </c>
+      <c r="BK144" s="31">
+        <f t="shared" ref="BK144" si="831">$B144*BJ144</f>
+        <v>0</v>
+      </c>
+      <c r="BL144" s="35">
+        <v>0</v>
+      </c>
+      <c r="BM144" s="31">
+        <f t="shared" ref="BM144" si="832">$B144*BL144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B145" s="1">
+        <v>3220</v>
+      </c>
+      <c r="C145" s="44">
+        <f t="shared" si="755"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="D145" s="23"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="35">
+        <v>0</v>
+      </c>
+      <c r="G145" s="31">
         <f t="shared" si="736"/>
         <v>0</v>
       </c>
-      <c r="H142" s="35">
-        <v>0</v>
-      </c>
-      <c r="I142" s="31">
+      <c r="H145" s="35">
+        <v>0</v>
+      </c>
+      <c r="I145" s="31">
         <f t="shared" si="737"/>
         <v>0</v>
       </c>
-      <c r="J142" s="35">
-        <v>0</v>
-      </c>
-      <c r="K142" s="31">
+      <c r="J145" s="35">
+        <v>0</v>
+      </c>
+      <c r="K145" s="31">
         <f t="shared" si="738"/>
         <v>0</v>
       </c>
-      <c r="L142" s="35">
-        <v>0</v>
-      </c>
-      <c r="M142" s="31">
+      <c r="L145" s="35">
+        <v>0</v>
+      </c>
+      <c r="M145" s="31">
         <f t="shared" si="739"/>
         <v>0</v>
       </c>
-      <c r="N142" s="35">
-        <v>0</v>
-      </c>
-      <c r="O142" s="33">
+      <c r="N145" s="35">
+        <v>0</v>
+      </c>
+      <c r="O145" s="33">
         <f t="shared" si="740"/>
         <v>0</v>
       </c>
-      <c r="P142" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q142" s="33">
+      <c r="P145" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q145" s="33">
         <f t="shared" si="741"/>
         <v>0</v>
       </c>
-      <c r="R142" s="35">
-        <v>0</v>
-      </c>
-      <c r="S142" s="31">
+      <c r="R145" s="35">
+        <v>0</v>
+      </c>
+      <c r="S145" s="31">
         <f t="shared" si="742"/>
         <v>0</v>
       </c>
-      <c r="T142" s="39">
-        <v>0</v>
-      </c>
-      <c r="U142" s="33">
+      <c r="T145" s="39">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U145" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
-      </c>
-      <c r="V142" s="35">
-        <v>0</v>
-      </c>
-      <c r="W142" s="33">
+        <v>901.60000000000014</v>
+      </c>
+      <c r="V145" s="35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W145" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
-      </c>
-      <c r="X142" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y142" s="31">
+        <v>450.80000000000007</v>
+      </c>
+      <c r="X145" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="31">
         <f t="shared" si="745"/>
         <v>0</v>
       </c>
-      <c r="Z142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA142" s="31">
+      <c r="Z145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="31">
         <f t="shared" si="746"/>
         <v>0</v>
       </c>
-      <c r="AB142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC142" s="31">
+      <c r="AB145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="31">
         <f t="shared" si="747"/>
         <v>0</v>
       </c>
-      <c r="AD142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE142" s="33">
+      <c r="AD145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE145" s="33">
         <f t="shared" si="748"/>
         <v>0</v>
       </c>
-      <c r="AF142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG142" s="31">
+      <c r="AF145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG145" s="31">
         <f t="shared" si="756"/>
         <v>0</v>
       </c>
-      <c r="AH142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI142" s="31">
+      <c r="AH145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI145" s="31">
         <f t="shared" si="757"/>
         <v>0</v>
       </c>
-      <c r="AJ142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK142" s="33">
+      <c r="AJ145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK145" s="33">
         <f t="shared" si="749"/>
         <v>0</v>
       </c>
-      <c r="AL142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AM142" s="33">
+      <c r="AL145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM145" s="33">
         <f t="shared" si="750"/>
         <v>0</v>
       </c>
-      <c r="AN142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AO142" s="33">
+      <c r="AN145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO145" s="33">
         <f t="shared" si="751"/>
         <v>0</v>
       </c>
-      <c r="AP142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AQ142" s="33">
+      <c r="AP145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AQ145" s="33">
         <f t="shared" si="752"/>
         <v>0</v>
       </c>
-      <c r="AR142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AS142" s="33">
+      <c r="AR145" s="35">
+        <v>0.54</v>
+      </c>
+      <c r="AS145" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
-      </c>
-      <c r="AT142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AU142" s="31">
+        <v>1738.8000000000002</v>
+      </c>
+      <c r="AT145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AU145" s="31">
         <f t="shared" si="758"/>
         <v>0</v>
       </c>
-      <c r="AV142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AW142" s="31">
+      <c r="AV145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AW145" s="31">
         <f t="shared" si="759"/>
         <v>0</v>
       </c>
-      <c r="AX142" s="35">
-        <v>0</v>
-      </c>
-      <c r="AY142" s="31">
+      <c r="AX145" s="35">
+        <v>0</v>
+      </c>
+      <c r="AY145" s="31">
         <f t="shared" si="760"/>
         <v>0</v>
       </c>
-      <c r="AZ142" s="35">
-        <v>0</v>
-      </c>
-      <c r="BA142" s="31">
+      <c r="AZ145" s="35">
+        <v>0</v>
+      </c>
+      <c r="BA145" s="31">
         <f t="shared" si="761"/>
         <v>0</v>
       </c>
-      <c r="BB142" s="35">
-        <v>0</v>
-      </c>
-      <c r="BC142" s="31">
+      <c r="BB145" s="35">
+        <v>0</v>
+      </c>
+      <c r="BC145" s="31">
         <f t="shared" si="761"/>
         <v>0</v>
       </c>
-      <c r="BD142" s="35">
-        <v>0</v>
-      </c>
-      <c r="BE142" s="31">
-        <f t="shared" ref="BE142" si="773">$B142*BD142</f>
-        <v>0</v>
-      </c>
-      <c r="BF142" s="35">
-        <v>0</v>
-      </c>
-      <c r="BG142" s="33">
+      <c r="BD145" s="35">
+        <v>0</v>
+      </c>
+      <c r="BE145" s="31">
+        <f t="shared" ref="BE145" si="833">$B145*BD145</f>
+        <v>0</v>
+      </c>
+      <c r="BF145" s="35">
+        <v>0</v>
+      </c>
+      <c r="BG145" s="33">
         <f t="shared" si="754"/>
         <v>0</v>
       </c>
-      <c r="BH142" s="35">
-        <v>0</v>
-      </c>
-      <c r="BI142" s="31">
+      <c r="BH145" s="35">
+        <v>0</v>
+      </c>
+      <c r="BI145" s="31">
         <f t="shared" si="763"/>
         <v>0</v>
       </c>
-      <c r="BJ142" s="35">
-        <v>0</v>
-      </c>
-      <c r="BK142" s="31">
+      <c r="BJ145" s="35">
+        <v>0</v>
+      </c>
+      <c r="BK145" s="31">
         <f t="shared" si="764"/>
         <v>0</v>
       </c>
-      <c r="BL142" s="35">
-        <v>0</v>
-      </c>
-      <c r="BM142" s="31">
+      <c r="BL145" s="35">
+        <v>0</v>
+      </c>
+      <c r="BM145" s="31">
         <f t="shared" si="765"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="2"/>
-      <c r="B143" s="1">
-        <v>0</v>
-      </c>
-      <c r="C143" s="44">
+    <row r="146" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B146" s="1">
+        <v>102600</v>
+      </c>
+      <c r="C146" s="44">
         <f t="shared" si="755"/>
         <v>0</v>
       </c>
-      <c r="D143" s="25"/>
-      <c r="E143" s="26"/>
-      <c r="F143" s="35">
-        <v>0</v>
-      </c>
-      <c r="G143" s="31">
+      <c r="D146" s="23"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="35">
+        <v>0</v>
+      </c>
+      <c r="G146" s="31">
         <f t="shared" si="736"/>
         <v>0</v>
       </c>
-      <c r="H143" s="35">
-        <v>0</v>
-      </c>
-      <c r="I143" s="31">
+      <c r="H146" s="35">
+        <v>0</v>
+      </c>
+      <c r="I146" s="31">
         <f t="shared" si="737"/>
         <v>0</v>
       </c>
-      <c r="J143" s="35">
-        <v>0</v>
-      </c>
-      <c r="K143" s="31">
+      <c r="J146" s="35">
+        <v>0</v>
+      </c>
+      <c r="K146" s="31">
         <f t="shared" si="738"/>
         <v>0</v>
       </c>
-      <c r="L143" s="35">
-        <v>0</v>
-      </c>
-      <c r="M143" s="31">
+      <c r="L146" s="35">
+        <v>0</v>
+      </c>
+      <c r="M146" s="31">
         <f t="shared" si="739"/>
         <v>0</v>
       </c>
-      <c r="N143" s="35">
-        <v>0</v>
-      </c>
-      <c r="O143" s="33">
+      <c r="N146" s="35">
+        <v>0</v>
+      </c>
+      <c r="O146" s="33">
         <f t="shared" si="740"/>
         <v>0</v>
       </c>
-      <c r="P143" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q143" s="33">
+      <c r="P146" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q146" s="33">
         <f t="shared" si="741"/>
         <v>0</v>
       </c>
-      <c r="R143" s="35">
-        <v>0</v>
-      </c>
-      <c r="S143" s="31">
+      <c r="R146" s="35">
+        <v>0</v>
+      </c>
+      <c r="S146" s="31">
         <f t="shared" si="742"/>
         <v>0</v>
       </c>
-      <c r="T143" s="39">
-        <v>0</v>
-      </c>
-      <c r="U143" s="33">
+      <c r="T146" s="39">
+        <v>0</v>
+      </c>
+      <c r="U146" s="33">
         <f t="shared" si="743"/>
         <v>0</v>
       </c>
-      <c r="V143" s="35">
-        <v>0</v>
-      </c>
-      <c r="W143" s="33">
+      <c r="V146" s="35">
+        <v>0</v>
+      </c>
+      <c r="W146" s="33">
         <f t="shared" si="744"/>
         <v>0</v>
       </c>
-      <c r="X143" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y143" s="31">
+      <c r="X146" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="31">
         <f t="shared" si="745"/>
         <v>0</v>
       </c>
-      <c r="Z143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA143" s="31">
+      <c r="Z146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="31">
         <f t="shared" si="746"/>
         <v>0</v>
       </c>
-      <c r="AB143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC143" s="31">
+      <c r="AB146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="31">
         <f t="shared" si="747"/>
         <v>0</v>
       </c>
-      <c r="AD143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE143" s="33">
+      <c r="AD146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE146" s="33">
         <f t="shared" si="748"/>
         <v>0</v>
       </c>
-      <c r="AF143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG143" s="31">
+      <c r="AF146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG146" s="31">
         <f t="shared" si="756"/>
         <v>0</v>
       </c>
-      <c r="AH143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI143" s="31">
+      <c r="AH146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="31">
         <f t="shared" si="757"/>
         <v>0</v>
       </c>
-      <c r="AJ143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK143" s="33">
+      <c r="AJ146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK146" s="33">
         <f t="shared" si="749"/>
         <v>0</v>
       </c>
-      <c r="AL143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AM143" s="33">
+      <c r="AL146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM146" s="33">
         <f t="shared" si="750"/>
         <v>0</v>
       </c>
-      <c r="AN143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AO143" s="33">
+      <c r="AN146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO146" s="33">
         <f t="shared" si="751"/>
         <v>0</v>
       </c>
-      <c r="AP143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AQ143" s="33">
+      <c r="AP146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AQ146" s="33">
         <f t="shared" si="752"/>
         <v>0</v>
       </c>
-      <c r="AR143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AS143" s="33">
+      <c r="AR146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="33">
         <f t="shared" si="753"/>
         <v>0</v>
       </c>
-      <c r="AT143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AU143" s="31">
+      <c r="AT146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AU146" s="31">
         <f t="shared" si="758"/>
         <v>0</v>
       </c>
-      <c r="AV143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AW143" s="31">
+      <c r="AV146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AW146" s="31">
         <f t="shared" si="759"/>
         <v>0</v>
       </c>
-      <c r="AX143" s="35">
-        <v>0</v>
-      </c>
-      <c r="AY143" s="31">
+      <c r="AX146" s="35">
+        <v>0</v>
+      </c>
+      <c r="AY146" s="31">
         <f t="shared" si="760"/>
         <v>0</v>
       </c>
-      <c r="AZ143" s="35">
-        <v>0</v>
-      </c>
-      <c r="BA143" s="31">
+      <c r="AZ146" s="35">
+        <v>0</v>
+      </c>
+      <c r="BA146" s="31">
         <f t="shared" si="761"/>
         <v>0</v>
       </c>
-      <c r="BB143" s="35">
-        <v>0</v>
-      </c>
-      <c r="BC143" s="31">
+      <c r="BB146" s="35">
+        <v>0</v>
+      </c>
+      <c r="BC146" s="31">
         <f t="shared" si="761"/>
         <v>0</v>
       </c>
-      <c r="BD143" s="35">
-        <v>0</v>
-      </c>
-      <c r="BE143" s="31">
-        <f t="shared" ref="BE143" si="774">$B143*BD143</f>
-        <v>0</v>
-      </c>
-      <c r="BF143" s="35">
-        <v>0</v>
-      </c>
-      <c r="BG143" s="33">
+      <c r="BD146" s="35">
+        <v>0</v>
+      </c>
+      <c r="BE146" s="31">
+        <f t="shared" ref="BE146" si="834">$B146*BD146</f>
+        <v>0</v>
+      </c>
+      <c r="BF146" s="35">
+        <v>0</v>
+      </c>
+      <c r="BG146" s="33">
         <f t="shared" si="754"/>
         <v>0</v>
       </c>
-      <c r="BH143" s="35">
-        <v>0</v>
-      </c>
-      <c r="BI143" s="31">
+      <c r="BH146" s="35">
+        <v>0</v>
+      </c>
+      <c r="BI146" s="31">
         <f t="shared" si="763"/>
         <v>0</v>
       </c>
-      <c r="BJ143" s="35">
-        <v>0</v>
-      </c>
-      <c r="BK143" s="31">
+      <c r="BJ146" s="35">
+        <v>0</v>
+      </c>
+      <c r="BK146" s="31">
         <f t="shared" si="764"/>
         <v>0</v>
       </c>
-      <c r="BL143" s="35">
-        <v>0</v>
-      </c>
-      <c r="BM143" s="31">
+      <c r="BL146" s="35">
+        <v>0</v>
+      </c>
+      <c r="BM146" s="31">
         <f t="shared" si="765"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:65" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="147" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" s="44">
+        <f t="shared" si="755"/>
+        <v>0</v>
+      </c>
+      <c r="D147" s="25"/>
+      <c r="E147" s="26"/>
+      <c r="F147" s="35">
+        <v>0</v>
+      </c>
+      <c r="G147" s="31">
+        <f t="shared" si="736"/>
+        <v>0</v>
+      </c>
+      <c r="H147" s="35">
+        <v>0</v>
+      </c>
+      <c r="I147" s="31">
+        <f t="shared" si="737"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="35">
+        <v>0</v>
+      </c>
+      <c r="K147" s="31">
+        <f t="shared" si="738"/>
+        <v>0</v>
+      </c>
+      <c r="L147" s="35">
+        <v>0</v>
+      </c>
+      <c r="M147" s="31">
+        <f t="shared" si="739"/>
+        <v>0</v>
+      </c>
+      <c r="N147" s="35">
+        <v>0</v>
+      </c>
+      <c r="O147" s="33">
+        <f t="shared" si="740"/>
+        <v>0</v>
+      </c>
+      <c r="P147" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="33">
+        <f t="shared" si="741"/>
+        <v>0</v>
+      </c>
+      <c r="R147" s="35">
+        <v>0</v>
+      </c>
+      <c r="S147" s="31">
+        <f t="shared" si="742"/>
+        <v>0</v>
+      </c>
+      <c r="T147" s="39">
+        <v>0</v>
+      </c>
+      <c r="U147" s="33">
+        <f t="shared" si="743"/>
+        <v>0</v>
+      </c>
+      <c r="V147" s="35">
+        <v>0</v>
+      </c>
+      <c r="W147" s="33">
+        <f t="shared" si="744"/>
+        <v>0</v>
+      </c>
+      <c r="X147" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="31">
+        <f t="shared" si="745"/>
+        <v>0</v>
+      </c>
+      <c r="Z147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="31">
+        <f t="shared" si="746"/>
+        <v>0</v>
+      </c>
+      <c r="AB147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="31">
+        <f t="shared" si="747"/>
+        <v>0</v>
+      </c>
+      <c r="AD147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE147" s="33">
+        <f t="shared" si="748"/>
+        <v>0</v>
+      </c>
+      <c r="AF147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG147" s="31">
+        <f t="shared" si="756"/>
+        <v>0</v>
+      </c>
+      <c r="AH147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="31">
+        <f t="shared" si="757"/>
+        <v>0</v>
+      </c>
+      <c r="AJ147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK147" s="33">
+        <f t="shared" si="749"/>
+        <v>0</v>
+      </c>
+      <c r="AL147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="33">
+        <f t="shared" si="750"/>
+        <v>0</v>
+      </c>
+      <c r="AN147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO147" s="33">
+        <f t="shared" si="751"/>
+        <v>0</v>
+      </c>
+      <c r="AP147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="33">
+        <f t="shared" si="752"/>
+        <v>0</v>
+      </c>
+      <c r="AR147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="33">
+        <f t="shared" si="753"/>
+        <v>0</v>
+      </c>
+      <c r="AT147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AU147" s="31">
+        <f t="shared" si="758"/>
+        <v>0</v>
+      </c>
+      <c r="AV147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AW147" s="31">
+        <f t="shared" si="759"/>
+        <v>0</v>
+      </c>
+      <c r="AX147" s="35">
+        <v>0</v>
+      </c>
+      <c r="AY147" s="31">
+        <f t="shared" si="760"/>
+        <v>0</v>
+      </c>
+      <c r="AZ147" s="35">
+        <v>0</v>
+      </c>
+      <c r="BA147" s="31">
+        <f t="shared" si="761"/>
+        <v>0</v>
+      </c>
+      <c r="BB147" s="35">
+        <v>0</v>
+      </c>
+      <c r="BC147" s="31">
+        <f t="shared" si="761"/>
+        <v>0</v>
+      </c>
+      <c r="BD147" s="35">
+        <v>0</v>
+      </c>
+      <c r="BE147" s="31">
+        <f t="shared" ref="BE147" si="835">$B147*BD147</f>
+        <v>0</v>
+      </c>
+      <c r="BF147" s="35">
+        <v>0</v>
+      </c>
+      <c r="BG147" s="33">
+        <f t="shared" si="754"/>
+        <v>0</v>
+      </c>
+      <c r="BH147" s="35">
+        <v>0</v>
+      </c>
+      <c r="BI147" s="31">
+        <f t="shared" si="763"/>
+        <v>0</v>
+      </c>
+      <c r="BJ147" s="35">
+        <v>0</v>
+      </c>
+      <c r="BK147" s="31">
+        <f t="shared" si="764"/>
+        <v>0</v>
+      </c>
+      <c r="BL147" s="35">
+        <v>0</v>
+      </c>
+      <c r="BM147" s="31">
+        <f t="shared" si="765"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A32:A34">
     <sortCondition ref="A32"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BL1:BM1"/>
@@ -33562,24 +34537,6 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7618FF8-71F5-6746-8F26-FB72F0D02F29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D73D33-845F-EB4F-8599-5C524BF4D943}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -743,7 +743,16 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -752,13 +761,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,13 +779,7 @@
     <xf numFmtId="1" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1068,7 +1068,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A147" sqref="A147"/>
+      <selection pane="bottomLeft" activeCell="AR147" sqref="AR147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1144,136 +1144,136 @@
       <c r="A1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="55">
+      <c r="B1" s="45">
         <f>SUM(B51,B2)</f>
         <v>2000257</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49">
+      <c r="C1" s="46"/>
+      <c r="D1" s="52">
         <f>SUM(D2,D51)</f>
         <v>406067.39999999997</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="46" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="56" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="46" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="46" t="s">
+      <c r="U1" s="50"/>
+      <c r="V1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="45" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="46" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="56" t="s">
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="46" t="s">
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="48" t="s">
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="45" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45" t="s">
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45" t="s">
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45" t="s">
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45" t="s">
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45" t="s">
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="45" t="s">
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45" t="s">
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45" t="s">
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BM1" s="45"/>
+      <c r="BM1" s="51"/>
     </row>
     <row r="2" spans="1:65" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1287,11 +1287,11 @@
         <f>IFERROR(SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2,AN2,AP2,AR2,AT2,AV2,AX2,AZ2,BB2,BD2,BF2,BH2,BJ2,BL2),0)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="53">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>406067.39999999997</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="54">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>406067.39999999997</v>
       </c>
@@ -12586,196 +12586,196 @@
       </c>
       <c r="C51" s="43">
         <f>IFERROR(SUM(F51,H51,J51,L51,N51,P51,R51,T51,V51,X51,Z51,AB51,AD51,AF51,AH51,AJ51,AL51,AN51,AP51,AR51,AT51,AV51,AX51,AZ51,BB51,BD51,BF51,BH51,BJ51,BL51),0)</f>
-        <v>0.87833174961396843</v>
-      </c>
-      <c r="D51" s="53">
+        <v>1</v>
+      </c>
+      <c r="D51" s="55">
         <f>SUM(D52,D64,D76,D88,D106,D120,D132)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="54"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="34">
         <f>IFERROR(G51/$B51,0)</f>
-        <v>3.8315990923649705E-3</v>
+        <v>3.8841280600939577E-3</v>
       </c>
       <c r="G51" s="31">
         <f>SUM(G132,G120,G106,G88,G76,G64,G52)</f>
-        <v>3741.9549999999995</v>
+        <v>3793.2549999999997</v>
       </c>
       <c r="H51" s="34">
         <f>IFERROR(I51/$B51,0)</f>
-        <v>1.4466544269734717E-3</v>
+        <v>1.6826753730273482E-3</v>
       </c>
       <c r="I51" s="31">
         <f>SUM(I132,I120,I106,I88,I76,I64,I52)</f>
-        <v>1412.8085000000003</v>
+        <v>1643.3075000000003</v>
       </c>
       <c r="J51" s="34">
         <f>IFERROR(K51/$B51,0)</f>
-        <v>3.434600923199168E-3</v>
+        <v>4.4869210038050219E-3</v>
       </c>
       <c r="K51" s="31">
         <f>SUM(K132,K120,K106,K88,K76,K64,K52)</f>
-        <v>3354.2450000000003</v>
+        <v>4381.9449999999997</v>
       </c>
       <c r="L51" s="34">
         <f>IFERROR(M51/$B51,0)</f>
-        <v>0</v>
+        <v>6.9629041044271777E-6</v>
       </c>
       <c r="M51" s="31">
         <f>SUM(M132,M120,M106,M88,M76,M64,M52)</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="N51" s="37">
         <f>IFERROR(O51/$B51,0)</f>
-        <v>9.7837823723843052E-3</v>
+        <v>1.1277094912574597E-2</v>
       </c>
       <c r="O51" s="33">
         <f>SUM(O132,O120,O106,O88,O76,O64,O52)</f>
-        <v>9554.8810000000012</v>
+        <v>11013.256000000001</v>
       </c>
       <c r="P51" s="37">
         <f>IFERROR(Q51/$B51,0)</f>
-        <v>4.5356254940590044E-3</v>
+        <v>4.5519954863998098E-3</v>
       </c>
       <c r="Q51" s="33">
         <f>SUM(Q132,Q120,Q106,Q88,Q76,Q64,Q52)</f>
-        <v>4429.51</v>
+        <v>4445.4970000000003</v>
       </c>
       <c r="R51" s="34">
         <f>IFERROR(S51/$B51,0)</f>
-        <v>6.6305790269136718E-4</v>
+        <v>6.7356369623716467E-4</v>
       </c>
       <c r="S51" s="31">
         <f>SUM(S132,S120,S106,S88,S76,S64,S52)</f>
-        <v>647.54499999999996</v>
+        <v>657.80499999999995</v>
       </c>
       <c r="T51" s="38">
         <f>IFERROR(U51/$B51,0)</f>
-        <v>8.6341854016571726E-2</v>
+        <v>9.8110854553124918E-2</v>
       </c>
       <c r="U51" s="33">
         <f>SUM(U132,U120,U106,U88,U76,U64,U52)</f>
-        <v>84321.800000000017</v>
+        <v>95815.453000000009</v>
       </c>
       <c r="V51" s="37">
         <f>IFERROR(W51/$B51,0)</f>
-        <v>5.7003350385622008E-2</v>
+        <v>7.0809284008666762E-2</v>
       </c>
       <c r="W51" s="33">
         <f>SUM(W132,W120,W106,W88,W76,W64,W52)</f>
-        <v>55669.7</v>
+        <v>69152.62999999999</v>
       </c>
       <c r="X51" s="34">
         <f>IFERROR(Y51/$B51,0)</f>
-        <v>1.1119071803924621E-3</v>
+        <v>1.2169651158504369E-3</v>
       </c>
       <c r="Y51" s="31">
         <f>SUM(Y132,Y120,Y106,Y88,Y76,Y64,Y52)</f>
-        <v>1085.893</v>
+        <v>1188.4929999999999</v>
       </c>
       <c r="Z51" s="34">
         <f>IFERROR(AA51/$B51,0)</f>
-        <v>1.0741395693648604E-3</v>
+        <v>1.1208074101682975E-3</v>
       </c>
       <c r="AA51" s="31">
         <f>SUM(AA132,AA120,AA106,AA88,AA76,AA64,AA52)</f>
-        <v>1049.009</v>
+        <v>1094.585</v>
       </c>
       <c r="AB51" s="34">
         <f>IFERROR(AC51/$B51,0)</f>
-        <v>1.5008642192741378E-2</v>
+        <v>1.7109800901900871E-2</v>
       </c>
       <c r="AC51" s="31">
         <f>SUM(AC132,AC120,AC106,AC88,AC76,AC64,AC52)</f>
-        <v>14657.5</v>
+        <v>16709.5</v>
       </c>
       <c r="AD51" s="37">
         <f>IFERROR(AE51/$B51,0)</f>
-        <v>3.1372394542721518E-2</v>
+        <v>3.7229680607492904E-2</v>
       </c>
       <c r="AE51" s="33">
         <f>SUM(AE132,AE120,AE106,AE88,AE76,AE64,AE52)</f>
-        <v>30638.406000000003</v>
+        <v>36358.654999999999</v>
       </c>
       <c r="AF51" s="34">
         <f>IFERROR(AG51/$B51,0)</f>
-        <v>2.3100551502963331E-2</v>
+        <v>2.8362151905992599E-2</v>
       </c>
       <c r="AG51" s="31">
         <f>SUM(AG132,AG120,AG106,AG88,AG76,AG64,AG52)</f>
-        <v>22560.091</v>
+        <v>27698.590999999997</v>
       </c>
       <c r="AH51" s="34">
         <f>IFERROR(AI51/$B51,0)</f>
-        <v>3.0960138397958638E-3</v>
+        <v>3.6921131799583047E-3</v>
       </c>
       <c r="AI51" s="31">
         <f>SUM(AI132,AI120,AI106,AI88,AI76,AI64,AI52)</f>
-        <v>3023.5794999999998</v>
+        <v>3605.7325000000001</v>
       </c>
       <c r="AJ51" s="37">
         <f>IFERROR(AK51/$B51,0)</f>
-        <v>1.4498839857301422E-2</v>
+        <v>1.9624315485089142E-2</v>
       </c>
       <c r="AK51" s="33">
         <f>SUM(AK132,AK120,AK106,AK88,AK76,AK64,AK52)</f>
-        <v>14159.624999999998</v>
+        <v>19165.184999999998</v>
       </c>
       <c r="AL51" s="37">
         <f>IFERROR(AM51/$B51,0)</f>
-        <v>1.4503038078893801E-2</v>
+        <v>1.697606501714103E-2</v>
       </c>
       <c r="AM51" s="33">
         <f>SUM(AM132,AM120,AM106,AM88,AM76,AM64,AM52)</f>
-        <v>14163.725</v>
+        <v>16578.893</v>
       </c>
       <c r="AN51" s="37">
         <f>IFERROR(AO51/$B51,0)</f>
-        <v>7.2536186622213311E-2</v>
+        <v>8.2841032803469994E-2</v>
       </c>
       <c r="AO51" s="33">
         <f>SUM(AO132,AO120,AO106,AO88,AO76,AO64,AO52)</f>
-        <v>70839.13</v>
+        <v>80902.884000000005</v>
       </c>
       <c r="AP51" s="37">
         <f>IFERROR(AQ51/$B51,0)</f>
-        <v>2.4522887475373848E-3</v>
+        <v>4.5849648373342726E-3</v>
       </c>
       <c r="AQ51" s="33">
         <f>SUM(AQ132,AQ120,AQ106,AQ88,AQ76,AQ64,AQ52)</f>
-        <v>2394.915</v>
+        <v>4477.6949999999997</v>
       </c>
       <c r="AR51" s="37">
         <f>IFERROR(AS51/$B51,0)</f>
-        <v>0.4996999193122289</v>
+        <v>0.54703392572629239</v>
       </c>
       <c r="AS51" s="33">
         <f>SUM(AS132,AS120,AS106,AS88,AS76,AS64,AS52)</f>
-        <v>488008.94</v>
+        <v>534235.52</v>
       </c>
       <c r="AT51" s="34">
         <f>IFERROR(AU51/$B51,0)</f>
-        <v>1.3714453350590415E-3</v>
+        <v>1.4765032705170162E-3</v>
       </c>
       <c r="AU51" s="31">
         <f>SUM(AU132,AU120,AU106,AU88,AU76,AU64,AU52)</f>
-        <v>1339.3590000000002</v>
+        <v>1441.9590000000001</v>
       </c>
       <c r="AV51" s="34">
         <f>IFERROR(AW51/$B51,0)</f>
-        <v>4.5632467202673761E-3</v>
+        <v>1.0866722847745864E-2</v>
       </c>
       <c r="AW51" s="31">
         <f>SUM(AW132,AW120,AW106,AW88,AW76,AW64,AW52)</f>
-        <v>4456.4850000000006</v>
+        <v>10612.485000000001</v>
       </c>
       <c r="AX51" s="34">
         <f>IFERROR(AY51/$B51,0)</f>
-        <v>3.7203052619075904E-3</v>
+        <v>4.7708846164873382E-3</v>
       </c>
       <c r="AY51" s="31">
         <f>SUM(AY132,AY120,AY106,AY88,AY76,AY64,AY52)</f>
-        <v>3633.2650000000003</v>
+        <v>4659.2650000000003</v>
       </c>
       <c r="AZ51" s="34">
         <f>IFERROR(BA51/$B51,0)</f>
@@ -12787,35 +12787,35 @@
       </c>
       <c r="BB51" s="34">
         <f>IFERROR(BC51/$B51,0)</f>
-        <v>9.4786013573567203E-3</v>
+        <v>1.1583241518568429E-2</v>
       </c>
       <c r="BC51" s="31">
         <f>SUM(BC132,BC120,BC106,BC88,BC76,BC64,BC52)</f>
-        <v>9256.840000000002</v>
+        <v>11312.240000000002</v>
       </c>
       <c r="BD51" s="34">
         <f>IFERROR(BE51/$B51,0)</f>
-        <v>2.2192567304659822E-3</v>
+        <v>2.8642080106163811E-3</v>
       </c>
       <c r="BE51" s="31">
         <f>SUM(BE132,BE120,BE106,BE88,BE76,BE64,BE52)</f>
-        <v>2167.335</v>
+        <v>2797.1970000000001</v>
       </c>
       <c r="BF51" s="37">
         <f>IFERROR(BG51/$B51,0)</f>
-        <v>1.052480125004608E-2</v>
+        <v>1.2119443500129019E-2</v>
       </c>
       <c r="BG51" s="33">
         <f>SUM(BG132,BG120,BG106,BG88,BG76,BG64,BG52)</f>
-        <v>10278.563000000002</v>
+        <v>11835.897000000001</v>
       </c>
       <c r="BH51" s="34">
         <f>IFERROR(BI51/$B51,0)</f>
-        <v>2.2326859197791533E-4</v>
+        <v>2.7579755970690272E-4</v>
       </c>
       <c r="BI51" s="31">
         <f>SUM(BI132,BI120,BI106,BI88,BI76,BI64,BI52)</f>
-        <v>218.04500000000002</v>
+        <v>269.34500000000003</v>
       </c>
       <c r="BJ51" s="34">
         <f>IFERROR(BK51/$B51,0)</f>
@@ -12827,11 +12827,11 @@
       </c>
       <c r="BL51" s="34">
         <f>IFERROR(BM51/$B51,0)</f>
-        <v>6.5230123980651318E-4</v>
+        <v>6.8381862044390555E-4</v>
       </c>
       <c r="BM51" s="31">
         <f>SUM(BM132,BM120,BM106,BM88,BM76,BM64,BM52)</f>
-        <v>637.04</v>
+        <v>667.81999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:65" ht="16" x14ac:dyDescent="0.2">
@@ -30885,12 +30885,12 @@
         <v>68</v>
       </c>
       <c r="B132" s="3">
-        <f>SUM(B133:B147)</f>
+        <f>SUM(B133:B146)</f>
         <v>397216</v>
       </c>
       <c r="C132" s="44">
         <f>IFERROR(SUM(F132,H132,J132,L132,N132,P132,R132,T132,V132,X132,Z132,AB132,AD132,AF132,AH132,AJ132,AL132,AN132,AP132,AR132,AT132,AV132,AX132,AZ132,BB132,BD132,BF132,BH132,BJ132,BL132),0)</f>
-        <v>0.70086376178200271</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D132" s="30">
         <v>0</v>
@@ -30901,246 +30901,246 @@
       </c>
       <c r="F132" s="34">
         <f>IFERROR(G132/$B132,0)</f>
-        <v>0</v>
+        <v>1.291488761782003E-4</v>
       </c>
       <c r="G132" s="31">
-        <f>SUM(G133:G147)</f>
-        <v>0</v>
+        <f>SUM(G133:G146)</f>
+        <v>51.300000000000004</v>
       </c>
       <c r="H132" s="34">
         <f>IFERROR(I132/$B132,0)</f>
-        <v>0</v>
+        <v>5.8028629259647153E-4</v>
       </c>
       <c r="I132" s="31">
-        <f>SUM(I133:I147)</f>
-        <v>0</v>
+        <f>SUM(I133:I146)</f>
+        <v>230.49900000000002</v>
       </c>
       <c r="J132" s="34">
         <f>IFERROR(K132/$B132,0)</f>
-        <v>0</v>
+        <v>2.587257310883751E-3</v>
       </c>
       <c r="K132" s="31">
-        <f>SUM(K133:K147)</f>
-        <v>0</v>
+        <f>SUM(K133:K146)</f>
+        <v>1027.7</v>
       </c>
       <c r="L132" s="34">
         <f>IFERROR(M132/$B132,0)</f>
-        <v>0</v>
+        <v>1.7119149278981713E-5</v>
       </c>
       <c r="M132" s="31">
-        <f>SUM(M133:M147)</f>
-        <v>0</v>
+        <f>SUM(M133:M146)</f>
+        <v>6.8</v>
       </c>
       <c r="N132" s="37">
         <f>IFERROR(O132/$B132,0)</f>
-        <v>0</v>
+        <v>3.6714910779021993E-3</v>
       </c>
       <c r="O132" s="33">
-        <f>SUM(O133:O147)</f>
-        <v>0</v>
+        <f>SUM(O133:O146)</f>
+        <v>1458.375</v>
       </c>
       <c r="P132" s="37">
         <f>IFERROR(Q132/$B132,0)</f>
-        <v>0</v>
+        <v>4.0247623459276558E-5</v>
       </c>
       <c r="Q132" s="33">
-        <f>SUM(Q133:Q147)</f>
-        <v>0</v>
+        <f>SUM(Q133:Q146)</f>
+        <v>15.986999999999998</v>
       </c>
       <c r="R132" s="34">
         <f>IFERROR(S132/$B132,0)</f>
-        <v>0</v>
+        <v>2.5829775235640056E-5</v>
       </c>
       <c r="S132" s="31">
-        <f>SUM(S133:S147)</f>
-        <v>0</v>
+        <f>SUM(S133:S146)</f>
+        <v>10.26</v>
       </c>
       <c r="T132" s="38">
         <f>IFERROR(U132/$B132,0)</f>
-        <v>9.3114073954724888E-2</v>
+        <v>0.12204959769999195</v>
       </c>
       <c r="U132" s="33">
-        <f>SUM(U133:U147)</f>
-        <v>36986.400000000001</v>
+        <f>SUM(U133:U146)</f>
+        <v>48480.053</v>
       </c>
       <c r="V132" s="37">
         <f>IFERROR(W132/$B132,0)</f>
-        <v>5.1553059292677027E-2</v>
+        <v>8.5496631555627145E-2</v>
       </c>
       <c r="W132" s="33">
-        <f>SUM(W133:W147)</f>
-        <v>20477.699999999997</v>
+        <f>SUM(W133:W146)</f>
+        <v>33960.62999999999</v>
       </c>
       <c r="X132" s="34">
         <f>IFERROR(Y132/$B132,0)</f>
-        <v>0</v>
+        <v>2.5829775235640059E-4</v>
       </c>
       <c r="Y132" s="31">
-        <f>SUM(Y133:Y147)</f>
-        <v>0</v>
+        <f>SUM(Y133:Y146)</f>
+        <v>102.60000000000001</v>
       </c>
       <c r="Z132" s="34">
         <f>IFERROR(AA132/$B132,0)</f>
-        <v>0</v>
+        <v>1.1473858052042214E-4</v>
       </c>
       <c r="AA132" s="31">
-        <f>SUM(AA133:AA147)</f>
-        <v>0</v>
+        <f>SUM(AA133:AA146)</f>
+        <v>45.576000000000001</v>
       </c>
       <c r="AB132" s="34">
         <f>IFERROR(AC132/$B132,0)</f>
-        <v>0</v>
+        <v>5.1659550471280105E-3</v>
       </c>
       <c r="AC132" s="31">
-        <f>SUM(AC133:AC147)</f>
-        <v>0</v>
+        <f>SUM(AC133:AC146)</f>
+        <v>2052</v>
       </c>
       <c r="AD132" s="37">
         <f>IFERROR(AE132/$B132,0)</f>
-        <v>2.0970957866752599E-3</v>
+        <v>1.6497948219608476E-2</v>
       </c>
       <c r="AE132" s="33">
-        <f>SUM(AE133:AE147)</f>
-        <v>833</v>
+        <f>SUM(AE133:AE146)</f>
+        <v>6553.2489999999998</v>
       </c>
       <c r="AF132" s="34">
         <f>IFERROR(AG132/$B132,0)</f>
-        <v>0</v>
+        <v>1.2936286554418754E-2</v>
       </c>
       <c r="AG132" s="31">
-        <f>SUM(AG133:AG147)</f>
-        <v>0</v>
+        <f>SUM(AG133:AG146)</f>
+        <v>5138.5</v>
       </c>
       <c r="AH132" s="34">
         <f>IFERROR(AI132/$B132,0)</f>
-        <v>0</v>
+        <v>1.4655829573833885E-3</v>
       </c>
       <c r="AI132" s="31">
-        <f>SUM(AI133:AI147)</f>
-        <v>0</v>
+        <f>SUM(AI133:AI146)</f>
+        <v>582.15300000000002</v>
       </c>
       <c r="AJ132" s="37">
         <f>IFERROR(AK132/$B132,0)</f>
-        <v>0</v>
+        <v>1.2601607186014661E-2</v>
       </c>
       <c r="AK132" s="33">
-        <f>SUM(AK133:AK147)</f>
-        <v>0</v>
+        <f>SUM(AK133:AK146)</f>
+        <v>5005.5599999999995</v>
       </c>
       <c r="AL132" s="37">
         <f>IFERROR(AM132/$B132,0)</f>
-        <v>0</v>
+        <v>6.0802384596793674E-3</v>
       </c>
       <c r="AM132" s="33">
-        <f>SUM(AM133:AM147)</f>
-        <v>0</v>
+        <f>SUM(AM133:AM146)</f>
+        <v>2415.1679999999997</v>
       </c>
       <c r="AN132" s="37">
         <f>IFERROR(AO132/$B132,0)</f>
-        <v>3.5480443889470713E-2</v>
+        <v>6.0816165511963269E-2</v>
       </c>
       <c r="AO132" s="33">
-        <f>SUM(AO133:AO147)</f>
-        <v>14093.4</v>
+        <f>SUM(AO133:AO146)</f>
+        <v>24157.154000000002</v>
       </c>
       <c r="AP132" s="37">
         <f>IFERROR(AQ132/$B132,0)</f>
-        <v>0</v>
+        <v>5.2434443728349303E-3</v>
       </c>
       <c r="AQ132" s="33">
-        <f>SUM(AQ133:AQ147)</f>
-        <v>0</v>
+        <f>SUM(AQ133:AQ146)</f>
+        <v>2082.7799999999997</v>
       </c>
       <c r="AR132" s="37">
         <f>IFERROR(AS132/$B132,0)</f>
-        <v>0.51861908885845487</v>
+        <v>0.63499551881092398</v>
       </c>
       <c r="AS132" s="33">
-        <f>SUM(AS133:AS147)</f>
-        <v>206003.8</v>
+        <f>SUM(AS133:AS146)</f>
+        <v>252230.37999999998</v>
       </c>
       <c r="AT132" s="34">
         <f>IFERROR(AU132/$B132,0)</f>
-        <v>0</v>
+        <v>2.5829775235640059E-4</v>
       </c>
       <c r="AU132" s="31">
-        <f>SUM(AU133:AU147)</f>
-        <v>0</v>
+        <f>SUM(AU133:AU146)</f>
+        <v>102.60000000000001</v>
       </c>
       <c r="AV132" s="34">
         <f>IFERROR(AW132/$B132,0)</f>
-        <v>0</v>
+        <v>1.5497865141384033E-2</v>
       </c>
       <c r="AW132" s="31">
-        <f>SUM(AW133:AW147)</f>
-        <v>0</v>
+        <f>SUM(AW133:AW146)</f>
+        <v>6156</v>
       </c>
       <c r="AX132" s="34">
         <f>IFERROR(AY132/$B132,0)</f>
-        <v>0</v>
+        <v>2.5829775235640053E-3</v>
       </c>
       <c r="AY132" s="31">
-        <f>SUM(AY133:AY147)</f>
-        <v>0</v>
+        <f>SUM(AY133:AY146)</f>
+        <v>1026</v>
       </c>
       <c r="AZ132" s="34">
         <f>IFERROR(BA132/$B132,0)</f>
         <v>0</v>
       </c>
       <c r="BA132" s="31">
-        <f>SUM(BA133:BA147)</f>
+        <f>SUM(BA133:BA146)</f>
         <v>0</v>
       </c>
       <c r="BB132" s="34">
         <f>IFERROR(BC132/$B132,0)</f>
-        <v>0</v>
+        <v>5.1745146217675019E-3</v>
       </c>
       <c r="BC132" s="31">
-        <f>SUM(BC133:BC147)</f>
-        <v>0</v>
+        <f>SUM(BC133:BC146)</f>
+        <v>2055.4</v>
       </c>
       <c r="BD132" s="34">
         <f>IFERROR(BE132/$B132,0)</f>
-        <v>0</v>
+        <v>1.5856914122291145E-3</v>
       </c>
       <c r="BE132" s="31">
-        <f>SUM(BE133:BE147)</f>
-        <v>0</v>
+        <f>SUM(BE133:BE146)</f>
+        <v>629.86199999999997</v>
       </c>
       <c r="BF132" s="37">
         <f>IFERROR(BG132/$B132,0)</f>
-        <v>0</v>
+        <v>3.9206225328284865E-3</v>
       </c>
       <c r="BG132" s="33">
-        <f>SUM(BG133:BG147)</f>
-        <v>0</v>
+        <f>SUM(BG133:BG146)</f>
+        <v>1557.3340000000001</v>
       </c>
       <c r="BH132" s="34">
         <f>IFERROR(BI132/$B132,0)</f>
-        <v>0</v>
+        <v>1.291488761782003E-4</v>
       </c>
       <c r="BI132" s="31">
-        <f>SUM(BI133:BI147)</f>
-        <v>0</v>
+        <f>SUM(BI133:BI146)</f>
+        <v>51.300000000000004</v>
       </c>
       <c r="BJ132" s="34">
         <f>IFERROR(BK132/$B132,0)</f>
         <v>0</v>
       </c>
       <c r="BK132" s="31">
-        <f>SUM(BK133:BK147)</f>
+        <f>SUM(BK133:BK146)</f>
         <v>0</v>
       </c>
       <c r="BL132" s="34">
         <f>IFERROR(BM132/$B132,0)</f>
-        <v>0</v>
+        <v>7.7489325706920164E-5</v>
       </c>
       <c r="BM132" s="31">
-        <f>SUM(BM133:BM147)</f>
-        <v>0</v>
+        <f>SUM(BM133:BM146)</f>
+        <v>30.78</v>
       </c>
     </row>
-    <row r="133" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>118</v>
       </c>
@@ -31149,7 +31149,7 @@
       </c>
       <c r="C133" s="44">
         <f>SUM(F133,H133,J133,L133,N133,P133,R133,T133,V133,X133,Z133,AB133,AD133,AF133,AH133,AJ133,AL133,AN133,AP133,AR133,AT133,AV133,AX133,AZ133,BB133,BD133,BF133,BH133,BJ133,BL133)</f>
-        <v>0.94</v>
+        <v>1</v>
       </c>
       <c r="D133" s="21"/>
       <c r="E133" s="22"/>
@@ -31157,92 +31157,92 @@
         <v>0</v>
       </c>
       <c r="G133" s="31">
-        <f t="shared" ref="G133:G147" si="736">$B133*F133</f>
+        <f t="shared" ref="G133:G146" si="736">$B133*F133</f>
         <v>0</v>
       </c>
       <c r="H133" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I133" s="31">
-        <f t="shared" ref="I133:I147" si="737">$B133*H133</f>
-        <v>0</v>
+        <f t="shared" ref="I133:I146" si="737">$B133*H133</f>
+        <v>3.85</v>
       </c>
       <c r="J133" s="35">
         <v>0</v>
       </c>
       <c r="K133" s="31">
-        <f t="shared" ref="K133:K147" si="738">$B133*J133</f>
+        <f t="shared" ref="K133:K146" si="738">$B133*J133</f>
         <v>0</v>
       </c>
       <c r="L133" s="35">
         <v>0</v>
       </c>
       <c r="M133" s="31">
-        <f t="shared" ref="M133:M147" si="739">$B133*L133</f>
+        <f t="shared" ref="M133:M146" si="739">$B133*L133</f>
         <v>0</v>
       </c>
       <c r="N133" s="35">
-        <v>0</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="O133" s="33">
-        <f t="shared" ref="O133:O147" si="740">$B133*N133</f>
-        <v>0</v>
+        <f t="shared" ref="O133:O146" si="740">$B133*N133</f>
+        <v>13.475</v>
       </c>
       <c r="P133" s="35">
         <v>0</v>
       </c>
       <c r="Q133" s="33">
-        <f t="shared" ref="Q133:Q147" si="741">$B133*P133</f>
+        <f t="shared" ref="Q133:Q146" si="741">$B133*P133</f>
         <v>0</v>
       </c>
       <c r="R133" s="35">
         <v>0</v>
       </c>
       <c r="S133" s="31">
-        <f t="shared" ref="S133:S147" si="742">$B133*R133</f>
+        <f t="shared" ref="S133:S146" si="742">$B133*R133</f>
         <v>0</v>
       </c>
       <c r="T133" s="39">
         <v>0.12</v>
       </c>
       <c r="U133" s="33">
-        <f t="shared" ref="U133:U147" si="743">$B133*T133</f>
+        <f t="shared" ref="U133:U146" si="743">$B133*T133</f>
         <v>462</v>
       </c>
       <c r="V133" s="35">
         <v>0.11</v>
       </c>
       <c r="W133" s="33">
-        <f t="shared" ref="W133:W147" si="744">$B133*V133</f>
+        <f t="shared" ref="W133:W146" si="744">$B133*V133</f>
         <v>423.5</v>
       </c>
       <c r="X133" s="35">
         <v>0</v>
       </c>
       <c r="Y133" s="31">
-        <f t="shared" ref="Y133:Y147" si="745">$B133*X133</f>
+        <f t="shared" ref="Y133:Y146" si="745">$B133*X133</f>
         <v>0</v>
       </c>
       <c r="Z133" s="35">
         <v>0</v>
       </c>
       <c r="AA133" s="31">
-        <f t="shared" ref="AA133:AA147" si="746">$B133*Z133</f>
+        <f t="shared" ref="AA133:AA146" si="746">$B133*Z133</f>
         <v>0</v>
       </c>
       <c r="AB133" s="35">
         <v>0</v>
       </c>
       <c r="AC133" s="31">
-        <f t="shared" ref="AC133:AC147" si="747">$B133*AB133</f>
+        <f t="shared" ref="AC133:AC146" si="747">$B133*AB133</f>
         <v>0</v>
       </c>
       <c r="AD133" s="35">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AE133" s="33">
-        <f t="shared" ref="AE133:AE147" si="748">$B133*AD133</f>
-        <v>0</v>
+        <f t="shared" ref="AE133:AE146" si="748">$B133*AD133</f>
+        <v>46.2</v>
       </c>
       <c r="AF133" s="35">
         <v>0</v>
@@ -31252,45 +31252,45 @@
         <v>0</v>
       </c>
       <c r="AH133" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AI133" s="31">
         <f>$B133*AH133</f>
-        <v>0</v>
+        <v>1.925</v>
       </c>
       <c r="AJ133" s="35">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AK133" s="33">
-        <f t="shared" ref="AK133:AK147" si="749">$B133*AJ133</f>
-        <v>0</v>
+        <f t="shared" ref="AK133:AK146" si="749">$B133*AJ133</f>
+        <v>42.349999999999994</v>
       </c>
       <c r="AL133" s="35">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM133" s="33">
-        <f t="shared" ref="AM133:AM147" si="750">$B133*AL133</f>
-        <v>0</v>
+        <f t="shared" ref="AM133:AM146" si="750">$B133*AL133</f>
+        <v>23.1</v>
       </c>
       <c r="AN133" s="35">
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
       <c r="AO133" s="33">
-        <f t="shared" ref="AO133:AO147" si="751">$B133*AN133</f>
-        <v>0</v>
+        <f t="shared" ref="AO133:AO146" si="751">$B133*AN133</f>
+        <v>92.4</v>
       </c>
       <c r="AP133" s="35">
         <v>0</v>
       </c>
       <c r="AQ133" s="33">
-        <f t="shared" ref="AQ133:AQ147" si="752">$B133*AP133</f>
+        <f t="shared" ref="AQ133:AQ146" si="752">$B133*AP133</f>
         <v>0</v>
       </c>
       <c r="AR133" s="35">
         <v>0.71</v>
       </c>
       <c r="AS133" s="33">
-        <f t="shared" ref="AS133:AS147" si="753">$B133*AR133</f>
+        <f t="shared" ref="AS133:AS146" si="753">$B133*AR133</f>
         <v>2733.5</v>
       </c>
       <c r="AT133" s="35">
@@ -31336,11 +31336,11 @@
         <v>0</v>
       </c>
       <c r="BF133" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="BG133" s="33">
-        <f t="shared" ref="BG133:BG147" si="754">$B133*BF133</f>
-        <v>0</v>
+        <f t="shared" ref="BG133:BG146" si="754">$B133*BF133</f>
+        <v>7.7</v>
       </c>
       <c r="BH133" s="35">
         <v>0</v>
@@ -31364,7 +31364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>119</v>
       </c>
@@ -31372,8 +31372,8 @@
         <v>19090</v>
       </c>
       <c r="C134" s="44">
-        <f t="shared" ref="C134:C147" si="755">SUM(F134,H134,J134,L134,N134,P134,R134,T134,V134,X134,Z134,AB134,AD134,AF134,AH134,AJ134,AL134,AN134,AP134,AR134,AT134,AV134,AX134,AZ134,BB134,BD134,BF134,BH134,BJ134,BL134)</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" ref="C134:C146" si="755">SUM(F134,H134,J134,L134,N134,P134,R134,T134,V134,X134,Z134,AB134,AD134,AF134,AH134,AJ134,AL134,AN134,AP134,AR134,AT134,AV134,AX134,AZ134,BB134,BD134,BF134,BH134,BJ134,BL134)</f>
+        <v>1</v>
       </c>
       <c r="D134" s="23"/>
       <c r="E134" s="24"/>
@@ -31385,11 +31385,11 @@
         <v>0</v>
       </c>
       <c r="H134" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="I134" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>9.5449999999999999</v>
       </c>
       <c r="J134" s="35">
         <v>0</v>
@@ -31406,18 +31406,18 @@
         <v>0</v>
       </c>
       <c r="N134" s="35">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O134" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>5.7269999999999994</v>
       </c>
       <c r="P134" s="35">
-        <v>0</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="Q134" s="33">
         <f t="shared" si="741"/>
-        <v>0</v>
+        <v>5.7269999999999994</v>
       </c>
       <c r="R134" s="35">
         <v>0</v>
@@ -31427,11 +31427,11 @@
         <v>0</v>
       </c>
       <c r="T134" s="39">
-        <v>0</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="U134" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>204.26299999999998</v>
       </c>
       <c r="V134" s="35">
         <v>0.83</v>
@@ -31448,11 +31448,11 @@
         <v>0</v>
       </c>
       <c r="Z134" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="AA134" s="31">
         <f t="shared" si="746"/>
-        <v>0</v>
+        <v>1.909</v>
       </c>
       <c r="AB134" s="35">
         <v>0</v>
@@ -31462,46 +31462,46 @@
         <v>0</v>
       </c>
       <c r="AD134" s="35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AE134" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>572.69999999999993</v>
       </c>
       <c r="AF134" s="35">
         <v>0</v>
       </c>
       <c r="AG134" s="31">
-        <f t="shared" ref="AG134:AG147" si="756">$B134*AF134</f>
+        <f t="shared" ref="AG134:AG146" si="756">$B134*AF134</f>
         <v>0</v>
       </c>
       <c r="AH134" s="35">
         <v>0</v>
       </c>
       <c r="AI134" s="31">
-        <f t="shared" ref="AI134:AI147" si="757">$B134*AH134</f>
+        <f t="shared" ref="AI134:AI146" si="757">$B134*AH134</f>
         <v>0</v>
       </c>
       <c r="AJ134" s="35">
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AK134" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>839.95999999999992</v>
       </c>
       <c r="AL134" s="35">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AM134" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>3.8180000000000001</v>
       </c>
       <c r="AN134" s="35">
-        <v>0</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="AO134" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>206.172</v>
       </c>
       <c r="AP134" s="35">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>0</v>
       </c>
       <c r="AU134" s="31">
-        <f t="shared" ref="AU134:AU147" si="758">$B134*AT134</f>
+        <f t="shared" ref="AU134:AU146" si="758">$B134*AT134</f>
         <v>0</v>
       </c>
       <c r="AV134" s="35">
         <v>0</v>
       </c>
       <c r="AW134" s="31">
-        <f t="shared" ref="AW134:AW147" si="759">$B134*AV134</f>
+        <f t="shared" ref="AW134:AW146" si="759">$B134*AV134</f>
         <v>0</v>
       </c>
       <c r="AX134" s="35">
         <v>0</v>
       </c>
       <c r="AY134" s="31">
-        <f t="shared" ref="AY134:AY147" si="760">$B134*AX134</f>
+        <f t="shared" ref="AY134:AY146" si="760">$B134*AX134</f>
         <v>0</v>
       </c>
       <c r="AZ134" s="35">
         <v>0</v>
       </c>
       <c r="BA134" s="31">
-        <f t="shared" ref="BA134:BC147" si="761">$B134*AZ134</f>
+        <f t="shared" ref="BA134:BC146" si="761">$B134*AZ134</f>
         <v>0</v>
       </c>
       <c r="BB134" s="35">
@@ -31553,42 +31553,42 @@
         <v>0</v>
       </c>
       <c r="BD134" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="BE134" s="31">
         <f t="shared" ref="BE134" si="762">$B134*BD134</f>
-        <v>0</v>
+        <v>1.909</v>
       </c>
       <c r="BF134" s="35">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BG134" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>57.27</v>
       </c>
       <c r="BH134" s="35">
         <v>0</v>
       </c>
       <c r="BI134" s="31">
-        <f t="shared" ref="BI134:BI147" si="763">$B134*BH134</f>
+        <f t="shared" ref="BI134:BI146" si="763">$B134*BH134</f>
         <v>0</v>
       </c>
       <c r="BJ134" s="35">
         <v>0</v>
       </c>
       <c r="BK134" s="31">
-        <f t="shared" ref="BK134:BK147" si="764">$B134*BJ134</f>
+        <f t="shared" ref="BK134:BK146" si="764">$B134*BJ134</f>
         <v>0</v>
       </c>
       <c r="BL134" s="35">
         <v>0</v>
       </c>
       <c r="BM134" s="31">
-        <f t="shared" ref="BM134:BM147" si="765">$B134*BL134</f>
+        <f t="shared" ref="BM134:BM146" si="765">$B134*BL134</f>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>120</v>
       </c>
@@ -31597,7 +31597,7 @@
       </c>
       <c r="C135" s="44">
         <f t="shared" si="755"/>
-        <v>0.92999999999999994</v>
+        <v>1</v>
       </c>
       <c r="D135" s="23"/>
       <c r="E135" s="24"/>
@@ -31609,11 +31609,11 @@
         <v>0</v>
       </c>
       <c r="H135" s="35">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I135" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>2.4220000000000002</v>
       </c>
       <c r="J135" s="35">
         <v>0</v>
@@ -31630,11 +31630,11 @@
         <v>0</v>
       </c>
       <c r="N135" s="35">
-        <v>0</v>
+        <v>1.09E-2</v>
       </c>
       <c r="O135" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>131.999</v>
       </c>
       <c r="P135" s="35">
         <v>0</v>
@@ -31686,11 +31686,11 @@
         <v>0</v>
       </c>
       <c r="AD135" s="35">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AE135" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>181.65</v>
       </c>
       <c r="AF135" s="35">
         <v>0</v>
@@ -31700,32 +31700,32 @@
         <v>0</v>
       </c>
       <c r="AH135" s="35">
-        <v>0</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AI135" s="31">
         <f t="shared" si="757"/>
-        <v>0</v>
+        <v>9.6880000000000006</v>
       </c>
       <c r="AJ135" s="35">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AK135" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>169.54</v>
       </c>
       <c r="AL135" s="35">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AM135" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>84.77</v>
       </c>
       <c r="AN135" s="35">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AO135" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>169.54</v>
       </c>
       <c r="AP135" s="35">
         <v>0</v>
@@ -31777,18 +31777,18 @@
         <v>0</v>
       </c>
       <c r="BD135" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="BE135" s="31">
         <f t="shared" ref="BE135" si="766">$B135*BD135</f>
-        <v>0</v>
+        <v>1.2110000000000001</v>
       </c>
       <c r="BF135" s="35">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BG135" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>96.88</v>
       </c>
       <c r="BH135" s="35">
         <v>0</v>
@@ -31812,7 +31812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>121</v>
       </c>
@@ -31821,7 +31821,7 @@
       </c>
       <c r="C136" s="44">
         <f t="shared" si="755"/>
-        <v>0.92999999999999994</v>
+        <v>1</v>
       </c>
       <c r="D136" s="23"/>
       <c r="E136" s="24"/>
@@ -31833,11 +31833,11 @@
         <v>0</v>
       </c>
       <c r="H136" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="I136" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="J136" s="35">
         <v>0</v>
@@ -31854,11 +31854,11 @@
         <v>0</v>
       </c>
       <c r="N136" s="35">
-        <v>0</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="O136" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>28.504000000000001</v>
       </c>
       <c r="P136" s="35">
         <v>0</v>
@@ -31896,11 +31896,11 @@
         <v>0</v>
       </c>
       <c r="Z136" s="35">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AA136" s="31">
         <f t="shared" si="746"/>
-        <v>0</v>
+        <v>1.018</v>
       </c>
       <c r="AB136" s="35">
         <v>0</v>
@@ -31910,11 +31910,11 @@
         <v>0</v>
       </c>
       <c r="AD136" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE136" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>50.9</v>
       </c>
       <c r="AF136" s="35">
         <v>0</v>
@@ -31924,32 +31924,32 @@
         <v>0</v>
       </c>
       <c r="AH136" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AI136" s="31">
         <f t="shared" si="757"/>
-        <v>0</v>
+        <v>25.45</v>
       </c>
       <c r="AJ136" s="35">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AK136" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="AL136" s="35">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="AM136" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>61.08</v>
       </c>
       <c r="AN136" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AO136" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>101.8</v>
       </c>
       <c r="AP136" s="35">
         <v>0</v>
@@ -32001,18 +32001,18 @@
         <v>0</v>
       </c>
       <c r="BD136" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="BE136" s="31">
         <f t="shared" ref="BE136" si="767">$B136*BD136</f>
-        <v>0</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="BF136" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="BG136" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>10.18</v>
       </c>
       <c r="BH136" s="35">
         <v>0</v>
@@ -32036,7 +32036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>122</v>
       </c>
@@ -32045,7 +32045,7 @@
       </c>
       <c r="C137" s="44">
         <f t="shared" si="755"/>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D137" s="23"/>
       <c r="E137" s="24"/>
@@ -32057,11 +32057,11 @@
         <v>0</v>
       </c>
       <c r="H137" s="35">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I137" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>3.0540000000000003</v>
       </c>
       <c r="J137" s="35">
         <v>0</v>
@@ -32078,11 +32078,11 @@
         <v>0</v>
       </c>
       <c r="N137" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O137" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>76.350000000000009</v>
       </c>
       <c r="P137" s="35">
         <v>0</v>
@@ -32134,11 +32134,11 @@
         <v>0</v>
       </c>
       <c r="AD137" s="35">
-        <v>0</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="AE137" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>163.38899999999998</v>
       </c>
       <c r="AF137" s="35">
         <v>0</v>
@@ -32148,32 +32148,32 @@
         <v>0</v>
       </c>
       <c r="AH137" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AI137" s="31">
         <f t="shared" si="757"/>
-        <v>0</v>
+        <v>15.27</v>
       </c>
       <c r="AJ137" s="35">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AK137" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>167.97</v>
       </c>
       <c r="AL137" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM137" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>152.70000000000002</v>
       </c>
       <c r="AN137" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO137" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>152.70000000000002</v>
       </c>
       <c r="AP137" s="35">
         <v>0</v>
@@ -32225,18 +32225,18 @@
         <v>0</v>
       </c>
       <c r="BD137" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="BE137" s="31">
         <f t="shared" ref="BE137" si="768">$B137*BD137</f>
-        <v>0</v>
+        <v>1.5270000000000001</v>
       </c>
       <c r="BF137" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="BG137" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>30.54</v>
       </c>
       <c r="BH137" s="35">
         <v>0</v>
@@ -32260,7 +32260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>123</v>
       </c>
@@ -32269,7 +32269,7 @@
       </c>
       <c r="C138" s="44">
         <f t="shared" si="755"/>
-        <v>0.92999999999999994</v>
+        <v>1</v>
       </c>
       <c r="D138" s="23"/>
       <c r="E138" s="24"/>
@@ -32281,11 +32281,11 @@
         <v>0</v>
       </c>
       <c r="H138" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="I138" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="J138" s="35">
         <v>0</v>
@@ -32302,11 +32302,11 @@
         <v>0</v>
       </c>
       <c r="N138" s="35">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="O138" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>12.545999999999999</v>
       </c>
       <c r="P138" s="35">
         <v>0</v>
@@ -32358,11 +32358,11 @@
         <v>0</v>
       </c>
       <c r="AD138" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AE138" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>139.4</v>
       </c>
       <c r="AF138" s="35">
         <v>0</v>
@@ -32379,25 +32379,25 @@
         <v>0</v>
       </c>
       <c r="AJ138" s="35">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AK138" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>174.25</v>
       </c>
       <c r="AL138" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM138" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>34.85</v>
       </c>
       <c r="AN138" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AO138" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>69.7</v>
       </c>
       <c r="AP138" s="35">
         <v>0</v>
@@ -32449,18 +32449,18 @@
         <v>0</v>
       </c>
       <c r="BD138" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="BE138" s="31">
         <f t="shared" ref="BE138" si="769">$B138*BD138</f>
-        <v>0</v>
+        <v>0.69700000000000006</v>
       </c>
       <c r="BF138" s="35">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="BG138" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>55.76</v>
       </c>
       <c r="BH138" s="35">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>124</v>
       </c>
@@ -32493,7 +32493,7 @@
       </c>
       <c r="C139" s="44">
         <f t="shared" si="755"/>
-        <v>0.95000000000000007</v>
+        <v>1</v>
       </c>
       <c r="D139" s="23"/>
       <c r="E139" s="24"/>
@@ -32505,11 +32505,11 @@
         <v>0</v>
       </c>
       <c r="H139" s="35">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I139" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>3.218</v>
       </c>
       <c r="J139" s="35">
         <v>0</v>
@@ -32526,11 +32526,11 @@
         <v>0</v>
       </c>
       <c r="N139" s="35">
-        <v>0</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="O139" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>9.6539999999999999</v>
       </c>
       <c r="P139" s="35">
         <v>0</v>
@@ -32554,11 +32554,11 @@
         <v>13032.900000000001</v>
       </c>
       <c r="V139" s="35">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W139" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>241.35</v>
       </c>
       <c r="X139" s="35">
         <v>0</v>
@@ -32568,11 +32568,11 @@
         <v>0</v>
       </c>
       <c r="Z139" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="AA139" s="31">
         <f t="shared" si="746"/>
-        <v>0</v>
+        <v>1.609</v>
       </c>
       <c r="AB139" s="35">
         <v>0</v>
@@ -32582,11 +32582,11 @@
         <v>0</v>
       </c>
       <c r="AD139" s="35">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AE139" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>402.25</v>
       </c>
       <c r="AF139" s="35">
         <v>0</v>
@@ -32603,18 +32603,18 @@
         <v>0</v>
       </c>
       <c r="AJ139" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AK139" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>80.45</v>
       </c>
       <c r="AL139" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AM139" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>16.09</v>
       </c>
       <c r="AN139" s="35">
         <v>0.06</v>
@@ -32673,18 +32673,18 @@
         <v>0</v>
       </c>
       <c r="BD139" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="BE139" s="31">
         <f t="shared" ref="BE139" si="770">$B139*BD139</f>
-        <v>0</v>
+        <v>1.609</v>
       </c>
       <c r="BF139" s="35">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BG139" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>48.27</v>
       </c>
       <c r="BH139" s="35">
         <v>0</v>
@@ -32708,7 +32708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>125</v>
       </c>
@@ -32717,7 +32717,7 @@
       </c>
       <c r="C140" s="44">
         <f t="shared" si="755"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" s="23"/>
       <c r="E140" s="24"/>
@@ -32771,18 +32771,18 @@
         <v>0</v>
       </c>
       <c r="T140" s="39">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U140" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V140" s="35">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="W140" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X140" s="35">
         <v>0</v>
@@ -32827,11 +32827,11 @@
         <v>0</v>
       </c>
       <c r="AJ140" s="35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AK140" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AL140" s="35">
         <v>0</v>
@@ -32855,11 +32855,11 @@
         <v>0</v>
       </c>
       <c r="AR140" s="35">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="AS140" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>28.7</v>
       </c>
       <c r="AT140" s="35">
         <v>0</v>
@@ -32932,7 +32932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>126</v>
       </c>
@@ -32941,7 +32941,7 @@
       </c>
       <c r="C141" s="44">
         <f t="shared" si="755"/>
-        <v>0.95000000000000007</v>
+        <v>1</v>
       </c>
       <c r="D141" s="23"/>
       <c r="E141" s="24"/>
@@ -32953,11 +32953,11 @@
         <v>0</v>
       </c>
       <c r="H141" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="I141" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="J141" s="35">
         <v>0</v>
@@ -32974,11 +32974,11 @@
         <v>0</v>
       </c>
       <c r="N141" s="35">
-        <v>0</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="O141" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>595.07999999999993</v>
       </c>
       <c r="P141" s="35">
         <v>0</v>
@@ -33002,11 +33002,11 @@
         <v>16416</v>
       </c>
       <c r="V141" s="35">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
       <c r="W141" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>3898.7999999999997</v>
       </c>
       <c r="X141" s="35">
         <v>0</v>
@@ -33030,11 +33030,11 @@
         <v>0</v>
       </c>
       <c r="AD141" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AE141" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="AF141" s="35">
         <v>0</v>
@@ -33044,25 +33044,25 @@
         <v>0</v>
       </c>
       <c r="AH141" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AI141" s="31">
         <f t="shared" si="757"/>
-        <v>0</v>
+        <v>205.20000000000002</v>
       </c>
       <c r="AJ141" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AK141" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="AL141" s="35">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AM141" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>615.6</v>
       </c>
       <c r="AN141" s="35">
         <v>0.06</v>
@@ -33121,18 +33121,18 @@
         <v>0</v>
       </c>
       <c r="BD141" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BE141" s="31">
         <f t="shared" ref="BE141:BE143" si="772">$B141*BD141</f>
-        <v>0</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="BF141" s="35">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="BG141" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>615.6</v>
       </c>
       <c r="BH141" s="35">
         <v>0</v>
@@ -33149,14 +33149,14 @@
         <v>0</v>
       </c>
       <c r="BL141" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="BM141" s="31">
         <f t="shared" si="765"/>
-        <v>0</v>
+        <v>20.52</v>
       </c>
     </row>
-    <row r="142" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>127</v>
       </c>
@@ -33165,7 +33165,7 @@
       </c>
       <c r="C142" s="44">
         <f t="shared" ref="C142:C143" si="773">SUM(F142,H142,J142,L142,N142,P142,R142,T142,V142,X142,Z142,AB142,AD142,AF142,AH142,AJ142,AL142,AN142,AP142,AR142,AT142,AV142,AX142,AZ142,BB142,BD142,BF142,BH142,BJ142,BL142)</f>
-        <v>0.95</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D142" s="23"/>
       <c r="E142" s="24"/>
@@ -33177,11 +33177,11 @@
         <v>0</v>
       </c>
       <c r="H142" s="35">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I142" s="31">
         <f t="shared" ref="I142:I143" si="775">$B142*H142</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="J142" s="35">
         <v>0</v>
@@ -33198,11 +33198,11 @@
         <v>0</v>
       </c>
       <c r="N142" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O142" s="33">
         <f t="shared" ref="O142:O143" si="778">$B142*N142</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="P142" s="35">
         <v>0</v>
@@ -33226,11 +33226,11 @@
         <v>816</v>
       </c>
       <c r="V142" s="35">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W142" s="33">
         <f t="shared" ref="W142:W143" si="782">$B142*V142</f>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="X142" s="35">
         <v>0</v>
@@ -33254,11 +33254,11 @@
         <v>0</v>
       </c>
       <c r="AD142" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE142" s="33">
         <f t="shared" ref="AE142:AE143" si="786">$B142*AD142</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF142" s="35">
         <v>0</v>
@@ -33268,25 +33268,25 @@
         <v>0</v>
       </c>
       <c r="AH142" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="AI142" s="31">
         <f t="shared" ref="AI142:AI143" si="788">$B142*AH142</f>
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="AJ142" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AK142" s="33">
         <f t="shared" ref="AK142:AK143" si="789">$B142*AJ142</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL142" s="35">
-        <v>0</v>
+        <v>1.03E-2</v>
       </c>
       <c r="AM142" s="33">
         <f t="shared" ref="AM142:AM143" si="790">$B142*AL142</f>
-        <v>0</v>
+        <v>70.040000000000006</v>
       </c>
       <c r="AN142" s="35">
         <v>0.12</v>
@@ -33338,25 +33338,25 @@
         <v>0</v>
       </c>
       <c r="BB142" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BC142" s="31">
         <f t="shared" ref="BC142:BC143" si="798">$B142*BB142</f>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BD142" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BE142" s="31">
         <f t="shared" si="772"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BF142" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="BG142" s="33">
         <f t="shared" ref="BG142:BG143" si="799">$B142*BF142</f>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="BH142" s="35">
         <v>0</v>
@@ -33380,7 +33380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>128</v>
       </c>
@@ -33389,7 +33389,7 @@
       </c>
       <c r="C143" s="44">
         <f t="shared" si="773"/>
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D143" s="23"/>
       <c r="E143" s="24"/>
@@ -33408,18 +33408,18 @@
         <v>0</v>
       </c>
       <c r="J143" s="35">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="K143" s="31">
         <f t="shared" si="776"/>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="L143" s="35">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M143" s="31">
         <f t="shared" si="777"/>
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="N143" s="35">
         <v>0</v>
@@ -33485,11 +33485,11 @@
         <v>833</v>
       </c>
       <c r="AF143" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AG143" s="31">
         <f t="shared" si="787"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AH143" s="35">
         <v>0</v>
@@ -33604,7 +33604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>129</v>
       </c>
@@ -33613,7 +33613,7 @@
       </c>
       <c r="C144" s="44">
         <f t="shared" ref="C144" si="803">SUM(F144,H144,J144,L144,N144,P144,R144,T144,V144,X144,Z144,AB144,AD144,AF144,AH144,AJ144,AL144,AN144,AP144,AR144,AT144,AV144,AX144,AZ144,BB144,BD144,BF144,BH144,BJ144,BL144)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" s="23"/>
       <c r="E144" s="24"/>
@@ -33646,11 +33646,11 @@
         <v>0</v>
       </c>
       <c r="N144" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="O144" s="33">
         <f t="shared" ref="O144" si="808">$B144*N144</f>
-        <v>0</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="P144" s="35">
         <v>0</v>
@@ -33667,18 +33667,18 @@
         <v>0</v>
       </c>
       <c r="T144" s="39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="U144" s="33">
         <f t="shared" ref="U144" si="811">$B144*T144</f>
-        <v>0</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="V144" s="35">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="W144" s="33">
         <f t="shared" ref="W144" si="812">$B144*V144</f>
-        <v>0</v>
+        <v>3.2800000000000002</v>
       </c>
       <c r="X144" s="35">
         <v>0</v>
@@ -33723,11 +33723,11 @@
         <v>0</v>
       </c>
       <c r="AJ144" s="35">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AK144" s="33">
         <f t="shared" ref="AK144" si="819">$B144*AJ144</f>
-        <v>0</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="AL144" s="35">
         <v>0</v>
@@ -33737,11 +33737,11 @@
         <v>0</v>
       </c>
       <c r="AN144" s="35">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="AO144" s="33">
         <f t="shared" ref="AO144" si="821">$B144*AN144</f>
-        <v>0</v>
+        <v>4.92</v>
       </c>
       <c r="AP144" s="35">
         <v>0</v>
@@ -33751,11 +33751,11 @@
         <v>0</v>
       </c>
       <c r="AR144" s="35">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="AS144" s="33">
         <f t="shared" ref="AS144" si="823">$B144*AR144</f>
-        <v>0</v>
+        <v>27.880000000000003</v>
       </c>
       <c r="AT144" s="35">
         <v>0</v>
@@ -33800,11 +33800,11 @@
         <v>0</v>
       </c>
       <c r="BF144" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BG144" s="33">
         <f t="shared" ref="BG144" si="829">$B144*BF144</f>
-        <v>0</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="BH144" s="35">
         <v>0</v>
@@ -33828,7 +33828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>130</v>
       </c>
@@ -33837,7 +33837,7 @@
       </c>
       <c r="C145" s="44">
         <f t="shared" si="755"/>
-        <v>0.96000000000000008</v>
+        <v>1</v>
       </c>
       <c r="D145" s="23"/>
       <c r="E145" s="24"/>
@@ -33849,11 +33849,11 @@
         <v>0</v>
       </c>
       <c r="H145" s="35">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="I145" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="J145" s="35">
         <v>0</v>
@@ -33870,11 +33870,11 @@
         <v>0</v>
       </c>
       <c r="N145" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="O145" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="P145" s="35">
         <v>0</v>
@@ -33926,11 +33926,11 @@
         <v>0</v>
       </c>
       <c r="AD145" s="35">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AE145" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>25.76</v>
       </c>
       <c r="AF145" s="35">
         <v>0</v>
@@ -33940,32 +33940,32 @@
         <v>0</v>
       </c>
       <c r="AH145" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AI145" s="31">
         <f t="shared" si="757"/>
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="AJ145" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AK145" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="AL145" s="35">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AM145" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>19.32</v>
       </c>
       <c r="AN145" s="35">
-        <v>0</v>
+        <v>1.01E-2</v>
       </c>
       <c r="AO145" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>32.521999999999998</v>
       </c>
       <c r="AP145" s="35">
         <v>0</v>
@@ -34024,11 +34024,11 @@
         <v>0</v>
       </c>
       <c r="BF145" s="35">
-        <v>0</v>
+        <v>3.7000000000000002E-3</v>
       </c>
       <c r="BG145" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>11.914</v>
       </c>
       <c r="BH145" s="35">
         <v>0</v>
@@ -34052,7 +34052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>131</v>
       </c>
@@ -34061,30 +34061,30 @@
       </c>
       <c r="C146" s="44">
         <f t="shared" si="755"/>
-        <v>0</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D146" s="23"/>
       <c r="E146" s="24"/>
       <c r="F146" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="G146" s="31">
         <f t="shared" si="736"/>
-        <v>0</v>
+        <v>51.300000000000004</v>
       </c>
       <c r="H146" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="I146" s="31">
         <f t="shared" si="737"/>
-        <v>0</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="J146" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K146" s="31">
         <f t="shared" si="738"/>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="L146" s="35">
         <v>0</v>
@@ -34094,137 +34094,137 @@
         <v>0</v>
       </c>
       <c r="N146" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O146" s="33">
         <f t="shared" si="740"/>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="P146" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="Q146" s="33">
         <f t="shared" si="741"/>
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="R146" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="S146" s="31">
         <f t="shared" si="742"/>
-        <v>0</v>
+        <v>10.26</v>
       </c>
       <c r="T146" s="39">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="U146" s="33">
         <f t="shared" si="743"/>
-        <v>0</v>
+        <v>11286</v>
       </c>
       <c r="V146" s="35">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="W146" s="33">
         <f t="shared" si="744"/>
-        <v>0</v>
+        <v>9234</v>
       </c>
       <c r="X146" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="Y146" s="31">
         <f t="shared" si="745"/>
-        <v>0</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="Z146" s="35">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AA146" s="31">
         <f t="shared" si="746"/>
-        <v>0</v>
+        <v>41.04</v>
       </c>
       <c r="AB146" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AC146" s="31">
         <f t="shared" si="747"/>
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="AD146" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AE146" s="33">
         <f t="shared" si="748"/>
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="AF146" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AG146" s="31">
         <f t="shared" si="756"/>
-        <v>0</v>
+        <v>5130</v>
       </c>
       <c r="AH146" s="35">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AI146" s="31">
         <f t="shared" si="757"/>
-        <v>0</v>
+        <v>307.8</v>
       </c>
       <c r="AJ146" s="35">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AK146" s="33">
         <f t="shared" si="749"/>
-        <v>0</v>
+        <v>1333.8</v>
       </c>
       <c r="AL146" s="35">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AM146" s="33">
         <f t="shared" si="750"/>
-        <v>0</v>
+        <v>1333.8</v>
       </c>
       <c r="AN146" s="35">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="AO146" s="33">
         <f t="shared" si="751"/>
-        <v>0</v>
+        <v>9234</v>
       </c>
       <c r="AP146" s="35">
-        <v>0</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="AQ146" s="33">
         <f t="shared" si="752"/>
-        <v>0</v>
+        <v>2082.7799999999997</v>
       </c>
       <c r="AR146" s="35">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AS146" s="33">
         <f t="shared" si="753"/>
-        <v>0</v>
+        <v>46170</v>
       </c>
       <c r="AT146" s="35">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AU146" s="31">
         <f t="shared" si="758"/>
-        <v>0</v>
+        <v>102.60000000000001</v>
       </c>
       <c r="AV146" s="35">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AW146" s="31">
         <f t="shared" si="759"/>
-        <v>0</v>
+        <v>6156</v>
       </c>
       <c r="AX146" s="35">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AY146" s="31">
         <f t="shared" si="760"/>
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="AZ146" s="35">
         <v>0</v>
@@ -34234,32 +34234,32 @@
         <v>0</v>
       </c>
       <c r="BB146" s="35">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="BC146" s="31">
         <f t="shared" si="761"/>
-        <v>0</v>
+        <v>2052</v>
       </c>
       <c r="BD146" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BE146" s="31">
         <f t="shared" ref="BE146" si="834">$B146*BD146</f>
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="BF146" s="35">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="BG146" s="33">
         <f t="shared" si="754"/>
-        <v>0</v>
+        <v>615.6</v>
       </c>
       <c r="BH146" s="35">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="BI146" s="31">
         <f t="shared" si="763"/>
-        <v>0</v>
+        <v>51.300000000000004</v>
       </c>
       <c r="BJ146" s="35">
         <v>0</v>
@@ -34269,258 +34269,19 @@
         <v>0</v>
       </c>
       <c r="BL146" s="35">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="BM146" s="31">
         <f t="shared" si="765"/>
-        <v>0</v>
+        <v>10.26</v>
       </c>
     </row>
-    <row r="147" spans="1:65" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="2"/>
-      <c r="B147" s="1">
-        <v>0</v>
-      </c>
-      <c r="C147" s="44">
-        <f t="shared" si="755"/>
-        <v>0</v>
-      </c>
-      <c r="D147" s="25"/>
-      <c r="E147" s="26"/>
-      <c r="F147" s="35">
-        <v>0</v>
-      </c>
-      <c r="G147" s="31">
-        <f t="shared" si="736"/>
-        <v>0</v>
-      </c>
-      <c r="H147" s="35">
-        <v>0</v>
-      </c>
-      <c r="I147" s="31">
-        <f t="shared" si="737"/>
-        <v>0</v>
-      </c>
-      <c r="J147" s="35">
-        <v>0</v>
-      </c>
-      <c r="K147" s="31">
-        <f t="shared" si="738"/>
-        <v>0</v>
-      </c>
-      <c r="L147" s="35">
-        <v>0</v>
-      </c>
-      <c r="M147" s="31">
-        <f t="shared" si="739"/>
-        <v>0</v>
-      </c>
-      <c r="N147" s="35">
-        <v>0</v>
-      </c>
-      <c r="O147" s="33">
-        <f t="shared" si="740"/>
-        <v>0</v>
-      </c>
-      <c r="P147" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q147" s="33">
-        <f t="shared" si="741"/>
-        <v>0</v>
-      </c>
-      <c r="R147" s="35">
-        <v>0</v>
-      </c>
-      <c r="S147" s="31">
-        <f t="shared" si="742"/>
-        <v>0</v>
-      </c>
-      <c r="T147" s="39">
-        <v>0</v>
-      </c>
-      <c r="U147" s="33">
-        <f t="shared" si="743"/>
-        <v>0</v>
-      </c>
-      <c r="V147" s="35">
-        <v>0</v>
-      </c>
-      <c r="W147" s="33">
-        <f t="shared" si="744"/>
-        <v>0</v>
-      </c>
-      <c r="X147" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y147" s="31">
-        <f t="shared" si="745"/>
-        <v>0</v>
-      </c>
-      <c r="Z147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AA147" s="31">
-        <f t="shared" si="746"/>
-        <v>0</v>
-      </c>
-      <c r="AB147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AC147" s="31">
-        <f t="shared" si="747"/>
-        <v>0</v>
-      </c>
-      <c r="AD147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AE147" s="33">
-        <f t="shared" si="748"/>
-        <v>0</v>
-      </c>
-      <c r="AF147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AG147" s="31">
-        <f t="shared" si="756"/>
-        <v>0</v>
-      </c>
-      <c r="AH147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AI147" s="31">
-        <f t="shared" si="757"/>
-        <v>0</v>
-      </c>
-      <c r="AJ147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AK147" s="33">
-        <f t="shared" si="749"/>
-        <v>0</v>
-      </c>
-      <c r="AL147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AM147" s="33">
-        <f t="shared" si="750"/>
-        <v>0</v>
-      </c>
-      <c r="AN147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AO147" s="33">
-        <f t="shared" si="751"/>
-        <v>0</v>
-      </c>
-      <c r="AP147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AQ147" s="33">
-        <f t="shared" si="752"/>
-        <v>0</v>
-      </c>
-      <c r="AR147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AS147" s="33">
-        <f t="shared" si="753"/>
-        <v>0</v>
-      </c>
-      <c r="AT147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AU147" s="31">
-        <f t="shared" si="758"/>
-        <v>0</v>
-      </c>
-      <c r="AV147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AW147" s="31">
-        <f t="shared" si="759"/>
-        <v>0</v>
-      </c>
-      <c r="AX147" s="35">
-        <v>0</v>
-      </c>
-      <c r="AY147" s="31">
-        <f t="shared" si="760"/>
-        <v>0</v>
-      </c>
-      <c r="AZ147" s="35">
-        <v>0</v>
-      </c>
-      <c r="BA147" s="31">
-        <f t="shared" si="761"/>
-        <v>0</v>
-      </c>
-      <c r="BB147" s="35">
-        <v>0</v>
-      </c>
-      <c r="BC147" s="31">
-        <f t="shared" si="761"/>
-        <v>0</v>
-      </c>
-      <c r="BD147" s="35">
-        <v>0</v>
-      </c>
-      <c r="BE147" s="31">
-        <f t="shared" ref="BE147" si="835">$B147*BD147</f>
-        <v>0</v>
-      </c>
-      <c r="BF147" s="35">
-        <v>0</v>
-      </c>
-      <c r="BG147" s="33">
-        <f t="shared" si="754"/>
-        <v>0</v>
-      </c>
-      <c r="BH147" s="35">
-        <v>0</v>
-      </c>
-      <c r="BI147" s="31">
-        <f t="shared" si="763"/>
-        <v>0</v>
-      </c>
-      <c r="BJ147" s="35">
-        <v>0</v>
-      </c>
-      <c r="BK147" s="31">
-        <f t="shared" si="764"/>
-        <v>0</v>
-      </c>
-      <c r="BL147" s="35">
-        <v>0</v>
-      </c>
-      <c r="BM147" s="31">
-        <f t="shared" si="765"/>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="147" spans="1:65" collapsed="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sortState ref="A32:A34">
     <sortCondition ref="A32"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D51:E51"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BL1:BM1"/>
@@ -34537,6 +34298,24 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC8A595-BBE0-2846-AD82-F5FE7BC82595}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED63B01E-F90A-9642-A85B-055EB9D13A3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="1280" windowWidth="49540" windowHeight="27700" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="14" r:id="rId1"/>
@@ -812,7 +812,16 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,13 +830,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -842,13 +848,7 @@
     <xf numFmtId="1" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1137,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomLeft" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1158,9 +1158,9 @@
     <col min="15" max="15" width="9.1640625" style="32" customWidth="1"/>
     <col min="16" max="16" width="9.1640625" style="36" customWidth="1"/>
     <col min="17" max="17" width="9.1640625" style="32" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9.1640625" style="32" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.1640625" style="40" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="9.1640625" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9.1640625" style="32" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.1640625" style="40" customWidth="1"/>
     <col min="21" max="21" width="9.1640625" style="32" customWidth="1"/>
     <col min="22" max="22" width="9.1640625" style="36" customWidth="1"/>
     <col min="23" max="23" width="9.1640625" style="32" customWidth="1"/>
@@ -1213,136 +1213,136 @@
       <c r="A1" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="55">
+      <c r="B1" s="45">
         <f>SUM(B51,B2)</f>
         <v>2524854</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="49">
+      <c r="C1" s="46"/>
+      <c r="D1" s="52">
         <f>SUM(D2,D51)</f>
         <v>406067.39999999997</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="46"/>
+      <c r="F1" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="51"/>
+      <c r="J1" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45" t="s">
+      <c r="K1" s="51"/>
+      <c r="L1" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="45"/>
-      <c r="N1" s="46" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="47"/>
-      <c r="P1" s="46" t="s">
+      <c r="O1" s="50"/>
+      <c r="P1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="56" t="s">
+      <c r="Q1" s="50"/>
+      <c r="R1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="57"/>
-      <c r="T1" s="46" t="s">
+      <c r="S1" s="48"/>
+      <c r="T1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="46" t="s">
+      <c r="U1" s="50"/>
+      <c r="V1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="47"/>
-      <c r="X1" s="45" t="s">
+      <c r="W1" s="50"/>
+      <c r="X1" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45" t="s">
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="46" t="s">
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="47"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="56" t="s">
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="46" t="s">
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="46" t="s">
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="46" t="s">
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="48" t="s">
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="47"/>
-      <c r="AT1" s="45" t="s">
+      <c r="AQ1" s="57"/>
+      <c r="AR1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45" t="s">
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45" t="s">
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45" t="s">
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45" t="s">
+      <c r="BA1" s="51"/>
+      <c r="BB1" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45" t="s">
+      <c r="BC1" s="51"/>
+      <c r="BD1" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="46" t="s">
+      <c r="BE1" s="51"/>
+      <c r="BF1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="47"/>
-      <c r="BH1" s="45" t="s">
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45" t="s">
+      <c r="BI1" s="51"/>
+      <c r="BJ1" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45" t="s">
+      <c r="BK1" s="51"/>
+      <c r="BL1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="BM1" s="45"/>
+      <c r="BM1" s="51"/>
     </row>
     <row r="2" spans="1:65" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1354,13 +1354,13 @@
       </c>
       <c r="C2" s="41">
         <f>IFERROR(SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2,AN2,AP2,AR2,AT2,AV2,AX2,AZ2,BB2,BD2,BF2,BH2,BJ2,BL2),0)</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="51">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D2" s="53">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>406067.39999999997</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="54">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>406067.39999999997</v>
       </c>
@@ -1382,27 +1382,27 @@
       </c>
       <c r="J2" s="34">
         <f>IFERROR(K2/$B2,0)</f>
-        <v>1.2509214548289311E-2</v>
+        <v>1.2529885615535731E-2</v>
       </c>
       <c r="K2" s="31">
         <f>SUM(K46,K42,K33,K27,K22,K13,K6,K3)</f>
-        <v>12805.094999999998</v>
+        <v>12826.254999999997</v>
       </c>
       <c r="L2" s="34">
         <f>IFERROR(M2/$B2,0)</f>
-        <v>1.4030745770295208E-3</v>
+        <v>1.413410110652731E-3</v>
       </c>
       <c r="M2" s="31">
         <f>SUM(M46,M42,M33,M27,M22,M13,M6,M3)</f>
-        <v>1436.2615000000001</v>
+        <v>1446.8415</v>
       </c>
       <c r="N2" s="37">
         <f>IFERROR(O2/$B2,0)</f>
-        <v>3.6481717925898717E-3</v>
+        <v>3.6471382392275508E-3</v>
       </c>
       <c r="O2" s="33">
         <f>SUM(O46,O42,O33,O27,O22,O13,O6,O3)</f>
-        <v>3734.462</v>
+        <v>3733.404</v>
       </c>
       <c r="P2" s="37">
         <f>IFERROR(Q2/$B2,0)</f>
@@ -1422,19 +1422,19 @@
       </c>
       <c r="T2" s="38">
         <f>IFERROR(U2/$B2,0)</f>
-        <v>9.9960746463889624E-2</v>
+        <v>9.997108199751284E-2</v>
       </c>
       <c r="U2" s="33">
         <f>SUM(U46,U42,U33,U27,U22,U13,U6,U3)</f>
-        <v>102325.118</v>
+        <v>102335.698</v>
       </c>
       <c r="V2" s="37">
         <f>IFERROR(W2/$B2,0)</f>
-        <v>9.7512107130052872E-2</v>
+        <v>9.7557571755272549E-2</v>
       </c>
       <c r="W2" s="33">
         <f>SUM(W46,W42,W33,W27,W22,W13,W6,W3)</f>
-        <v>99818.561000000016</v>
+        <v>99865.10100000001</v>
       </c>
       <c r="X2" s="34">
         <f>IFERROR(Y2/$B2,0)</f>
@@ -1454,75 +1454,75 @@
       </c>
       <c r="AB2" s="34">
         <f>IFERROR(AC2/$B2,0)</f>
-        <v>3.4031791046379972E-3</v>
+        <v>3.4610580929279743E-3</v>
       </c>
       <c r="AC2" s="31">
         <f>SUM(AC46,AC42,AC33,AC27,AC22,AC13,AC6,AC3)</f>
-        <v>3483.6744999999996</v>
+        <v>3542.9224999999997</v>
       </c>
       <c r="AD2" s="37">
         <f>IFERROR(AE2/$B2,0)</f>
-        <v>3.6996879802042297E-2</v>
+        <v>3.699998046212926E-2</v>
       </c>
       <c r="AE2" s="33">
         <f>SUM(AE46,AE42,AE33,AE27,AE22,AE13,AE6,AE3)</f>
-        <v>37871.967000000004</v>
+        <v>37875.141000000003</v>
       </c>
       <c r="AF2" s="34">
         <f>IFERROR(AG2/$B2,0)</f>
-        <v>3.4131947056277867E-2</v>
+        <v>3.411127598903145E-2</v>
       </c>
       <c r="AG2" s="31">
         <f>SUM(AG46,AG42,AG33,AG27,AG22,AG13,AG6,AG3)</f>
-        <v>34939.270000000004</v>
+        <v>34918.110000000008</v>
       </c>
       <c r="AH2" s="34">
         <f>IFERROR(AI2/$B2,0)</f>
-        <v>2.7865541350438087E-3</v>
+        <v>2.7555475341741781E-3</v>
       </c>
       <c r="AI2" s="31">
         <f>SUM(AI46,AI42,AI33,AI27,AI22,AI13,AI6,AI3)</f>
-        <v>2852.4645</v>
+        <v>2820.7244999999998</v>
       </c>
       <c r="AJ2" s="37">
         <f>IFERROR(AK2/$B2,0)</f>
-        <v>4.8106498979634697E-2</v>
+        <v>4.8082737021236686E-2</v>
       </c>
       <c r="AK2" s="33">
         <f>SUM(AK46,AK42,AK33,AK27,AK22,AK13,AK6,AK3)</f>
-        <v>49244.361999999994</v>
+        <v>49220.038</v>
       </c>
       <c r="AL2" s="37">
         <f>IFERROR(AM2/$B2,0)</f>
-        <v>3.0348485766172714E-2</v>
+        <v>3.0334017972887296E-2</v>
       </c>
       <c r="AM2" s="33">
         <f>SUM(AM46,AM42,AM33,AM27,AM22,AM13,AM6,AM3)</f>
-        <v>31066.318499999998</v>
+        <v>31051.5085</v>
       </c>
       <c r="AN2" s="37">
         <f>IFERROR(AO2/$B2,0)</f>
-        <v>5.2806541865260986E-2</v>
+        <v>5.2801374098449379E-2</v>
       </c>
       <c r="AO2" s="33">
         <f>SUM(AO46,AO42,AO33,AO27,AO22,AO13,AO6,AO3)</f>
-        <v>54055.575000000004</v>
+        <v>54050.285000000003</v>
       </c>
       <c r="AP2" s="37">
         <f>IFERROR(AQ2/$B2,0)</f>
-        <v>0.11310983800174473</v>
+        <v>0.11316151566986078</v>
       </c>
       <c r="AQ2" s="33">
         <f>SUM(AQ46,AQ42,AQ33,AQ27,AQ22,AQ13,AQ6,AQ3)</f>
-        <v>115785.22500000001</v>
+        <v>115838.125</v>
       </c>
       <c r="AR2" s="37">
         <f>IFERROR(AS2/$B2,0)</f>
-        <v>0.36605247579013594</v>
+        <v>0.36582509405042529</v>
       </c>
       <c r="AS2" s="33">
         <f>SUM(AS46,AS42,AS33,AS27,AS22,AS13,AS6,AS3)</f>
-        <v>374710.71500000003</v>
+        <v>374477.95500000002</v>
       </c>
       <c r="AT2" s="34">
         <f>IFERROR(AU2/$B2,0)</f>
@@ -1534,19 +1534,19 @@
       </c>
       <c r="AV2" s="34">
         <f>IFERROR(AW2/$B2,0)</f>
-        <v>6.2470143691270375E-3</v>
+        <v>6.2676854363734585E-3</v>
       </c>
       <c r="AW2" s="31">
         <f>SUM(AW46,AW42,AW33,AW27,AW22,AW13,AW6,AW3)</f>
-        <v>6394.7749999999996</v>
+        <v>6415.9349999999995</v>
       </c>
       <c r="AX2" s="34">
         <f>IFERROR(AY2/$B2,0)</f>
-        <v>7.3210497111814267E-3</v>
+        <v>7.3520563120510569E-3</v>
       </c>
       <c r="AY2" s="31">
         <f>SUM(AY46,AY42,AY33,AY27,AY22,AY13,AY6,AY3)</f>
-        <v>7494.214500000001</v>
+        <v>7525.9545000000007</v>
       </c>
       <c r="AZ2" s="34">
         <f>IFERROR(BA2/$B2,0)</f>
@@ -1558,11 +1558,11 @@
       </c>
       <c r="BB2" s="34">
         <f>IFERROR(BC2/$B2,0)</f>
-        <v>1.4371987382443073E-2</v>
+        <v>1.4444336117805547E-2</v>
       </c>
       <c r="BC2" s="31">
         <f>SUM(BC46,BC42,BC33,BC27,BC22,BC13,BC6,BC3)</f>
-        <v>14711.928</v>
+        <v>14785.988000000001</v>
       </c>
       <c r="BD2" s="34">
         <f>IFERROR(BE2/$B2,0)</f>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="C3" s="42">
         <f>IFERROR(SUM(F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,Z3,AB3,AD3,AF3,AH3,AJ3,AL3,AN3,AP3,AR3,AT3,AV3,AX3,AZ3,BB3,BD3,BF3,BH3,BJ3,BL3),0)</f>
-        <v>0.99999999999999978</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D3" s="28">
         <v>84</v>
@@ -1642,27 +1642,27 @@
       </c>
       <c r="J3" s="34">
         <f>IFERROR(K3/$B3,0)</f>
-        <v>2.0007564296520425E-3</v>
+        <v>6.0022692889561266E-3</v>
       </c>
       <c r="K3" s="31">
         <f>SUM(K4:K5)</f>
-        <v>10.58</v>
+        <v>31.74</v>
       </c>
       <c r="L3" s="34">
         <f>IFERROR(M3/$B3,0)</f>
-        <v>1.4805219364599094E-2</v>
+        <v>1.6805975794251134E-2</v>
       </c>
       <c r="M3" s="31">
         <f>SUM(M4:M5)</f>
-        <v>78.290000000000006</v>
+        <v>88.87</v>
       </c>
       <c r="N3" s="37">
         <f>IFERROR(O3/$B3,0)</f>
-        <v>2.7999243570347955E-3</v>
+        <v>2.5998487140695913E-3</v>
       </c>
       <c r="O3" s="33">
         <f>SUM(O4:O5)</f>
-        <v>14.805999999999999</v>
+        <v>13.747999999999999</v>
       </c>
       <c r="P3" s="37">
         <f>IFERROR(Q3/$B3,0)</f>
@@ -1682,19 +1682,19 @@
       </c>
       <c r="T3" s="38">
         <f>IFERROR(U3/$B3,0)</f>
-        <v>5.7999243570347955E-2</v>
+        <v>0.06</v>
       </c>
       <c r="U3" s="33">
         <f>SUM(U4:U5)</f>
-        <v>306.7</v>
+        <v>317.27999999999997</v>
       </c>
       <c r="V3" s="37">
         <f>IFERROR(W3/$B3,0)</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.3801059001512857E-2</v>
       </c>
       <c r="W3" s="33">
         <f>SUM(W4:W5)</f>
-        <v>26.44</v>
+        <v>72.97999999999999</v>
       </c>
       <c r="X3" s="34">
         <f>IFERROR(Y3/$B3,0)</f>
@@ -1714,75 +1714,75 @@
       </c>
       <c r="AB3" s="34">
         <f>IFERROR(AC3/$B3,0)</f>
-        <v>1.4805597579425114E-2</v>
+        <v>2.6009833585476549E-2</v>
       </c>
       <c r="AC3" s="31">
         <f>SUM(AC4:AC5)</f>
-        <v>78.292000000000002</v>
+        <v>137.54</v>
       </c>
       <c r="AD3" s="37">
         <f>IFERROR(AE3/$B3,0)</f>
-        <v>4.3997730711043881E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE3" s="33">
         <f>SUM(AE4:AE5)</f>
-        <v>23.266000000000002</v>
+        <v>26.44</v>
       </c>
       <c r="AF3" s="34">
         <f>IFERROR(AG3/$B3,0)</f>
-        <v>4.001512859304085E-2</v>
+        <v>3.6013615733736765E-2</v>
       </c>
       <c r="AG3" s="31">
         <f>SUM(AG4:AG5)</f>
-        <v>211.60000000000002</v>
+        <v>190.44</v>
       </c>
       <c r="AH3" s="34">
         <f>IFERROR(AI3/$B3,0)</f>
-        <v>1.0803706505295009E-2</v>
+        <v>4.8014372163388804E-3</v>
       </c>
       <c r="AI3" s="31">
         <f>SUM(AI4:AI5)</f>
-        <v>57.13000000000001</v>
+        <v>25.39</v>
       </c>
       <c r="AJ3" s="37">
         <f>IFERROR(AK3/$B3,0)</f>
-        <v>8.999621785173979E-3</v>
+        <v>4.3997730711043881E-3</v>
       </c>
       <c r="AK3" s="33">
         <f>SUM(AK4:AK5)</f>
-        <v>47.59</v>
+        <v>23.266000000000002</v>
       </c>
       <c r="AL3" s="37">
         <f>IFERROR(AM3/$B3,0)</f>
-        <v>5.6013615733736767E-3</v>
+        <v>2.8006807866868383E-3</v>
       </c>
       <c r="AM3" s="33">
         <f>SUM(AM4:AM5)</f>
-        <v>29.62</v>
+        <v>14.81</v>
       </c>
       <c r="AN3" s="37">
         <f>IFERROR(AO3/$B3,0)</f>
-        <v>5.9996217851739794E-2</v>
+        <v>5.8995839636913773E-2</v>
       </c>
       <c r="AO3" s="33">
         <f>SUM(AO4:AO5)</f>
-        <v>317.26000000000005</v>
+        <v>311.97000000000003</v>
       </c>
       <c r="AP3" s="37">
         <f>IFERROR(AQ3/$B3,0)</f>
-        <v>0</v>
+        <v>1.0003782148260212E-2</v>
       </c>
       <c r="AQ3" s="33">
         <f>SUM(AQ4:AQ5)</f>
-        <v>0</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="AR3" s="37">
         <f>IFERROR(AS3/$B3,0)</f>
-        <v>0.7259606656580937</v>
+        <v>0.68194402420574873</v>
       </c>
       <c r="AS3" s="33">
         <f>SUM(AS4:AS5)</f>
-        <v>3838.8799999999997</v>
+        <v>3606.1199999999994</v>
       </c>
       <c r="AT3" s="34">
         <f>IFERROR(AU3/$B3,0)</f>
@@ -1794,19 +1794,19 @@
       </c>
       <c r="AV3" s="34">
         <f>IFERROR(AW3/$B3,0)</f>
-        <v>2.4009077155824506E-2</v>
+        <v>2.8010590015128595E-2</v>
       </c>
       <c r="AW3" s="31">
         <f>SUM(AW4:AW5)</f>
-        <v>126.96</v>
+        <v>148.12</v>
       </c>
       <c r="AX3" s="34">
         <f>IFERROR(AY3/$B3,0)</f>
-        <v>4.001512859304085E-3</v>
+        <v>1.0003782148260212E-2</v>
       </c>
       <c r="AY3" s="31">
         <f>SUM(AY4:AY5)</f>
-        <v>21.16</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="AZ3" s="34">
         <f>IFERROR(BA3/$B3,0)</f>
@@ -1818,11 +1818,11 @@
       </c>
       <c r="BB3" s="34">
         <f>IFERROR(BC3/$B3,0)</f>
-        <v>8.8029500756429645E-3</v>
+        <v>2.2808245083207262E-2</v>
       </c>
       <c r="BC3" s="31">
         <f>SUM(BC4:BC5)</f>
-        <v>46.55</v>
+        <v>120.61</v>
       </c>
       <c r="BD3" s="34">
         <f>IFERROR(BE3/$B3,0)</f>
@@ -1935,11 +1935,11 @@
         <v>253.79999999999998</v>
       </c>
       <c r="V4" s="35">
-        <v>5.0000000000000001E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="W4" s="33">
         <f t="shared" ref="W4:W5" si="8">$B4*V4</f>
-        <v>21.150000000000002</v>
+        <v>46.529999999999994</v>
       </c>
       <c r="X4" s="35">
         <v>0</v>
@@ -1984,18 +1984,18 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="AJ4" s="35">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AK4" s="33">
         <f t="shared" ref="AK4:AK5" si="13">$B4*AJ4</f>
-        <v>42.300000000000004</v>
+        <v>21.150000000000002</v>
       </c>
       <c r="AL4" s="35">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="AM4" s="33">
         <f t="shared" ref="AM4:AM5" si="14">$B4*AL4</f>
-        <v>8.4600000000000009</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="AN4" s="35">
         <v>7.0000000000000007E-2</v>
@@ -2117,25 +2117,25 @@
         <v>0</v>
       </c>
       <c r="J5" s="35">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="K5" s="31">
         <f t="shared" si="2"/>
-        <v>10.58</v>
+        <v>31.74</v>
       </c>
       <c r="L5" s="35">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="M5" s="31">
         <f t="shared" si="3"/>
-        <v>74.06</v>
+        <v>84.64</v>
       </c>
       <c r="N5" s="35">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="O5" s="33">
         <f t="shared" si="4"/>
-        <v>2.1160000000000001</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="P5" s="35">
         <v>0</v>
@@ -2152,18 +2152,18 @@
         <v>0</v>
       </c>
       <c r="T5" s="39">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="U5" s="33">
         <f t="shared" si="7"/>
-        <v>52.900000000000006</v>
+        <v>63.48</v>
       </c>
       <c r="V5" s="35">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="W5" s="33">
         <f t="shared" si="8"/>
-        <v>5.29</v>
+        <v>26.450000000000003</v>
       </c>
       <c r="X5" s="35">
         <v>0</v>
@@ -2180,67 +2180,67 @@
         <v>0</v>
       </c>
       <c r="AB5" s="35">
-        <v>7.3999999999999996E-2</v>
+        <v>0.13</v>
       </c>
       <c r="AC5" s="31">
         <f t="shared" si="11"/>
-        <v>78.292000000000002</v>
+        <v>137.54</v>
       </c>
       <c r="AD5" s="35">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE5" s="33">
         <f t="shared" si="12"/>
-        <v>2.1160000000000001</v>
+        <v>5.29</v>
       </c>
       <c r="AF5" s="35">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="AG5" s="31">
         <f t="shared" ref="AG5" si="20">$B5*AF5</f>
-        <v>211.60000000000002</v>
+        <v>190.44</v>
       </c>
       <c r="AH5" s="35">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AI5" s="31">
         <f t="shared" ref="AI5" si="21">$B5*AH5</f>
-        <v>52.900000000000006</v>
+        <v>21.16</v>
       </c>
       <c r="AJ5" s="35">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AK5" s="33">
         <f t="shared" si="13"/>
-        <v>5.29</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="AL5" s="35">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AM5" s="33">
         <f t="shared" si="14"/>
-        <v>21.16</v>
+        <v>10.58</v>
       </c>
       <c r="AN5" s="35">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AO5" s="33">
         <f t="shared" si="15"/>
-        <v>21.16</v>
+        <v>15.87</v>
       </c>
       <c r="AP5" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="AQ5" s="33">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="AR5" s="35">
-        <v>0.31</v>
+        <v>0.09</v>
       </c>
       <c r="AS5" s="33">
         <f t="shared" si="17"/>
-        <v>327.98</v>
+        <v>95.22</v>
       </c>
       <c r="AT5" s="35">
         <v>0</v>
@@ -2250,18 +2250,18 @@
         <v>0</v>
       </c>
       <c r="AV5" s="35">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AW5" s="31">
         <f t="shared" ref="AW5" si="23">$B5*AV5</f>
-        <v>126.96</v>
+        <v>148.12</v>
       </c>
       <c r="AX5" s="35">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AY5" s="31">
         <f t="shared" ref="AY5" si="24">$B5*AX5</f>
-        <v>21.16</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="AZ5" s="35">
         <v>0</v>
@@ -2271,11 +2271,11 @@
         <v>0</v>
       </c>
       <c r="BB5" s="35">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="BC5" s="31">
         <f t="shared" si="25"/>
-        <v>42.32</v>
+        <v>116.38</v>
       </c>
       <c r="BD5" s="35">
         <v>0</v>
@@ -12657,11 +12657,11 @@
         <f>IFERROR(SUM(F51,H51,J51,L51,N51,P51,R51,T51,V51,X51,Z51,AB51,AD51,AF51,AH51,AJ51,AL51,AN51,AP51,AR51,AT51,AV51,AX51,AZ51,BB51,BD51,BF51,BH51,BJ51,BL51),0)</f>
         <v>1</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="55">
         <f>SUM(D52,D56,D62,D68,D86,D100,D111)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="54"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="34">
         <f>IFERROR(G51/$B51,0)</f>
         <v>2.526813531299273E-3</v>
@@ -29735,24 +29735,6 @@
     <sortCondition ref="A32"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D51:E51"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BL1:BM1"/>
@@ -29769,6 +29751,24 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1044685-adm\Git\Atlas-Exandria\development\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC37D24-109D-634A-B521-C4BB08BB8017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1100" windowWidth="49540" windowHeight="27700" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="1095" windowWidth="49545" windowHeight="27705" tabRatio="444"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="14" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -495,7 +494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -810,7 +809,16 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,13 +827,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,20 +839,14 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1130,219 +1129,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="34"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="8.33203125" style="34" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="34" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="30" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.1640625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="34" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" style="30" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9.1640625" style="34" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" style="30" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="9.1640625" style="34" customWidth="1"/>
-    <col min="37" max="37" width="9.1640625" style="30" customWidth="1"/>
-    <col min="38" max="38" width="9.1640625" style="34" customWidth="1"/>
-    <col min="39" max="39" width="9.1640625" style="30" customWidth="1"/>
-    <col min="40" max="40" width="9.1640625" style="34" customWidth="1"/>
-    <col min="41" max="41" width="9.1640625" style="30" customWidth="1"/>
-    <col min="42" max="42" width="9.1640625" style="34" customWidth="1"/>
-    <col min="43" max="43" width="9.1640625" style="30" customWidth="1"/>
-    <col min="44" max="44" width="9.1640625" style="34" customWidth="1"/>
-    <col min="45" max="45" width="9.1640625" style="30" customWidth="1"/>
-    <col min="46" max="46" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="9.1640625" style="34" customWidth="1"/>
-    <col min="59" max="59" width="9.1640625" style="30" customWidth="1"/>
-    <col min="60" max="60" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="9.1640625"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="34"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="8.28515625" style="34" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="34" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.140625" style="38" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="34" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="30" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9.140625" style="34" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="30" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="9.140625" style="34" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="30" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="34" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="30" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="34" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="30" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="34" customWidth="1"/>
+    <col min="43" max="43" width="9.140625" style="30" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="34" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="30" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="9.140625" style="34" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" style="30" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="43">
         <f>SUM(B51,B2)</f>
         <v>2524854</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="47">
+      <c r="C1" s="44"/>
+      <c r="D1" s="50">
         <f>SUM(D2,D51)</f>
         <v>2042171.4</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="52" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="44" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="44" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="43" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="44" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="44" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="44" t="s">
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="43" t="s">
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43" t="s">
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43" t="s">
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43" t="s">
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43" t="s">
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43" t="s">
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="44" t="s">
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="43" t="s">
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43" t="s">
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="43" t="s">
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BM1" s="43"/>
+      <c r="BM1" s="49"/>
     </row>
-    <row r="2" spans="1:65" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -1354,11 +1353,11 @@
         <f>IFERROR(SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2,AN2,AP2,AR2,AT2,AV2,AX2,AZ2,BB2,BD2,BF2,BH2,BJ2,BL2),0)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="51">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>969573.6</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="52">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>969573.6</v>
       </c>
@@ -1603,7 +1602,7 @@
         <v>762.72969999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>503.21249999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>287.55</v>
       </c>
     </row>
-    <row r="9" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>215.66249999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>85.4542</v>
       </c>
     </row>
-    <row r="23" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>1.5982000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>5.2410000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>78.614999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
@@ -7383,7 +7382,7 @@
         <v>13.522</v>
       </c>
     </row>
-    <row r="28" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -8055,7 +8054,7 @@
         <v>9.0150000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>84</v>
       </c>
@@ -8503,7 +8502,7 @@
         <v>4.5069999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>160.54100000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>2.133</v>
       </c>
     </row>
-    <row r="36" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>3.081</v>
       </c>
     </row>
-    <row r="37" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>2.6070000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="39" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
@@ -10107,7 +10106,7 @@
         <v>3.5500000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="41" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>142.20000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
@@ -10815,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -11487,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
@@ -11747,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -11971,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>75</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:65" ht="19" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:65" ht="18.75" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>61</v>
       </c>
@@ -12655,11 +12654,11 @@
         <f>IFERROR(SUM(F51,H51,J51,L51,N51,P51,R51,T51,V51,X51,Z51,AB51,AD51,AF51,AH51,AJ51,AL51,AN51,AP51,AR51,AT51,AV51,AX51,AZ51,BB51,BD51,BF51,BH51,BJ51,BL51),0)</f>
         <v>1</v>
       </c>
-      <c r="D51" s="54">
+      <c r="D51" s="53">
         <f>SUM(E52,E56,E62,E68,E86,E100,E111)</f>
         <v>1072597.8</v>
       </c>
-      <c r="E51" s="55"/>
+      <c r="E51" s="54"/>
       <c r="F51" s="32">
         <f>IFERROR(G51/$B51,0)</f>
         <v>2.526813531299273E-3</v>
@@ -12901,7 +12900,7 @@
         <v>667.81999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:65" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>62</v>
       </c>
@@ -13161,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>152</v>
       </c>
@@ -13385,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>137</v>
       </c>
@@ -14317,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>138</v>
       </c>
@@ -14541,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>139</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>140</v>
       </c>
@@ -14989,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>141</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -15473,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
@@ -15697,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>133</v>
       </c>
@@ -15921,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>134</v>
       </c>
@@ -16145,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>135</v>
       </c>
@@ -16369,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -16593,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>101</v>
       </c>
@@ -17077,7 +17076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>102</v>
       </c>
@@ -17301,7 +17300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>103</v>
       </c>
@@ -17525,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -17749,7 +17748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>105</v>
       </c>
@@ -17973,7 +17972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>106</v>
       </c>
@@ -18197,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>107</v>
       </c>
@@ -18421,7 +18420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>109</v>
       </c>
@@ -18645,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
@@ -18869,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>110</v>
       </c>
@@ -19093,7 +19092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>111</v>
       </c>
@@ -19317,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>112</v>
       </c>
@@ -19541,7 +19540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>113</v>
       </c>
@@ -19765,7 +19764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>114</v>
       </c>
@@ -19989,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>115</v>
       </c>
@@ -20213,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>116</v>
       </c>
@@ -20437,7 +20436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>117</v>
       </c>
@@ -20661,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>66</v>
       </c>
@@ -20921,7 +20920,7 @@
         <v>637.04</v>
       </c>
     </row>
-    <row r="87" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
@@ -21145,7 +21144,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
@@ -21369,7 +21368,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="89" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
@@ -21593,7 +21592,7 @@
         <v>2.6120000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
@@ -21817,7 +21816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -22041,7 +22040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -22265,7 +22264,7 @@
         <v>63.800000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -22489,7 +22488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -22713,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>98</v>
       </c>
@@ -22937,7 +22936,7 @@
         <v>82.11</v>
       </c>
     </row>
-    <row r="96" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>99</v>
       </c>
@@ -23161,7 +23160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>100</v>
       </c>
@@ -23385,7 +23384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
@@ -23609,7 +23608,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -23833,7 +23832,7 @@
         <v>167.2</v>
       </c>
     </row>
-    <row r="100" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>67</v>
       </c>
@@ -24093,7 +24092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>142</v>
       </c>
@@ -24317,7 +24316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>144</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>145</v>
       </c>
@@ -24765,7 +24764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>146</v>
       </c>
@@ -24989,7 +24988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>147</v>
       </c>
@@ -25213,7 +25212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -25437,7 +25436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -25661,7 +25660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>150</v>
       </c>
@@ -25885,7 +25884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>151</v>
       </c>
@@ -26109,7 +26108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>143</v>
       </c>
@@ -26333,7 +26332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>68</v>
       </c>
@@ -26593,7 +26592,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="112" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>118</v>
       </c>
@@ -26817,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>119</v>
       </c>
@@ -27041,7 +27040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>120</v>
       </c>
@@ -27265,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>121</v>
       </c>
@@ -27489,7 +27488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -27713,7 +27712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>123</v>
       </c>
@@ -27937,7 +27936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>124</v>
       </c>
@@ -28161,7 +28160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
@@ -28385,7 +28384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>126</v>
       </c>
@@ -28609,7 +28608,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="121" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -28833,7 +28832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
@@ -29057,7 +29056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>129</v>
       </c>
@@ -29281,7 +29280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>130</v>
       </c>
@@ -29505,7 +29504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>131</v>
       </c>
@@ -29729,30 +29728,12 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="126" spans="1:65" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:65" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A32:A34">
     <sortCondition ref="A32"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D51:E51"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BL1:BM1"/>
@@ -29769,6 +29750,24 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC37D24-109D-634A-B521-C4BB08BB8017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C780BE33-9B18-6841-928C-FBEF84B52143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1100" windowWidth="49540" windowHeight="27700" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="14" r:id="rId1"/>
@@ -810,7 +810,16 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -819,13 +828,10 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -834,20 +840,14 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1133,9 +1133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="AR62" sqref="AR62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -1211,136 +1211,136 @@
       <c r="A1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="51">
+      <c r="B1" s="43">
         <f>SUM(B51,B2)</f>
         <v>2524854</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="47">
+      <c r="C1" s="44"/>
+      <c r="D1" s="50">
         <f>SUM(D2,D51)</f>
         <v>2042171.4</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43" t="s">
+      <c r="K1" s="49"/>
+      <c r="L1" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="44" t="s">
+      <c r="M1" s="49"/>
+      <c r="N1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="44" t="s">
+      <c r="O1" s="48"/>
+      <c r="P1" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="52" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="44" t="s">
+      <c r="S1" s="46"/>
+      <c r="T1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="45"/>
-      <c r="V1" s="44" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="43" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43" t="s">
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43" t="s">
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="44" t="s">
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="44" t="s">
+      <c r="AI1" s="46"/>
+      <c r="AJ1" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="44" t="s">
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="44" t="s">
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="46" t="s">
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="43" t="s">
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43" t="s">
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43" t="s">
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="43"/>
-      <c r="AZ1" s="43" t="s">
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="43"/>
-      <c r="BB1" s="43" t="s">
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="43"/>
-      <c r="BD1" s="43" t="s">
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" s="43"/>
-      <c r="BF1" s="44" t="s">
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="43" t="s">
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="BI1" s="43"/>
-      <c r="BJ1" s="43" t="s">
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="BK1" s="43"/>
-      <c r="BL1" s="43" t="s">
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="BM1" s="43"/>
+      <c r="BM1" s="49"/>
     </row>
     <row r="2" spans="1:65" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1354,53 +1354,53 @@
         <f>IFERROR(SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2,AN2,AP2,AR2,AT2,AV2,AX2,AZ2,BB2,BD2,BF2,BH2,BJ2,BL2),0)</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="51">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>969573.6</v>
       </c>
-      <c r="E2" s="50">
+      <c r="E2" s="52">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>969573.6</v>
       </c>
       <c r="F2" s="32">
         <f>IFERROR(G2/$B2,0)</f>
-        <v>2.4481440488134161E-4</v>
+        <v>2.8735811842489596E-4</v>
       </c>
       <c r="G2" s="29">
         <f>SUM(G46,G42,G33,G27,G22,G13,G6,G3)</f>
-        <v>250.60499999999999</v>
+        <v>294.15500000000003</v>
       </c>
       <c r="H2" s="32">
         <f>IFERROR(I2/$B2,0)</f>
-        <v>2.9802848230796961E-3</v>
+        <v>3.0954825512160859E-3</v>
       </c>
       <c r="I2" s="29">
         <f>SUM(I46,I42,I33,I27,I22,I13,I6,I3)</f>
-        <v>3050.7775000000001</v>
+        <v>3168.7</v>
       </c>
       <c r="J2" s="32">
         <f>IFERROR(K2/$B2,0)</f>
-        <v>1.2529885615535731E-2</v>
+        <v>1.3380759886406817E-2</v>
       </c>
       <c r="K2" s="29">
         <f>SUM(K46,K42,K33,K27,K22,K13,K6,K3)</f>
-        <v>12826.254999999997</v>
+        <v>13697.254999999997</v>
       </c>
       <c r="L2" s="32">
         <f>IFERROR(M2/$B2,0)</f>
-        <v>1.413410110652731E-3</v>
+        <v>1.6054063242133807E-3</v>
       </c>
       <c r="M2" s="29">
         <f>SUM(M46,M42,M33,M27,M22,M13,M6,M3)</f>
-        <v>1446.8415</v>
+        <v>1643.3789999999999</v>
       </c>
       <c r="N2" s="35">
         <f>IFERROR(O2/$B2,0)</f>
-        <v>3.6471382392275508E-3</v>
+        <v>3.6556469819362617E-3</v>
       </c>
       <c r="O2" s="31">
         <f>SUM(O46,O42,O33,O27,O22,O13,O6,O3)</f>
-        <v>3733.404</v>
+        <v>3742.114</v>
       </c>
       <c r="P2" s="35">
         <f>IFERROR(Q2/$B2,0)</f>
@@ -1412,27 +1412,27 @@
       </c>
       <c r="R2" s="32">
         <f>IFERROR(S2/$B2,0)</f>
-        <v>8.1096697806776318E-3</v>
+        <v>8.5351069161131738E-3</v>
       </c>
       <c r="S2" s="29">
         <f>SUM(S46,S42,S33,S27,S22,S13,S6,S3)</f>
-        <v>8301.487799999999</v>
+        <v>8736.987799999999</v>
       </c>
       <c r="T2" s="36">
         <f>IFERROR(U2/$B2,0)</f>
-        <v>9.997108199751284E-2</v>
+        <v>9.8186444039142187E-2</v>
       </c>
       <c r="U2" s="31">
         <f>SUM(U46,U42,U33,U27,U22,U13,U6,U3)</f>
-        <v>102335.698</v>
+        <v>100508.84800000001</v>
       </c>
       <c r="V2" s="35">
         <f>IFERROR(W2/$B2,0)</f>
-        <v>9.7557571755272549E-2</v>
+        <v>9.0562818650460647E-2</v>
       </c>
       <c r="W2" s="31">
         <f>SUM(W46,W42,W33,W27,W22,W13,W6,W3)</f>
-        <v>99865.10100000001</v>
+        <v>92704.900999999998</v>
       </c>
       <c r="X2" s="32">
         <f>IFERROR(Y2/$B2,0)</f>
@@ -1444,67 +1444,67 @@
       </c>
       <c r="Z2" s="32">
         <f>IFERROR(AA2/$B2,0)</f>
-        <v>9.7460272182077327E-4</v>
+        <v>1.1281996926692931E-3</v>
       </c>
       <c r="AA2" s="29">
         <f>SUM(AA46,AA42,AA33,AA27,AA22,AA13,AA6,AA3)</f>
-        <v>997.65499999999997</v>
+        <v>1154.885</v>
       </c>
       <c r="AB2" s="32">
         <f>IFERROR(AC2/$B2,0)</f>
-        <v>3.4610580929279743E-3</v>
+        <v>5.5467990617914477E-3</v>
       </c>
       <c r="AC2" s="29">
         <f>SUM(AC46,AC42,AC33,AC27,AC22,AC13,AC6,AC3)</f>
-        <v>3542.9224999999997</v>
+        <v>5677.9975000000004</v>
       </c>
       <c r="AD2" s="35">
         <f>IFERROR(AE2/$B2,0)</f>
-        <v>3.699998046212926E-2</v>
+        <v>3.4707015951694571E-2</v>
       </c>
       <c r="AE2" s="31">
         <f>SUM(AE46,AE42,AE33,AE27,AE22,AE13,AE6,AE3)</f>
-        <v>37875.141000000003</v>
+        <v>35527.941000000006</v>
       </c>
       <c r="AF2" s="32">
         <f>IFERROR(AG2/$B2,0)</f>
-        <v>3.411127598903145E-2</v>
+        <v>3.5736226045349352E-2</v>
       </c>
       <c r="AG2" s="29">
         <f>SUM(AG46,AG42,AG33,AG27,AG22,AG13,AG6,AG3)</f>
-        <v>34918.110000000008</v>
+        <v>36581.495000000003</v>
       </c>
       <c r="AH2" s="32">
         <f>IFERROR(AI2/$B2,0)</f>
-        <v>2.7555475341741781E-3</v>
+        <v>2.6787490487499184E-3</v>
       </c>
       <c r="AI2" s="29">
         <f>SUM(AI46,AI42,AI33,AI27,AI22,AI13,AI6,AI3)</f>
-        <v>2820.7244999999998</v>
+        <v>2742.1095</v>
       </c>
       <c r="AJ2" s="35">
         <f>IFERROR(AK2/$B2,0)</f>
-        <v>4.8082737021236686E-2</v>
+        <v>4.6505322604437252E-2</v>
       </c>
       <c r="AK2" s="31">
         <f>SUM(AK46,AK42,AK33,AK27,AK22,AK13,AK6,AK3)</f>
-        <v>49220.038</v>
+        <v>47605.313000000009</v>
       </c>
       <c r="AL2" s="35">
         <f>IFERROR(AM2/$B2,0)</f>
-        <v>3.0334017972887296E-2</v>
+        <v>2.9483143702016209E-2</v>
       </c>
       <c r="AM2" s="31">
         <f>SUM(AM46,AM42,AM33,AM27,AM22,AM13,AM6,AM3)</f>
-        <v>31051.5085</v>
+        <v>30180.5085</v>
       </c>
       <c r="AN2" s="35">
         <f>IFERROR(AO2/$B2,0)</f>
-        <v>5.2801374098449379E-2</v>
+        <v>5.1525062692142749E-2</v>
       </c>
       <c r="AO2" s="31">
         <f>SUM(AO46,AO42,AO33,AO27,AO22,AO13,AO6,AO3)</f>
-        <v>54050.285000000003</v>
+        <v>52743.785000000003</v>
       </c>
       <c r="AP2" s="35">
         <f>IFERROR(AQ2/$B2,0)</f>
@@ -1516,67 +1516,67 @@
       </c>
       <c r="AR2" s="35">
         <f>IFERROR(AS2/$B2,0)</f>
-        <v>0.36582509405042529</v>
+        <v>0.36642730007141094</v>
       </c>
       <c r="AS2" s="31">
         <f>SUM(AS46,AS42,AS33,AS27,AS22,AS13,AS6,AS3)</f>
-        <v>374477.95500000002</v>
+        <v>375094.40500000003</v>
       </c>
       <c r="AT2" s="32">
         <f>IFERROR(AU2/$B2,0)</f>
-        <v>2.8090573661191833E-5</v>
+        <v>1.1317800074830046E-4</v>
       </c>
       <c r="AU2" s="29">
         <f>SUM(AU46,AU42,AU33,AU27,AU22,AU13,AU6,AU3)</f>
-        <v>28.755000000000003</v>
+        <v>115.85500000000002</v>
       </c>
       <c r="AV2" s="32">
         <f>IFERROR(AW2/$B2,0)</f>
-        <v>6.2676854363734585E-3</v>
+        <v>9.2810991615322781E-3</v>
       </c>
       <c r="AW2" s="29">
         <f>SUM(AW46,AW42,AW33,AW27,AW22,AW13,AW6,AW3)</f>
-        <v>6415.9349999999995</v>
+        <v>9500.6250000000018</v>
       </c>
       <c r="AX2" s="32">
         <f>IFERROR(AY2/$B2,0)</f>
-        <v>7.3520563120510569E-3</v>
+        <v>9.225078713196758E-3</v>
       </c>
       <c r="AY2" s="29">
         <f>SUM(AY46,AY42,AY33,AY27,AY22,AY13,AY6,AY3)</f>
-        <v>7525.9545000000007</v>
+        <v>9443.2795000000006</v>
       </c>
       <c r="AZ2" s="32">
         <f>IFERROR(BA2/$B2,0)</f>
-        <v>4.3448805405738077E-4</v>
+        <v>5.1106673843577847E-4</v>
       </c>
       <c r="BA2" s="29">
         <f>SUM(BA46,BA42,BA33,BA27,BA22,BA13,BA6,BA3)</f>
-        <v>444.76499999999999</v>
+        <v>523.15499999999997</v>
       </c>
       <c r="BB2" s="32">
         <f>IFERROR(BC2/$B2,0)</f>
-        <v>1.4444336117805547E-2</v>
+        <v>1.8532928638904003E-2</v>
       </c>
       <c r="BC2" s="29">
         <f>SUM(BC46,BC42,BC33,BC27,BC22,BC13,BC6,BC3)</f>
-        <v>14785.988000000001</v>
+        <v>18971.288</v>
       </c>
       <c r="BD2" s="32">
         <f>IFERROR(BE2/$B2,0)</f>
-        <v>1.2114213019450929E-2</v>
+        <v>1.2498205446572225E-2</v>
       </c>
       <c r="BE2" s="29">
         <f>SUM(BE46,BE42,BE33,BE27,BE22,BE13,BE6,BE3)</f>
-        <v>12400.750500000002</v>
+        <v>12793.825499999999</v>
       </c>
       <c r="BF2" s="35">
         <f>IFERROR(BG2/$B2,0)</f>
-        <v>3.4124776657715065E-2</v>
+        <v>3.3356791803472466E-2</v>
       </c>
       <c r="BG2" s="31">
         <f>SUM(BG46,BG42,BG33,BG27,BG22,BG13,BG6,BG3)</f>
-        <v>34931.93</v>
+        <v>34145.78</v>
       </c>
       <c r="BH2" s="32">
         <f>IFERROR(BI2/$B2,0)</f>
@@ -3915,7 +3915,7 @@
         <v>215.66249999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="C13" s="40">
         <f>IFERROR(SUM(F13,H13,J13,L13,N13,P13,R13,T13,V13,X13,Z13,AB13,AD13,AF13,AH13,AJ13,AL13,AN13,AP13,AR13,AT13,AV13,AX13,AZ13,BB13,BD13,BF13,BH13,BJ13,BL13),0)</f>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D13" s="26">
         <v>328</v>
@@ -3936,11 +3936,11 @@
       </c>
       <c r="F13" s="32">
         <f>IFERROR(G13/$B13,0)</f>
-        <v>1.4291902677229437E-3</v>
+        <v>1.7150283212675327E-3</v>
       </c>
       <c r="G13" s="29">
         <f>SUM(G14:G21)</f>
-        <v>217.75</v>
+        <v>261.3</v>
       </c>
       <c r="H13" s="32">
         <f>IFERROR(I13/$B13,0)</f>
@@ -3952,11 +3952,11 @@
       </c>
       <c r="J13" s="32">
         <f>IFERROR(K13/$B13,0)</f>
-        <v>5.716761070891775E-3</v>
+        <v>1.143352214178355E-2</v>
       </c>
       <c r="K13" s="29">
         <f>SUM(K14:K21)</f>
-        <v>871</v>
+        <v>1742</v>
       </c>
       <c r="L13" s="32">
         <f>IFERROR(M13/$B13,0)</f>
@@ -3968,11 +3968,11 @@
       </c>
       <c r="N13" s="35">
         <f>IFERROR(O13/$B13,0)</f>
-        <v>5.8875813046817055E-3</v>
+        <v>5.9447489153906232E-3</v>
       </c>
       <c r="O13" s="31">
         <f>SUM(O14:O21)</f>
-        <v>897.02599999999995</v>
+        <v>905.73599999999999</v>
       </c>
       <c r="P13" s="35">
         <f>IFERROR(Q13/$B13,0)</f>
@@ -3984,27 +3984,27 @@
       </c>
       <c r="R13" s="32">
         <f>IFERROR(S13/$B13,0)</f>
-        <v>5.1818501040306116E-2</v>
+        <v>5.4676881575752005E-2</v>
       </c>
       <c r="S13" s="29">
         <f>SUM(S14:S21)</f>
-        <v>7895.0149999999994</v>
+        <v>8330.5149999999994</v>
       </c>
       <c r="T13" s="36">
         <f>IFERROR(U13/$B13,0)</f>
-        <v>0.42504453297803219</v>
+        <v>0.40789424976535693</v>
       </c>
       <c r="U13" s="31">
         <f>SUM(U14:U21)</f>
-        <v>64759.360000000008</v>
+        <v>62146.360000000015</v>
       </c>
       <c r="V13" s="35">
         <f>IFERROR(W13/$B13,0)</f>
-        <v>4.8588701684836477E-2</v>
+        <v>4.2871940613944698E-2</v>
       </c>
       <c r="W13" s="31">
         <f>SUM(W14:W21)</f>
-        <v>7402.9260000000004</v>
+        <v>6531.9260000000004</v>
       </c>
       <c r="X13" s="32">
         <f>IFERROR(Y13/$B13,0)</f>
@@ -4024,27 +4024,27 @@
       </c>
       <c r="AB13" s="32">
         <f>IFERROR(AC13/$B13,0)</f>
-        <v>2.8583805354458875E-3</v>
+        <v>1.4291902677229438E-2</v>
       </c>
       <c r="AC13" s="29">
         <f>SUM(AC14:AC21)</f>
-        <v>435.5</v>
+        <v>2177.5</v>
       </c>
       <c r="AD13" s="35">
         <f>IFERROR(AE13/$B13,0)</f>
-        <v>8.7341771736490784E-2</v>
+        <v>6.1616346917477804E-2</v>
       </c>
       <c r="AE13" s="31">
         <f>SUM(AE14:AE21)</f>
-        <v>13307.305</v>
+        <v>9387.8050000000003</v>
       </c>
       <c r="AF13" s="32">
         <f>IFERROR(AG13/$B13,0)</f>
-        <v>8.0608480627990475E-2</v>
+        <v>9.204200276977402E-2</v>
       </c>
       <c r="AG13" s="29">
         <f>SUM(AG14:AG21)</f>
-        <v>12281.427500000002</v>
+        <v>14023.4275</v>
       </c>
       <c r="AH13" s="32">
         <f>IFERROR(AI13/$B13,0)</f>
@@ -4056,27 +4056,27 @@
       </c>
       <c r="AJ13" s="35">
         <f>IFERROR(AK13/$B13,0)</f>
-        <v>2.2730557433430252E-2</v>
+        <v>1.9872176897984366E-2</v>
       </c>
       <c r="AK13" s="31">
         <f>SUM(AK14:AK21)</f>
-        <v>3463.2049999999999</v>
+        <v>3027.7049999999999</v>
       </c>
       <c r="AL13" s="35">
         <f>IFERROR(AM13/$B13,0)</f>
-        <v>3.6466286861951046E-2</v>
+        <v>3.0749525791059273E-2</v>
       </c>
       <c r="AM13" s="31">
         <f>SUM(AM14:AM21)</f>
-        <v>5555.9669999999996</v>
+        <v>4684.9669999999996</v>
       </c>
       <c r="AN13" s="35">
         <f>IFERROR(AO13/$B13,0)</f>
-        <v>2.9061492921323977E-2</v>
+        <v>2.0486351314986318E-2</v>
       </c>
       <c r="AO13" s="31">
         <f>SUM(AO14:AO21)</f>
-        <v>4427.78</v>
+        <v>3121.28</v>
       </c>
       <c r="AP13" s="35">
         <f>IFERROR(AQ13/$B13,0)</f>
@@ -4088,51 +4088,51 @@
       </c>
       <c r="AR13" s="35">
         <f>IFERROR(AS13/$B13,0)</f>
-        <v>9.737580320164875E-2</v>
+        <v>8.5942281059865192E-2</v>
       </c>
       <c r="AS13" s="31">
         <f>SUM(AS14:AS21)</f>
-        <v>14836.080000000002</v>
+        <v>13094.080000000002</v>
       </c>
       <c r="AT13" s="32">
         <f>IFERROR(AU13/$B13,0)</f>
-        <v>0</v>
+        <v>5.7167610708917761E-4</v>
       </c>
       <c r="AU13" s="29">
         <f>SUM(AU14:AU21)</f>
-        <v>0</v>
+        <v>87.100000000000009</v>
       </c>
       <c r="AV13" s="32">
         <f>IFERROR(AW13/$B13,0)</f>
-        <v>2.338155277994736E-2</v>
+        <v>4.0531835992622695E-2</v>
       </c>
       <c r="AW13" s="29">
         <f>SUM(AW14:AW21)</f>
-        <v>3562.39</v>
+        <v>6175.3900000000012</v>
       </c>
       <c r="AX13" s="32">
         <f>IFERROR(AY13/$B13,0)</f>
-        <v>1.4291902677229437E-3</v>
+        <v>1.143352214178355E-2</v>
       </c>
       <c r="AY13" s="29">
         <f>SUM(AY14:AY21)</f>
-        <v>217.75</v>
+        <v>1742</v>
       </c>
       <c r="AZ13" s="32">
         <f>IFERROR(BA13/$B13,0)</f>
-        <v>5.7167610708917759E-5</v>
+        <v>5.7167610708917761E-4</v>
       </c>
       <c r="BA13" s="29">
         <f>SUM(BA14:BA21)</f>
-        <v>8.7100000000000009</v>
+        <v>87.100000000000009</v>
       </c>
       <c r="BB13" s="32">
         <f>IFERROR(BC13/$B13,0)</f>
-        <v>3.463521025997808E-2</v>
+        <v>5.1785493472653404E-2</v>
       </c>
       <c r="BC13" s="29">
         <f>SUM(BC14:BC21)</f>
-        <v>5276.9859999999999</v>
+        <v>7889.9859999999999</v>
       </c>
       <c r="BD13" s="32">
         <f>IFERROR(BE13/$B13,0)</f>
@@ -5752,16 +5752,16 @@
       </c>
       <c r="C21" s="40">
         <f t="shared" si="82"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
       <c r="F21" s="33">
-        <v>2.5000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" si="63"/>
-        <v>217.75</v>
+        <v>261.3</v>
       </c>
       <c r="H21" s="33">
         <v>5.0000000000000001E-3</v>
@@ -5771,11 +5771,11 @@
         <v>435.5</v>
       </c>
       <c r="J21" s="33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K21" s="29">
         <f t="shared" si="65"/>
-        <v>871</v>
+        <v>1742</v>
       </c>
       <c r="L21" s="33">
         <v>0</v>
@@ -5785,11 +5785,11 @@
         <v>0</v>
       </c>
       <c r="N21" s="33">
-        <v>4.8999999999999998E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O21" s="31">
         <f t="shared" si="67"/>
-        <v>426.78999999999996</v>
+        <v>435.5</v>
       </c>
       <c r="P21" s="33">
         <v>1.4999999999999999E-2</v>
@@ -5799,25 +5799,25 @@
         <v>1306.5</v>
       </c>
       <c r="R21" s="33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="S21" s="29">
         <f t="shared" si="69"/>
-        <v>435.5</v>
+        <v>871</v>
       </c>
       <c r="T21" s="37">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U21" s="31">
         <f t="shared" si="70"/>
-        <v>27001</v>
+        <v>24388.000000000004</v>
       </c>
       <c r="V21" s="33">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="W21" s="31">
         <f t="shared" si="71"/>
-        <v>1742</v>
+        <v>871</v>
       </c>
       <c r="X21" s="33">
         <v>5.0000000000000001E-3</v>
@@ -5834,25 +5834,25 @@
         <v>435.5</v>
       </c>
       <c r="AB21" s="33">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AC21" s="29">
         <f t="shared" si="74"/>
-        <v>435.5</v>
+        <v>2177.5</v>
       </c>
       <c r="AD21" s="33">
-        <v>0.1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="AE21" s="31">
         <f t="shared" si="75"/>
-        <v>8710</v>
+        <v>4790.5</v>
       </c>
       <c r="AF21" s="33">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="AG21" s="29">
         <f t="shared" si="83"/>
-        <v>12194.000000000002</v>
+        <v>13936</v>
       </c>
       <c r="AH21" s="33">
         <v>0.01</v>
@@ -5862,25 +5862,25 @@
         <v>871</v>
       </c>
       <c r="AJ21" s="33">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AK21" s="31">
         <f t="shared" si="76"/>
-        <v>2613</v>
+        <v>2177.5</v>
       </c>
       <c r="AL21" s="33">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AM21" s="31">
         <f t="shared" si="77"/>
-        <v>5226</v>
+        <v>4355</v>
       </c>
       <c r="AN21" s="33">
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO21" s="31">
         <f t="shared" si="78"/>
-        <v>3484</v>
+        <v>2177.5</v>
       </c>
       <c r="AP21" s="33">
         <v>0.02</v>
@@ -5890,46 +5890,46 @@
         <v>1742</v>
       </c>
       <c r="AR21" s="33">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="AS21" s="31">
         <f t="shared" si="80"/>
-        <v>8710</v>
+        <v>6968</v>
       </c>
       <c r="AT21" s="33">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="AU21" s="29">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>87.100000000000009</v>
       </c>
       <c r="AV21" s="33">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AW21" s="29">
         <f t="shared" si="86"/>
-        <v>3484</v>
+        <v>6097.0000000000009</v>
       </c>
       <c r="AX21" s="33">
-        <v>2.5000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="AY21" s="29">
         <f t="shared" si="87"/>
-        <v>217.75</v>
+        <v>1742</v>
       </c>
       <c r="AZ21" s="33">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="BA21" s="29">
         <f t="shared" si="88"/>
-        <v>8.7100000000000009</v>
+        <v>87.100000000000009</v>
       </c>
       <c r="BB21" s="33">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="BC21" s="29">
         <f t="shared" si="88"/>
-        <v>5226</v>
+        <v>7839</v>
       </c>
       <c r="BD21" s="33">
         <v>0</v>
@@ -5996,11 +5996,11 @@
       </c>
       <c r="H22" s="32">
         <f>IFERROR(I22/$B22,0)</f>
-        <v>1E-3</v>
+        <v>2.0325872803215383E-3</v>
       </c>
       <c r="I22" s="29">
         <f>SUM(I23:I26)</f>
-        <v>114.20099999999999</v>
+        <v>232.12349999999998</v>
       </c>
       <c r="J22" s="32">
         <f>IFERROR(K22/$B22,0)</f>
@@ -6012,11 +6012,11 @@
       </c>
       <c r="L22" s="32">
         <f>IFERROR(M22/$B22,0)</f>
-        <v>3.6388341608217089E-3</v>
+        <v>5.3598129613576066E-3</v>
       </c>
       <c r="M22" s="29">
         <f>SUM(M23:M26)</f>
-        <v>415.55849999999998</v>
+        <v>612.096</v>
       </c>
       <c r="N22" s="35">
         <f>IFERROR(O22/$B22,0)</f>
@@ -6044,19 +6044,19 @@
       </c>
       <c r="T22" s="36">
         <f>IFERROR(U22/$B22,0)</f>
-        <v>7.428954212309874E-2</v>
+        <v>8.1173457325242337E-2</v>
       </c>
       <c r="U22" s="31">
         <f>SUM(U23:U26)</f>
-        <v>8483.9399999999987</v>
+        <v>9270.09</v>
       </c>
       <c r="V22" s="35">
         <f>IFERROR(W22/$B22,0)</f>
-        <v>9.0932960306827418E-2</v>
+        <v>3.5861638689678725E-2</v>
       </c>
       <c r="W22" s="31">
         <f>SUM(W23:W26)</f>
-        <v>10384.634999999998</v>
+        <v>4095.4349999999999</v>
       </c>
       <c r="X22" s="32">
         <f>IFERROR(Y22/$B22,0)</f>
@@ -6068,51 +6068,51 @@
       </c>
       <c r="Z22" s="32">
         <f>IFERROR(AA22/$B22,0)</f>
-        <v>9.4420364094885325E-4</v>
+        <v>2.3209866813775708E-3</v>
       </c>
       <c r="AA22" s="29">
         <f>SUM(AA23:AA26)</f>
-        <v>107.82899999999999</v>
+        <v>265.05899999999997</v>
       </c>
       <c r="AB22" s="32">
         <f>IFERROR(AC22/$B22,0)</f>
-        <v>1.8238062713986741E-2</v>
+        <v>2.168002031505854E-2</v>
       </c>
       <c r="AC22" s="29">
         <f>SUM(AC23:AC26)</f>
-        <v>2082.8049999999998</v>
+        <v>2475.88</v>
       </c>
       <c r="AD22" s="35">
         <f>IFERROR(AE22/$B22,0)</f>
-        <v>3.819887741788601E-2</v>
+        <v>5.1966707822173185E-2</v>
       </c>
       <c r="AE22" s="31">
         <f>SUM(AE23:AE26)</f>
-        <v>4362.3500000000004</v>
+        <v>5934.65</v>
       </c>
       <c r="AF22" s="32">
         <f>IFERROR(AG22/$B22,0)</f>
-        <v>1.1140335898985122E-2</v>
+        <v>1.0451944378770766E-2</v>
       </c>
       <c r="AG22" s="29">
         <f>SUM(AG23:AG26)</f>
-        <v>1272.2375</v>
+        <v>1193.6225000000002</v>
       </c>
       <c r="AH22" s="32">
         <f>IFERROR(AI22/$B22,0)</f>
-        <v>8.271582560573025E-3</v>
+        <v>7.5831910403586665E-3</v>
       </c>
       <c r="AI22" s="29">
         <f>SUM(AI23:AI26)</f>
-        <v>944.62300000000005</v>
+        <v>866.00800000000004</v>
       </c>
       <c r="AJ22" s="35">
         <f>IFERROR(AK22/$B22,0)</f>
-        <v>3.2148930394655037E-2</v>
+        <v>2.1823057591439658E-2</v>
       </c>
       <c r="AK22" s="31">
         <f>SUM(AK23:AK26)</f>
-        <v>3671.44</v>
+        <v>2492.2150000000001</v>
       </c>
       <c r="AL22" s="35">
         <f>IFERROR(AM22/$B22,0)</f>
@@ -6140,11 +6140,11 @@
       </c>
       <c r="AR22" s="35">
         <f>IFERROR(AS22/$B22,0)</f>
-        <v>0.46668925841279851</v>
+        <v>0.48734100401922925</v>
       </c>
       <c r="AS22" s="31">
         <f>SUM(AS23:AS26)</f>
-        <v>53296.380000000005</v>
+        <v>55654.83</v>
       </c>
       <c r="AT22" s="32">
         <f>IFERROR(AU22/$B22,0)</f>
@@ -6156,19 +6156,19 @@
       </c>
       <c r="AV22" s="32">
         <f>IFERROR(AW22/$B22,0)</f>
-        <v>1.3767830404287178E-3</v>
+        <v>5.5071321617148712E-3</v>
       </c>
       <c r="AW22" s="29">
         <f>SUM(AW23:AW26)</f>
-        <v>157.22999999999999</v>
+        <v>628.91999999999996</v>
       </c>
       <c r="AX22" s="32">
         <f>IFERROR(AY22/$B22,0)</f>
-        <v>1.5645440933091653E-3</v>
+        <v>5.0065016943809607E-3</v>
       </c>
       <c r="AY22" s="29">
         <f>SUM(AY23:AY26)</f>
-        <v>178.67249999999999</v>
+        <v>571.74750000000006</v>
       </c>
       <c r="AZ22" s="32">
         <f>IFERROR(BA22/$B22,0)</f>
@@ -6180,27 +6180,27 @@
       </c>
       <c r="BB22" s="32">
         <f>IFERROR(BC22/$B22,0)</f>
-        <v>1.5555336643286836E-2</v>
+        <v>2.9323167047574011E-2</v>
       </c>
       <c r="BC22" s="29">
         <f>SUM(BC23:BC26)</f>
-        <v>1776.4349999999999</v>
+        <v>3348.7349999999997</v>
       </c>
       <c r="BD22" s="32">
         <f>IFERROR(BE22/$B22,0)</f>
-        <v>3.8211399199656743E-3</v>
+        <v>7.2630975210374689E-3</v>
       </c>
       <c r="BE22" s="29">
         <f>SUM(BE23:BE26)</f>
-        <v>436.37799999999999</v>
+        <v>829.45299999999997</v>
       </c>
       <c r="BF22" s="35">
         <f>IFERROR(BG22/$B22,0)</f>
-        <v>4.4647726377177087E-2</v>
+        <v>3.7763811175033496E-2</v>
       </c>
       <c r="BG22" s="31">
         <f>SUM(BG23:BG26)</f>
-        <v>5098.8150000000005</v>
+        <v>4312.665</v>
       </c>
       <c r="BH22" s="32">
         <f>IFERROR(BI22/$B22,0)</f>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="C26" s="40">
         <f t="shared" si="118"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
@@ -6920,11 +6920,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="33">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I26" s="29">
         <f t="shared" si="100"/>
-        <v>78.614999999999995</v>
+        <v>196.53749999999999</v>
       </c>
       <c r="J26" s="33">
         <v>0.01</v>
@@ -6934,11 +6934,11 @@
         <v>786.15</v>
       </c>
       <c r="L26" s="33">
-        <v>5.0000000000000001E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="M26" s="29">
         <f t="shared" si="102"/>
-        <v>393.07499999999999</v>
+        <v>589.61249999999995</v>
       </c>
       <c r="N26" s="33">
         <v>0.01</v>
@@ -6962,18 +6962,18 @@
         <v>0</v>
       </c>
       <c r="T26" s="37">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="U26" s="31">
         <f t="shared" si="106"/>
-        <v>6289.2</v>
+        <v>7075.3499999999995</v>
       </c>
       <c r="V26" s="33">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="W26" s="31">
         <f t="shared" si="107"/>
-        <v>9433.7999999999993</v>
+        <v>3144.6</v>
       </c>
       <c r="X26" s="33">
         <v>0</v>
@@ -6983,46 +6983,46 @@
         <v>0</v>
       </c>
       <c r="Z26" s="33">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AA26" s="29">
         <f t="shared" si="109"/>
-        <v>78.614999999999995</v>
+        <v>235.845</v>
       </c>
       <c r="AB26" s="33">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AC26" s="29">
         <f t="shared" si="110"/>
-        <v>1572.3</v>
+        <v>1965.375</v>
       </c>
       <c r="AD26" s="33">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="AE26" s="31">
         <f t="shared" si="111"/>
-        <v>1572.3</v>
+        <v>3144.6</v>
       </c>
       <c r="AF26" s="33">
-        <v>1.4999999999999999E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AG26" s="29">
         <f t="shared" si="119"/>
-        <v>1179.2249999999999</v>
+        <v>1100.6100000000001</v>
       </c>
       <c r="AH26" s="33">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="AI26" s="29">
         <f t="shared" si="120"/>
-        <v>864.76499999999999</v>
+        <v>786.15</v>
       </c>
       <c r="AJ26" s="33">
-        <v>3.5000000000000003E-2</v>
+        <v>0.02</v>
       </c>
       <c r="AK26" s="31">
         <f t="shared" si="112"/>
-        <v>2751.5250000000001</v>
+        <v>1572.3</v>
       </c>
       <c r="AL26" s="33">
         <v>2.5000000000000001E-2</v>
@@ -7046,11 +7046,11 @@
         <v>393.07499999999999</v>
       </c>
       <c r="AR26" s="33">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="AS26" s="31">
         <f t="shared" si="116"/>
-        <v>29873.7</v>
+        <v>32232.149999999998</v>
       </c>
       <c r="AT26" s="33">
         <v>0</v>
@@ -7060,18 +7060,18 @@
         <v>0</v>
       </c>
       <c r="AV26" s="33">
-        <v>2E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AW26" s="29">
         <f t="shared" si="122"/>
-        <v>157.22999999999999</v>
+        <v>628.91999999999996</v>
       </c>
       <c r="AX26" s="33">
-        <v>2E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AY26" s="29">
         <f t="shared" si="123"/>
-        <v>157.22999999999999</v>
+        <v>550.30500000000006</v>
       </c>
       <c r="AZ26" s="33">
         <v>0</v>
@@ -7081,25 +7081,25 @@
         <v>0</v>
       </c>
       <c r="BB26" s="33">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="BC26" s="29">
         <f t="shared" si="124"/>
-        <v>1572.3</v>
+        <v>3144.6</v>
       </c>
       <c r="BD26" s="33">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="BE26" s="29">
         <f t="shared" ref="BE26" si="130">$B26*BD26</f>
-        <v>393.07499999999999</v>
+        <v>786.15</v>
       </c>
       <c r="BF26" s="33">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="BG26" s="31">
         <f t="shared" si="117"/>
-        <v>3144.6</v>
+        <v>2358.4499999999998</v>
       </c>
       <c r="BH26" s="33">
         <v>0</v>
@@ -12655,11 +12655,11 @@
         <f>IFERROR(SUM(F51,H51,J51,L51,N51,P51,R51,T51,V51,X51,Z51,AB51,AD51,AF51,AH51,AJ51,AL51,AN51,AP51,AR51,AT51,AV51,AX51,AZ51,BB51,BD51,BF51,BH51,BJ51,BL51),0)</f>
         <v>1</v>
       </c>
-      <c r="D51" s="54">
+      <c r="D51" s="53">
         <f>SUM(E52,E56,E62,E68,E86,E100,E111)</f>
         <v>1072597.8</v>
       </c>
-      <c r="E51" s="55"/>
+      <c r="E51" s="54"/>
       <c r="F51" s="32">
         <f>IFERROR(G51/$B51,0)</f>
         <v>2.526813531299273E-3</v>
@@ -29735,24 +29735,6 @@
     <sortCondition ref="A32"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D51:E51"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BL1:BM1"/>
@@ -29769,6 +29751,24 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AZ1:BA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/development/tools/PopulationCalculator.xlsx
+++ b/development/tools/PopulationCalculator.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/don/Documents/GitHub/Atlas-Exandria/development/tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1044685-adm\Git\Atlas-Exandria\development\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C780BE33-9B18-6841-928C-FBEF84B52143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" tabRatio="918" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51195" windowHeight="28800" tabRatio="474"/>
   </bookViews>
   <sheets>
     <sheet name="Population" sheetId="14" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -495,7 +494,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -810,16 +809,7 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,10 +818,13 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,7 +839,13 @@
     <xf numFmtId="164" fontId="1" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,219 +1129,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR62" sqref="AR62"/>
+      <selection pane="bottomLeft" activeCell="AD126" sqref="AD126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="34"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="8.33203125" style="34" customWidth="1"/>
-    <col min="15" max="15" width="9.1640625" style="30" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="34" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="30" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="20" width="9.1640625" style="38" customWidth="1"/>
-    <col min="21" max="21" width="9.1640625" style="30" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="34" customWidth="1"/>
-    <col min="23" max="23" width="9.1640625" style="30" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="27" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="29" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="9.1640625" style="34" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" style="30" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="9.1640625" style="34" customWidth="1"/>
-    <col min="37" max="37" width="9.1640625" style="30" customWidth="1"/>
-    <col min="38" max="38" width="9.1640625" style="34" customWidth="1"/>
-    <col min="39" max="39" width="9.1640625" style="30" customWidth="1"/>
-    <col min="40" max="40" width="9.1640625" style="34" customWidth="1"/>
-    <col min="41" max="41" width="9.1640625" style="30" customWidth="1"/>
-    <col min="42" max="42" width="9.1640625" style="34" customWidth="1"/>
-    <col min="43" max="43" width="9.1640625" style="30" customWidth="1"/>
-    <col min="44" max="44" width="9.1640625" style="34" customWidth="1"/>
-    <col min="45" max="45" width="9.1640625" style="30" customWidth="1"/>
-    <col min="46" max="46" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="48" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="49" max="49" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="50" max="50" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="51" max="51" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="52" max="52" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="53" max="53" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="54" max="54" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="55" max="55" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="56" max="56" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="57" max="57" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="58" max="58" width="9.1640625" style="34" customWidth="1"/>
-    <col min="59" max="59" width="9.1640625" style="30" customWidth="1"/>
-    <col min="60" max="60" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="62" max="62" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="63" max="63" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="64" width="9.1640625" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="65" max="65" width="9.1640625" style="30" customWidth="1" outlineLevel="1"/>
-    <col min="66" max="66" width="9.1640625"/>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="34"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="8.28515625" style="34" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="30" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="34" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="30" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="20" width="9.140625" style="38" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="30" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="34" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="30" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="27" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="29" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="9.140625" style="34" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="30" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="9.140625" style="34" customWidth="1"/>
+    <col min="37" max="37" width="9.140625" style="30" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="34" customWidth="1"/>
+    <col min="39" max="39" width="9.140625" style="30" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="34" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="30" customWidth="1"/>
+    <col min="42" max="42" width="9.140625" style="34" customWidth="1"/>
+    <col min="43" max="43" width="9.140625" style="30" customWidth="1"/>
+    <col min="44" max="44" width="9.140625" style="34" customWidth="1"/>
+    <col min="45" max="45" width="9.140625" style="30" customWidth="1"/>
+    <col min="46" max="46" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="47" max="47" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="49" max="49" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="50" max="50" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="51" max="51" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="53" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="54" max="54" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="55" max="55" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="56" max="56" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="57" max="57" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="9.140625" style="34" customWidth="1"/>
+    <col min="59" max="59" width="9.140625" style="30" customWidth="1"/>
+    <col min="60" max="60" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="61" max="61" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="62" max="62" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="63" max="63" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="64" max="64" width="9.140625" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="65" max="65" width="9.140625" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="66" max="66" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="12" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="43">
+      <c r="B1" s="53">
         <f>SUM(B51,B2)</f>
         <v>2524854</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="50">
+      <c r="C1" s="48"/>
+      <c r="D1" s="47">
         <f>SUM(D2,D51)</f>
         <v>2042171.4</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="49" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="47" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="47" t="s">
+      <c r="O1" s="45"/>
+      <c r="P1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="45" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47" t="s">
+      <c r="S1" s="55"/>
+      <c r="T1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="47" t="s">
+      <c r="U1" s="45"/>
+      <c r="V1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="48"/>
-      <c r="X1" s="49" t="s">
+      <c r="W1" s="45"/>
+      <c r="X1" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49" t="s">
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="47" t="s">
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="49" t="s">
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="45" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="47" t="s">
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="47" t="s">
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="47" t="s">
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="55" t="s">
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="49" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="45"/>
+      <c r="AT1" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49" t="s">
+      <c r="AU1" s="43"/>
+      <c r="AV1" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49" t="s">
+      <c r="AW1" s="43"/>
+      <c r="AX1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49" t="s">
+      <c r="AY1" s="43"/>
+      <c r="AZ1" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49" t="s">
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49" t="s">
+      <c r="BC1" s="43"/>
+      <c r="BD1" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="47" t="s">
+      <c r="BE1" s="43"/>
+      <c r="BF1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="49" t="s">
+      <c r="BG1" s="45"/>
+      <c r="BH1" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49" t="s">
+      <c r="BI1" s="43"/>
+      <c r="BJ1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49" t="s">
+      <c r="BK1" s="43"/>
+      <c r="BL1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BM1" s="49"/>
+      <c r="BM1" s="43"/>
     </row>
-    <row r="2" spans="1:65" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
@@ -1352,13 +1351,13 @@
       </c>
       <c r="C2" s="39">
         <f>IFERROR(SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2,AN2,AP2,AR2,AT2,AV2,AX2,AZ2,BB2,BD2,BF2,BH2,BJ2,BL2),0)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D2" s="51">
+        <v>1</v>
+      </c>
+      <c r="D2" s="49">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>969573.6</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="50">
         <f>SUM(E46,E42,E33,E27,E22,E13,E6,E3)</f>
         <v>969573.6</v>
       </c>
@@ -1372,19 +1371,19 @@
       </c>
       <c r="H2" s="32">
         <f>IFERROR(I2/$B2,0)</f>
-        <v>3.0954825512160859E-3</v>
+        <v>3.0822725083597662E-3</v>
       </c>
       <c r="I2" s="29">
         <f>SUM(I46,I42,I33,I27,I22,I13,I6,I3)</f>
-        <v>3168.7</v>
+        <v>3155.1774999999998</v>
       </c>
       <c r="J2" s="32">
         <f>IFERROR(K2/$B2,0)</f>
-        <v>1.3380759886406817E-2</v>
+        <v>1.3347738442616783E-2</v>
       </c>
       <c r="K2" s="29">
         <f>SUM(K46,K42,K33,K27,K22,K13,K6,K3)</f>
-        <v>13697.254999999997</v>
+        <v>13663.452499999998</v>
       </c>
       <c r="L2" s="32">
         <f>IFERROR(M2/$B2,0)</f>
@@ -1396,19 +1395,19 @@
       </c>
       <c r="N2" s="35">
         <f>IFERROR(O2/$B2,0)</f>
-        <v>3.6556469819362617E-3</v>
+        <v>3.6468402866987148E-3</v>
       </c>
       <c r="O2" s="31">
         <f>SUM(O46,O42,O33,O27,O22,O13,O6,O3)</f>
-        <v>3742.114</v>
+        <v>3733.0989999999997</v>
       </c>
       <c r="P2" s="35">
         <f>IFERROR(Q2/$B2,0)</f>
-        <v>8.4164204080875073E-3</v>
+        <v>8.4208242441530506E-3</v>
       </c>
       <c r="Q2" s="31">
         <f>SUM(Q46,Q42,Q33,Q27,Q22,Q13,Q6,Q3)</f>
-        <v>8615.4940000000006</v>
+        <v>8620.0020000000022</v>
       </c>
       <c r="R2" s="32">
         <f>IFERROR(S2/$B2,0)</f>
@@ -1428,11 +1427,11 @@
       </c>
       <c r="V2" s="35">
         <f>IFERROR(W2/$B2,0)</f>
-        <v>9.0562818650460647E-2</v>
+        <v>9.0489546750705557E-2</v>
       </c>
       <c r="W2" s="31">
         <f>SUM(W46,W42,W33,W27,W22,W13,W6,W3)</f>
-        <v>92704.900999999998</v>
+        <v>92629.895999999993</v>
       </c>
       <c r="X2" s="32">
         <f>IFERROR(Y2/$B2,0)</f>
@@ -1452,59 +1451,59 @@
       </c>
       <c r="AB2" s="32">
         <f>IFERROR(AC2/$B2,0)</f>
-        <v>5.5467990617914477E-3</v>
+        <v>5.7593857488817011E-3</v>
       </c>
       <c r="AC2" s="29">
         <f>SUM(AC46,AC42,AC33,AC27,AC22,AC13,AC6,AC3)</f>
-        <v>5677.9975000000004</v>
+        <v>5895.6125000000002</v>
       </c>
       <c r="AD2" s="35">
         <f>IFERROR(AE2/$B2,0)</f>
-        <v>3.4707015951694571E-2</v>
+        <v>3.4677772643659531E-2</v>
       </c>
       <c r="AE2" s="31">
         <f>SUM(AE46,AE42,AE33,AE27,AE22,AE13,AE6,AE3)</f>
-        <v>35527.941000000006</v>
+        <v>35498.006000000008</v>
       </c>
       <c r="AF2" s="32">
         <f>IFERROR(AG2/$B2,0)</f>
-        <v>3.5736226045349352E-2</v>
+        <v>3.5816726957279471E-2</v>
       </c>
       <c r="AG2" s="29">
         <f>SUM(AG46,AG42,AG33,AG27,AG22,AG13,AG6,AG3)</f>
-        <v>36581.495000000003</v>
+        <v>36663.9</v>
       </c>
       <c r="AH2" s="32">
         <f>IFERROR(AI2/$B2,0)</f>
-        <v>2.6787490487499184E-3</v>
+        <v>2.6642910243998698E-3</v>
       </c>
       <c r="AI2" s="29">
         <f>SUM(AI46,AI42,AI33,AI27,AI22,AI13,AI6,AI3)</f>
-        <v>2742.1095</v>
+        <v>2727.3094999999998</v>
       </c>
       <c r="AJ2" s="35">
         <f>IFERROR(AK2/$B2,0)</f>
-        <v>4.6505322604437252E-2</v>
+        <v>4.6331766721730901E-2</v>
       </c>
       <c r="AK2" s="31">
         <f>SUM(AK46,AK42,AK33,AK27,AK22,AK13,AK6,AK3)</f>
-        <v>47605.313000000009</v>
+        <v>47427.652000000002</v>
       </c>
       <c r="AL2" s="35">
         <f>IFERROR(AM2/$B2,0)</f>
-        <v>2.9483143702016209E-2</v>
+        <v>2.9424329826611164E-2</v>
       </c>
       <c r="AM2" s="31">
         <f>SUM(AM46,AM42,AM33,AM27,AM22,AM13,AM6,AM3)</f>
-        <v>30180.5085</v>
+        <v>30120.303499999998</v>
       </c>
       <c r="AN2" s="35">
         <f>IFERROR(AO2/$B2,0)</f>
-        <v>5.1525062692142749E-2</v>
+        <v>5.1481034100422707E-2</v>
       </c>
       <c r="AO2" s="31">
         <f>SUM(AO46,AO42,AO33,AO27,AO22,AO13,AO6,AO3)</f>
-        <v>52743.785000000003</v>
+        <v>52698.715000000004</v>
       </c>
       <c r="AP2" s="35">
         <f>IFERROR(AQ2/$B2,0)</f>
@@ -1516,11 +1515,11 @@
       </c>
       <c r="AR2" s="35">
         <f>IFERROR(AS2/$B2,0)</f>
-        <v>0.36642730007141094</v>
+        <v>0.36613552150973033</v>
       </c>
       <c r="AS2" s="31">
         <f>SUM(AS46,AS42,AS33,AS27,AS22,AS13,AS6,AS3)</f>
-        <v>375094.40500000003</v>
+        <v>374795.72499999998</v>
       </c>
       <c r="AT2" s="32">
         <f>IFERROR(AU2/$B2,0)</f>
@@ -1532,19 +1531,19 @@
       </c>
       <c r="AV2" s="32">
         <f>IFERROR(AW2/$B2,0)</f>
-        <v>9.2810991615322781E-3</v>
+        <v>9.2659866185123303E-3</v>
       </c>
       <c r="AW2" s="29">
         <f>SUM(AW46,AW42,AW33,AW27,AW22,AW13,AW6,AW3)</f>
-        <v>9500.6250000000018</v>
+        <v>9485.1550000000025</v>
       </c>
       <c r="AX2" s="32">
         <f>IFERROR(AY2/$B2,0)</f>
-        <v>9.225078713196758E-3</v>
+        <v>9.4665814489871079E-3</v>
       </c>
       <c r="AY2" s="29">
         <f>SUM(AY46,AY42,AY33,AY27,AY22,AY13,AY6,AY3)</f>
-        <v>9443.2795000000006</v>
+        <v>9690.4945000000007</v>
       </c>
       <c r="AZ2" s="32">
         <f>IFERROR(BA2/$B2,0)</f>
@@ -1556,11 +1555,11 @@
       </c>
       <c r="BB2" s="32">
         <f>IFERROR(BC2/$B2,0)</f>
-        <v>1.8532928638904003E-2</v>
+        <v>1.8869390310974524E-2</v>
       </c>
       <c r="BC2" s="29">
         <f>SUM(BC46,BC42,BC33,BC27,BC22,BC13,BC6,BC3)</f>
-        <v>18971.288</v>
+        <v>19315.708000000002</v>
       </c>
       <c r="BD2" s="32">
         <f>IFERROR(BE2/$B2,0)</f>
@@ -1572,19 +1571,19 @@
       </c>
       <c r="BF2" s="35">
         <f>IFERROR(BG2/$B2,0)</f>
-        <v>3.3356791803472466E-2</v>
+        <v>3.3187906448767304E-2</v>
       </c>
       <c r="BG2" s="31">
         <f>SUM(BG46,BG42,BG33,BG27,BG22,BG13,BG6,BG3)</f>
-        <v>34145.78</v>
+        <v>33972.899999999994</v>
       </c>
       <c r="BH2" s="32">
         <f>IFERROR(BI2/$B2,0)</f>
-        <v>6.3014908372270692E-4</v>
+        <v>6.5906513242280354E-4</v>
       </c>
       <c r="BI2" s="29">
         <f>SUM(BI46,BI42,BI33,BI27,BI22,BI13,BI6,BI3)</f>
-        <v>645.05400000000009</v>
+        <v>674.65400000000011</v>
       </c>
       <c r="BJ2" s="32">
         <f>IFERROR(BK2/$B2,0)</f>
@@ -1596,14 +1595,14 @@
       </c>
       <c r="BL2" s="32">
         <f>IFERROR(BM2/$B2,0)</f>
-        <v>7.4510571453412439E-4</v>
+        <v>7.6492004614845072E-4</v>
       </c>
       <c r="BM2" s="29">
         <f>SUM(BM46,BM42,BM33,BM27,BM22,BM13,BM6,BM3)</f>
-        <v>762.72969999999998</v>
+        <v>783.0127</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>41</v>
       </c>
@@ -1863,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>503.21249999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>287.55</v>
       </c>
     </row>
-    <row r="9" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -3243,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>78</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>215.66249999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:65" ht="14" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" ht="14.1" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>69</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
@@ -6227,7 +6226,7 @@
         <v>85.4542</v>
       </c>
     </row>
-    <row r="23" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>1.5982000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>5.2410000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>83</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>78.614999999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>48</v>
       </c>
@@ -7152,19 +7151,19 @@
       </c>
       <c r="H27" s="32">
         <f>IFERROR(I27/$B27,0)</f>
-        <v>1.3478300677531587E-2</v>
+        <v>1.2652902398828055E-2</v>
       </c>
       <c r="I27" s="29">
         <f>SUM(I28:I32)</f>
-        <v>220.815</v>
+        <v>207.29250000000002</v>
       </c>
       <c r="J27" s="32">
         <f>IFERROR(K27/$B27,0)</f>
-        <v>8.2530672038088268E-3</v>
+        <v>6.1898004028566192E-3</v>
       </c>
       <c r="K27" s="29">
         <f>SUM(K28:K32)</f>
-        <v>135.21</v>
+        <v>101.4075</v>
       </c>
       <c r="L27" s="32">
         <f>IFERROR(M27/$B27,0)</f>
@@ -7176,19 +7175,19 @@
       </c>
       <c r="N27" s="35">
         <f>IFERROR(O27/$B27,0)</f>
-        <v>1.4436916315693098E-2</v>
+        <v>1.3886650796557407E-2</v>
       </c>
       <c r="O27" s="31">
         <f>SUM(O28:O32)</f>
-        <v>236.52</v>
+        <v>227.505</v>
       </c>
       <c r="P27" s="35">
         <f>IFERROR(Q27/$B27,0)</f>
-        <v>2.7510224012696085E-4</v>
+        <v>5.5026551913568949E-4</v>
       </c>
       <c r="Q27" s="31">
         <f>SUM(Q28:Q32)</f>
-        <v>4.5069999999999997</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="R27" s="32">
         <f>IFERROR(S27/$B27,0)</f>
@@ -7208,11 +7207,11 @@
       </c>
       <c r="V27" s="35">
         <f>IFERROR(W27/$B27,0)</f>
-        <v>6.6968809131416715E-2</v>
+        <v>6.2842275529512298E-2</v>
       </c>
       <c r="W27" s="31">
         <f>SUM(W28:W32)</f>
-        <v>1097.1500000000001</v>
+        <v>1029.5450000000001</v>
       </c>
       <c r="X27" s="32">
         <f>IFERROR(Y27/$B27,0)</f>
@@ -7232,27 +7231,27 @@
       </c>
       <c r="AB27" s="32">
         <f>IFERROR(AC27/$B27,0)</f>
-        <v>1.0018922053347984E-2</v>
+        <v>2.2398522859061222E-2</v>
       </c>
       <c r="AC27" s="29">
         <f>SUM(AC28:AC32)</f>
-        <v>164.14000000000001</v>
+        <v>366.95499999999998</v>
       </c>
       <c r="AD27" s="35">
         <f>IFERROR(AE27/$B27,0)</f>
-        <v>1.5707135445278641E-2</v>
+        <v>1.4331624244643836E-2</v>
       </c>
       <c r="AE27" s="31">
         <f>SUM(AE28:AE32)</f>
-        <v>257.33</v>
+        <v>234.79499999999996</v>
       </c>
       <c r="AF27" s="32">
         <f>IFERROR(AG27/$B27,0)</f>
-        <v>6.0523103216749072E-3</v>
+        <v>1.0178843923579319E-2</v>
       </c>
       <c r="AG27" s="29">
         <f>SUM(AG28:AG32)</f>
-        <v>99.155000000000001</v>
+        <v>166.76</v>
       </c>
       <c r="AH27" s="32">
         <f>IFERROR(AI27/$B27,0)</f>
@@ -7264,27 +7263,27 @@
       </c>
       <c r="AJ27" s="35">
         <f>IFERROR(AK27/$B27,0)</f>
-        <v>5.948245132149179E-2</v>
+        <v>5.3155099798571685E-2</v>
       </c>
       <c r="AK27" s="31">
         <f>SUM(AK28:AK32)</f>
-        <v>974.50099999999998</v>
+        <v>870.83999999999992</v>
       </c>
       <c r="AL27" s="35">
         <f>IFERROR(AM27/$B27,0)</f>
-        <v>1.9471708478300678E-2</v>
+        <v>1.5345174876396264E-2</v>
       </c>
       <c r="AM27" s="31">
         <f>SUM(AM28:AM32)</f>
-        <v>319.005</v>
+        <v>251.4</v>
       </c>
       <c r="AN27" s="35">
         <f>IFERROR(AO27/$B27,0)</f>
-        <v>7.5170298480131847E-2</v>
+        <v>7.2419276078862241E-2</v>
       </c>
       <c r="AO27" s="31">
         <f>SUM(AO28:AO32)</f>
-        <v>1231.5150000000001</v>
+        <v>1186.4450000000002</v>
       </c>
       <c r="AP27" s="35">
         <f>IFERROR(AQ27/$B27,0)</f>
@@ -7296,11 +7295,11 @@
       </c>
       <c r="AR27" s="35">
         <f>IFERROR(AS27/$B27,0)</f>
-        <v>0.5669324909967649</v>
+        <v>0.55592840139168653</v>
       </c>
       <c r="AS27" s="31">
         <f>SUM(AS28:AS32)</f>
-        <v>9288.0550000000003</v>
+        <v>9107.7749999999996</v>
       </c>
       <c r="AT27" s="32">
         <f>IFERROR(AU27/$B27,0)</f>
@@ -7312,19 +7311,19 @@
       </c>
       <c r="AV27" s="32">
         <f>IFERROR(AW27/$B27,0)</f>
-        <v>8.2530672038088268E-3</v>
+        <v>5.5020448025392176E-3</v>
       </c>
       <c r="AW27" s="29">
         <f>SUM(AW28:AW32)</f>
-        <v>135.21</v>
+        <v>90.14</v>
       </c>
       <c r="AX27" s="32">
         <f>IFERROR(AY27/$B27,0)</f>
-        <v>1.8283586644692672E-2</v>
+        <v>3.0663187450405905E-2</v>
       </c>
       <c r="AY27" s="29">
         <f>SUM(AY28:AY32)</f>
-        <v>299.54000000000002</v>
+        <v>502.35499999999996</v>
       </c>
       <c r="AZ27" s="32">
         <f>IFERROR(BA27/$B27,0)</f>
@@ -7336,11 +7335,11 @@
       </c>
       <c r="BB27" s="32">
         <f>IFERROR(BC27/$B27,0)</f>
-        <v>1.7315815174266006E-2</v>
+        <v>3.3821949581883663E-2</v>
       </c>
       <c r="BC27" s="29">
         <f>SUM(BC28:BC32)</f>
-        <v>283.685</v>
+        <v>554.10500000000002</v>
       </c>
       <c r="BD27" s="32">
         <f>IFERROR(BE27/$B27,0)</f>
@@ -7352,11 +7351,11 @@
       </c>
       <c r="BF27" s="35">
         <f>IFERROR(BG27/$B27,0)</f>
-        <v>4.5386681315998295E-2</v>
+        <v>3.4382591710919862E-2</v>
       </c>
       <c r="BG27" s="31">
         <f>SUM(BG28:BG32)</f>
-        <v>743.57</v>
+        <v>563.29000000000008</v>
       </c>
       <c r="BH27" s="32">
         <f>IFERROR(BI27/$B27,0)</f>
@@ -7376,14 +7375,14 @@
       </c>
       <c r="BL27" s="32">
         <f>IFERROR(BM27/$B27,0)</f>
-        <v>8.2536775926265028E-4</v>
+        <v>2.0634193981566257E-3</v>
       </c>
       <c r="BM27" s="29">
         <f>SUM(BM28:BM32)</f>
-        <v>13.522</v>
+        <v>33.805</v>
       </c>
     </row>
-    <row r="28" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>18</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
@@ -7852,11 +7851,11 @@
         <v>0</v>
       </c>
       <c r="H30" s="33">
-        <v>1.9E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="I30" s="29">
         <f t="shared" si="132"/>
-        <v>171.285</v>
+        <v>157.76250000000002</v>
       </c>
       <c r="J30" s="33">
         <v>0</v>
@@ -7873,18 +7872,18 @@
         <v>0</v>
       </c>
       <c r="N30" s="33">
-        <v>0.02</v>
+        <v>1.9E-2</v>
       </c>
       <c r="O30" s="31">
         <f t="shared" si="135"/>
-        <v>180.3</v>
+        <v>171.285</v>
       </c>
       <c r="P30" s="33">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="Q30" s="31">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>9.0150000000000006</v>
       </c>
       <c r="R30" s="33">
         <v>0</v>
@@ -8048,14 +8047,14 @@
         <v>0</v>
       </c>
       <c r="BL30" s="33">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BM30" s="29">
         <f t="shared" si="160"/>
-        <v>9.0150000000000006</v>
+        <v>22.537500000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -8279,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>84</v>
       </c>
@@ -8307,11 +8306,11 @@
         <v>45.07</v>
       </c>
       <c r="J32" s="33">
-        <v>0.03</v>
+        <v>2.2499999999999999E-2</v>
       </c>
       <c r="K32" s="29">
         <f t="shared" si="133"/>
-        <v>135.21</v>
+        <v>101.4075</v>
       </c>
       <c r="L32" s="33">
         <v>0.01</v>
@@ -8328,11 +8327,11 @@
         <v>45.07</v>
       </c>
       <c r="P32" s="33">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="31">
         <f t="shared" si="136"/>
-        <v>4.5069999999999997</v>
+        <v>0</v>
       </c>
       <c r="R32" s="33">
         <v>0</v>
@@ -8349,11 +8348,11 @@
         <v>90.14</v>
       </c>
       <c r="V32" s="33">
-        <v>0.04</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="W32" s="31">
         <f t="shared" si="139"/>
-        <v>180.28</v>
+        <v>112.67500000000001</v>
       </c>
       <c r="X32" s="33">
         <v>0</v>
@@ -8370,25 +8369,25 @@
         <v>0</v>
       </c>
       <c r="AB32" s="33">
-        <v>0.03</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AC32" s="29">
         <f t="shared" si="142"/>
-        <v>135.21</v>
+        <v>338.02499999999998</v>
       </c>
       <c r="AD32" s="33">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AE32" s="31">
         <f t="shared" si="143"/>
-        <v>90.14</v>
+        <v>67.605000000000004</v>
       </c>
       <c r="AF32" s="33">
-        <v>0.02</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG32" s="29">
         <f t="shared" si="151"/>
-        <v>90.14</v>
+        <v>157.745</v>
       </c>
       <c r="AH32" s="33">
         <v>0.01</v>
@@ -8398,25 +8397,25 @@
         <v>45.07</v>
       </c>
       <c r="AJ32" s="33">
-        <v>4.8000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AK32" s="31">
         <f t="shared" si="144"/>
-        <v>216.33600000000001</v>
+        <v>112.67500000000001</v>
       </c>
       <c r="AL32" s="33">
-        <v>5.5E-2</v>
+        <v>0.04</v>
       </c>
       <c r="AM32" s="31">
         <f t="shared" si="145"/>
-        <v>247.88499999999999</v>
+        <v>180.28</v>
       </c>
       <c r="AN32" s="33">
-        <v>4.4999999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AO32" s="31">
         <f t="shared" si="146"/>
-        <v>202.815</v>
+        <v>157.745</v>
       </c>
       <c r="AP32" s="33">
         <v>0.01</v>
@@ -8426,11 +8425,11 @@
         <v>45.07</v>
       </c>
       <c r="AR32" s="33">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="AS32" s="31">
         <f t="shared" si="148"/>
-        <v>1847.87</v>
+        <v>1667.59</v>
       </c>
       <c r="AT32" s="33">
         <v>0</v>
@@ -8440,18 +8439,18 @@
         <v>0</v>
       </c>
       <c r="AV32" s="33">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AW32" s="29">
         <f t="shared" si="154"/>
-        <v>135.21</v>
+        <v>90.14</v>
       </c>
       <c r="AX32" s="33">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="AY32" s="29">
         <f t="shared" si="155"/>
-        <v>270.42</v>
+        <v>473.23499999999996</v>
       </c>
       <c r="AZ32" s="33">
         <v>0</v>
@@ -8461,11 +8460,11 @@
         <v>0</v>
       </c>
       <c r="BB32" s="33">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="BC32" s="29">
         <f t="shared" si="156"/>
-        <v>225.35000000000002</v>
+        <v>495.77</v>
       </c>
       <c r="BD32" s="33">
         <v>0.02</v>
@@ -8475,11 +8474,11 @@
         <v>90.14</v>
       </c>
       <c r="BF32" s="33">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="BG32" s="31">
         <f t="shared" si="149"/>
-        <v>225.35000000000002</v>
+        <v>45.07</v>
       </c>
       <c r="BH32" s="33">
         <v>0.02</v>
@@ -8496,14 +8495,14 @@
         <v>0</v>
       </c>
       <c r="BL32" s="33">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="BM32" s="29">
         <f t="shared" si="160"/>
-        <v>4.5069999999999997</v>
+        <v>11.2675</v>
       </c>
     </row>
-    <row r="33" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
@@ -8763,7 +8762,7 @@
         <v>160.54100000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>2.133</v>
       </c>
     </row>
-    <row r="36" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
@@ -9435,7 +9434,7 @@
         <v>3.081</v>
       </c>
     </row>
-    <row r="37" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -9659,7 +9658,7 @@
         <v>2.6070000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -9883,7 +9882,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="39" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
@@ -10107,7 +10106,7 @@
         <v>3.5500000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>54</v>
       </c>
@@ -10331,7 +10330,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="41" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>85</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>142.20000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>49</v>
       </c>
@@ -10565,7 +10564,7 @@
       </c>
       <c r="C42" s="40">
         <f>IFERROR(SUM(F42,H42,J42,L42,N42,P42,R42,T42,V42,X42,Z42,AB42,AD42,AF42,AH42,AJ42,AL42,AN42,AP42,AR42,AT42,AV42,AX42,AZ42,BB42,BD42,BF42,BH42,BJ42,BL42),0)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="D42" s="26">
         <v>90</v>
@@ -10640,11 +10639,11 @@
       </c>
       <c r="V42" s="35">
         <f>IFERROR(W42/$B42,0)</f>
-        <v>1.2080989876265467E-2</v>
+        <v>1.1248593925759279E-2</v>
       </c>
       <c r="W42" s="31">
         <f>SUM(W43:W45)</f>
-        <v>107.4</v>
+        <v>100</v>
       </c>
       <c r="X42" s="32">
         <f>IFERROR(Y42/$B42,0)</f>
@@ -10664,51 +10663,51 @@
       </c>
       <c r="AB42" s="32">
         <f>IFERROR(AC42/$B42,0)</f>
-        <v>6.6591676040494941E-3</v>
+        <v>8.3239595050618679E-3</v>
       </c>
       <c r="AC42" s="29">
         <f>SUM(AC43:AC45)</f>
-        <v>59.2</v>
+        <v>74</v>
       </c>
       <c r="AD42" s="35">
         <f>IFERROR(AE42/$B42,0)</f>
-        <v>3.951181102362205E-2</v>
+        <v>3.8679415073115855E-2</v>
       </c>
       <c r="AE42" s="31">
         <f>SUM(AE43:AE45)</f>
-        <v>351.26</v>
+        <v>343.85999999999996</v>
       </c>
       <c r="AF42" s="32">
         <f>IFERROR(AG42/$B42,0)</f>
-        <v>1.6647919010123736E-2</v>
+        <v>1.831271091113611E-2</v>
       </c>
       <c r="AG42" s="29">
         <f>SUM(AG43:AG45)</f>
-        <v>148</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="AH42" s="32">
         <f>IFERROR(AI42/$B42,0)</f>
-        <v>4.9943757030371204E-3</v>
+        <v>3.3295838020247471E-3</v>
       </c>
       <c r="AI42" s="29">
         <f>SUM(AI43:AI45)</f>
-        <v>44.4</v>
+        <v>29.6</v>
       </c>
       <c r="AJ42" s="35">
         <f>IFERROR(AK42/$B42,0)</f>
-        <v>3.3717660292463439E-2</v>
+        <v>2.5393700787401576E-2</v>
       </c>
       <c r="AK42" s="31">
         <f>SUM(AK43:AK45)</f>
-        <v>299.75</v>
+        <v>225.75</v>
       </c>
       <c r="AL42" s="35">
         <f>IFERROR(AM42/$B42,0)</f>
-        <v>8.3239595050618677E-4</v>
+        <v>1.6647919010123735E-3</v>
       </c>
       <c r="AM42" s="31">
         <f>SUM(AM43:AM45)</f>
-        <v>7.4</v>
+        <v>14.8</v>
       </c>
       <c r="AN42" s="35">
         <f>IFERROR(AO42/$B42,0)</f>
@@ -10728,11 +10727,11 @@
       </c>
       <c r="AR42" s="35">
         <f>IFERROR(AS42/$B42,0)</f>
-        <v>0.11029808773903263</v>
+        <v>9.6979752530933647E-2</v>
       </c>
       <c r="AS42" s="31">
         <f>SUM(AS43:AS45)</f>
-        <v>980.55000000000007</v>
+        <v>862.15000000000009</v>
       </c>
       <c r="AT42" s="32">
         <f>IFERROR(AU42/$B42,0)</f>
@@ -10744,19 +10743,19 @@
       </c>
       <c r="AV42" s="32">
         <f>IFERROR(AW42/$B42,0)</f>
-        <v>1.831271091113611E-2</v>
+        <v>2.1642294713160856E-2</v>
       </c>
       <c r="AW42" s="29">
         <f>SUM(AW43:AW45)</f>
-        <v>162.80000000000001</v>
+        <v>192.4</v>
       </c>
       <c r="AX42" s="32">
         <f>IFERROR(AY42/$B42,0)</f>
-        <v>1.4150731158605176E-2</v>
+        <v>1.9145106861642298E-2</v>
       </c>
       <c r="AY42" s="29">
         <f>SUM(AY43:AY45)</f>
-        <v>125.80000000000001</v>
+        <v>170.20000000000002</v>
       </c>
       <c r="AZ42" s="32">
         <f>IFERROR(BA42/$B42,0)</f>
@@ -10768,11 +10767,11 @@
       </c>
       <c r="BB42" s="32">
         <f>IFERROR(BC42/$B42,0)</f>
-        <v>1.4983127109111359E-2</v>
+        <v>2.3307086614173231E-2</v>
       </c>
       <c r="BC42" s="29">
         <f>SUM(BC43:BC45)</f>
-        <v>133.19999999999999</v>
+        <v>207.20000000000002</v>
       </c>
       <c r="BD42" s="32">
         <f>IFERROR(BE42/$B42,0)</f>
@@ -10784,19 +10783,19 @@
       </c>
       <c r="BF42" s="35">
         <f>IFERROR(BG42/$B42,0)</f>
-        <v>4.5838020247469064E-3</v>
+        <v>5.4161979752530929E-3</v>
       </c>
       <c r="BG42" s="31">
         <f>SUM(BG43:BG45)</f>
-        <v>40.75</v>
+        <v>48.15</v>
       </c>
       <c r="BH42" s="32">
         <f>IFERROR(BI42/$B42,0)</f>
-        <v>4.9943757030371213E-3</v>
+        <v>8.3239595050618679E-3</v>
       </c>
       <c r="BI42" s="29">
         <f>SUM(BI43:BI45)</f>
-        <v>44.400000000000006</v>
+        <v>74</v>
       </c>
       <c r="BJ42" s="32">
         <f>IFERROR(BK42/$B42,0)</f>
@@ -10815,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
@@ -11039,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>70</v>
       </c>
@@ -11263,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>86</v>
       </c>
@@ -11272,7 +11271,7 @@
       </c>
       <c r="C45" s="40">
         <f t="shared" si="219"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="16"/>
@@ -11333,11 +11332,11 @@
         <v>14.8</v>
       </c>
       <c r="V45" s="33">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="W45" s="31">
         <f t="shared" si="208"/>
-        <v>29.6</v>
+        <v>22.2</v>
       </c>
       <c r="X45" s="33">
         <v>0</v>
@@ -11354,46 +11353,46 @@
         <v>0</v>
       </c>
       <c r="AB45" s="33">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AC45" s="29">
         <f t="shared" si="211"/>
-        <v>59.2</v>
+        <v>74</v>
       </c>
       <c r="AD45" s="33">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE45" s="31">
         <f t="shared" si="212"/>
-        <v>14.8</v>
+        <v>7.4</v>
       </c>
       <c r="AF45" s="33">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="AG45" s="29">
         <f t="shared" si="220"/>
-        <v>148</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="AH45" s="33">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AI45" s="29">
         <f t="shared" si="221"/>
-        <v>44.4</v>
+        <v>29.6</v>
       </c>
       <c r="AJ45" s="33">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="AK45" s="31">
         <f t="shared" si="213"/>
-        <v>133.19999999999999</v>
+        <v>59.2</v>
       </c>
       <c r="AL45" s="33">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM45" s="31">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AN45" s="33">
         <v>4.4999999999999998E-2</v>
@@ -11410,11 +11409,11 @@
         <v>0</v>
       </c>
       <c r="AR45" s="33">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="AS45" s="31">
         <f t="shared" si="217"/>
-        <v>473.6</v>
+        <v>355.2</v>
       </c>
       <c r="AT45" s="33">
         <v>0</v>
@@ -11424,18 +11423,18 @@
         <v>0</v>
       </c>
       <c r="AV45" s="33">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="AW45" s="29">
         <f t="shared" si="223"/>
-        <v>162.80000000000001</v>
+        <v>192.4</v>
       </c>
       <c r="AX45" s="33">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AY45" s="29">
         <f t="shared" si="224"/>
-        <v>118.4</v>
+        <v>162.80000000000001</v>
       </c>
       <c r="AZ45" s="33">
         <v>0</v>
@@ -11445,11 +11444,11 @@
         <v>0</v>
       </c>
       <c r="BB45" s="33">
-        <v>0.09</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="BC45" s="29">
         <f t="shared" si="225"/>
-        <v>133.19999999999999</v>
+        <v>207.20000000000002</v>
       </c>
       <c r="BD45" s="33">
         <v>0.01</v>
@@ -11459,18 +11458,18 @@
         <v>14.8</v>
       </c>
       <c r="BF45" s="33">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="BG45" s="31">
         <f t="shared" si="218"/>
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="BH45" s="33">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="BI45" s="29">
         <f t="shared" si="227"/>
-        <v>29.6</v>
+        <v>59.2</v>
       </c>
       <c r="BJ45" s="33">
         <v>0</v>
@@ -11487,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>51</v>
       </c>
@@ -11747,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -11971,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -12195,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>75</v>
       </c>
@@ -12419,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:65" ht="19" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:65" ht="18.75" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>61</v>
       </c>
@@ -12655,11 +12654,11 @@
         <f>IFERROR(SUM(F51,H51,J51,L51,N51,P51,R51,T51,V51,X51,Z51,AB51,AD51,AF51,AH51,AJ51,AL51,AN51,AP51,AR51,AT51,AV51,AX51,AZ51,BB51,BD51,BF51,BH51,BJ51,BL51),0)</f>
         <v>1</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="51">
         <f>SUM(E52,E56,E62,E68,E86,E100,E111)</f>
         <v>1072597.8</v>
       </c>
-      <c r="E51" s="54"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="32">
         <f>IFERROR(G51/$B51,0)</f>
         <v>2.526813531299273E-3</v>
@@ -12901,7 +12900,7 @@
         <v>667.81999999999994</v>
       </c>
     </row>
-    <row r="52" spans="1:65" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:65" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>62</v>
       </c>
@@ -13161,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>152</v>
       </c>
@@ -13385,7 +13384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>153</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>63</v>
       </c>
@@ -14093,7 +14092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>137</v>
       </c>
@@ -14317,7 +14316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>138</v>
       </c>
@@ -14541,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>139</v>
       </c>
@@ -14765,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>140</v>
       </c>
@@ -14989,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>141</v>
       </c>
@@ -15213,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
@@ -15473,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>132</v>
       </c>
@@ -15697,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>133</v>
       </c>
@@ -15921,7 +15920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>134</v>
       </c>
@@ -16145,7 +16144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>135</v>
       </c>
@@ -16369,7 +16368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
@@ -16593,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>65</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>101</v>
       </c>
@@ -17077,7 +17076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>102</v>
       </c>
@@ -17301,7 +17300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>103</v>
       </c>
@@ -17525,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>104</v>
       </c>
@@ -17749,7 +17748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>105</v>
       </c>
@@ -17973,7 +17972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>106</v>
       </c>
@@ -18197,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>107</v>
       </c>
@@ -18421,7 +18420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>109</v>
       </c>
@@ -18645,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
@@ -18869,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>110</v>
       </c>
@@ -19093,7 +19092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>111</v>
       </c>
@@ -19317,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>112</v>
       </c>
@@ -19541,7 +19540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>113</v>
       </c>
@@ -19765,7 +19764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>114</v>
       </c>
@@ -19989,7 +19988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>115</v>
       </c>
@@ -20213,7 +20212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>116</v>
       </c>
@@ -20437,7 +20436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>117</v>
       </c>
@@ -20661,7 +20660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>66</v>
       </c>
@@ -20921,7 +20920,7 @@
         <v>637.04</v>
       </c>
     </row>
-    <row r="87" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>88</v>
       </c>
@@ -21145,7 +21144,7 @@
         <v>0.79800000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>89</v>
       </c>
@@ -21369,7 +21368,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="89" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>90</v>
       </c>
@@ -21593,7 +21592,7 @@
         <v>2.6120000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>91</v>
       </c>
@@ -21817,7 +21816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>92</v>
       </c>
@@ -22041,7 +22040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>93</v>
       </c>
@@ -22265,7 +22264,7 @@
         <v>63.800000000000004</v>
       </c>
     </row>
-    <row r="93" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -22489,7 +22488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>97</v>
       </c>
@@ -22713,7 +22712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>98</v>
       </c>
@@ -22937,7 +22936,7 @@
         <v>82.11</v>
       </c>
     </row>
-    <row r="96" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>99</v>
       </c>
@@ -23161,7 +23160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>100</v>
       </c>
@@ -23385,7 +23384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
@@ -23609,7 +23608,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="99" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -23833,7 +23832,7 @@
         <v>167.2</v>
       </c>
     </row>
-    <row r="100" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>67</v>
       </c>
@@ -24093,7 +24092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>142</v>
       </c>
@@ -24317,7 +24316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>144</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>145</v>
       </c>
@@ -24765,7 +24764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>146</v>
       </c>
@@ -24989,7 +24988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>147</v>
       </c>
@@ -25213,7 +25212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>148</v>
       </c>
@@ -25437,7 +25436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>149</v>
       </c>
@@ -25661,7 +25660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>150</v>
       </c>
@@ -25885,7 +25884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>151</v>
       </c>
@@ -26109,7 +26108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>143</v>
       </c>
@@ -26333,7 +26332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:65" ht="16" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:65" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>68</v>
       </c>
@@ -26593,7 +26592,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="112" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>118</v>
       </c>
@@ -26817,7 +26816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>119</v>
       </c>
@@ -27041,7 +27040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>120</v>
       </c>
@@ -27265,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>121</v>
       </c>
@@ -27489,7 +27488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -27713,7 +27712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>123</v>
       </c>
@@ -27937,7 +27936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>124</v>
       </c>
@@ -28161,7 +28160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
@@ -28385,7 +28384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>126</v>
       </c>
@@ -28609,7 +28608,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="121" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -28833,7 +28832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
@@ -29057,7 +29056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>129</v>
       </c>
@@ -29281,7 +29280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>130</v>
       </c>
@@ -29505,7 +29504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:65" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>131</v>
       </c>
@@ -29729,12 +29728,30 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="126" spans="1:65" collapsed="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:65" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A32:A34">
     <sortCondition ref="A32"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BD1:BE1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="BH1:BI1"/>
     <mergeCell ref="BJ1:BK1"/>
     <mergeCell ref="BL1:BM1"/>
@@ -29751,24 +29768,6 @@
     <mergeCell ref="AJ1:AK1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AZ1:BA1"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BD1:BE1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
